--- a/media/papers_test.xlsx
+++ b/media/papers_test.xlsx
@@ -1,37 +1,270 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alex\code\Glonnet\Sci_papers\raw_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4601F7-125A-4E9C-AF8B-353FC09880C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>paper_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>full-text</t>
+  </si>
+  <si>
+    <t>4d9a65086f2f6ba5a9c1d9ba0a69a6bd5fb6e21e</t>
+  </si>
+  <si>
+    <t>Journal Pre-proof D-dimer cut-off points and risk of venous thromboembolism in adult hospitalized patients with COVID-19 D-dimer cut-off points and risk of venous thromboembolism in adult hospitalized patients with COVID-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+Word count: 1626 Keywords: deep vein thrombosis, pulmonary embolism, venous thromboembolism, Ddimer, coronavirus disease 2019 J o u r n a l P r e -p r o o f Journal Pre-proof J o u r n a l P r e -p r o o f Journal Pre-proof Receiver operating characteristics (ROC) curve analysis was used in a subgroup of patients who had a lower or upper extremity CUS or CTPA performed and the closest D-dimer value within 48 hours prior to the imaging study. In a post-hoc analysis, we determined optimal cut-off points by visually inspecting the ROC curve and identifying points on the curve at which the slope of the curve, which represents the likelihood ratio, J o u r n a l P r e -p r o o f
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+The novel coronavirus disease 2019 (COVID-19) pandemic has led to more than 24 million confirmed cases and over 820,000 deaths worldwide as of late August 2020.Early observational studies reported high rates of venous thromboembolism (VTE) in critically ill patients with COVID-19. 1 A recent meta-analysis reported an incidence of 26% for VTE among 3487 patients from 30 studies based on very low-quality evidence due to heterogeneity and risk of bias. 2 Furthermore, studies have reported that elevated D-dimer values in COVID-19 are associated with a higher risk of VTE, mechanical ventilation, and mortality. [3] [4] [5] However, the clinical implications of D-dimer values are unclear. We report VTE rates and analyze the diagnostic performance and relationship of D-dimer with VTE in a large observational cohort study of hospitalized adults with COVID-19.
+Methods
+We conducted a retrospective observational cohort study at New York-Presbyterian Hospital/Weill Cornell Medical Center, a quaternary referral center located in the Upper East Side of Manhattan, and New York-Presbyterian/Lower Manhattan Hospital, an affiliated nonteaching hospital. We included all consecutive adult (age ≥18 years) cases of COVID-19 confirmed by a positive SARS-CoV02 reverse transcriptase-polymerase chain reaction test admitted to our two hospitals between 3 March 2020, the date of the first positive case, and 15 May 2020. For patients who remained hospitalized at the end of the study period, data collection and analysis were complete through 5 June 2020. Univariate analysis and multivariable logistic regression analysis were performed to evaluate the association between the initial D-dimer value during hospitalization, clinical characteristics, and the odds of VTE. Complete case analysis was used for the multivariable logistic regression. Clinical characteristics with P values less than 0.05 in the univariate analysis were included in the multivariable logistic regression analysis. significantly changed. We calculated 95% confidence intervals (CIs) for the likelihood ratios at each level (mutually exclusive, all-inclusive ranges for D-dimer values) to demonstrate non-overlapping CIs.
+Results
+A total of 1739 hospitalized patients with COVID-19 were included in the study. The median age was 66.5 years (IQR 53.7-77.3), 59% were men, and common comorbidities included hypertension (56%), diabetes mellitus (31%) and obesity (30%). Figure 1) . Multilevel likelihood ratios significantly changed at the following D-dimer levels: &lt;1000 ng/mL: 0.14 (95% CI, 0.07-0.30); 1000-7500 ng/mL: 1.19 (0.97-1.47); and &gt;7500 ng/mL: 4.10 (2.94-5.71) ( Table 1) . With an overall prevalence of VTE of 16%, the posttest probabilities of VTE at each level were: 0.03 (95% CI, 0.01-0.05), 0.18 (0.14-0.23), and 0.43 (0.33-0.53), respectively.
+Discussion
+In our study of a large cohort of hospitalized COVID-19 patients in New York City the prevalence of objectively confirmed VTE was 7%. The rate of VTE in our patients with COVID-19 was lower than what was previously reported in European and Asian studies, J o u r n a l P r e -p r o o f Journal Pre-proof but similar to a recent US study comprising 400 patients (144 critically ill) in which the overall rate VTE and the rate of VTE in critically COVID-19 patients was 4.8% and 7.6%, respectively . [1] [2] 6 Elevated D-dimer levels were associated with higher probability of VTE, consistent with reports by others. 1 Other significant predictors of VTE in our cohort included Black race, need for supplemental oxygen on presentation, higher platelet counts, and prolonged prothrombin time. Higher odds of VTE among Black patients has been reported previously. 7 A possible explanation for this is that Black patients have a greater prevalence of comorbidities such as obesity, hypertension and diabetes, and may have sickle cell trait. 8 In our analysis of the diagnostic performance of D-dimer values, we identified three levels of D-dimer that stratified patients into low-probability (&lt;1000 ng/mL), intermediate-probability (1000-7500 ng/mL), and high-probability groups (&gt;7500 ng/mL). With a VTE prevalence of 16% in our D-dimer analysis, the posttest probabilities of VTE at each level were 3%, 18%, and 43%, respectively. A recent study of D-dimer levels in critically ill patients with COVID-19 on intermediate-dose thromboprophylaxis reported that D-dimers &lt;2000 ng/mL had a 100% negative predictive value for VTE and &gt;8000 ng/mL had a significantly increased likelihood ratio, concluding that cut-off points of 2000 ng/mL and 8000 ng/mL appear useful to identify patients with low and high probability of having developed VTE, respectively. 9 We identified similar cut-off points that appear to be useful for identifying patients at varying 
+Data collection
+Demographic, clinical characteristics and radiology reports were manually abstracted from electronic medical records using a quality-controlled protocol in a REDCap database. 1 This methodology has been previously described and to have found high interrater reliability. 2 Vital signs and laboratory values were extracted using an algorithm-based automated process from electronic medical records. The study was approved by the institutional review board, which granted a waiver of informed consent.
+Clinical characteristics
+We evaluated age, gender, race, ethnicity, comorbidities including obesity (defined as body mass index &gt;30 kg/m 2 ), hypertension, coronary artery disease, heart failure, diabetes mellitus, and active cancer. Presenting signs and symptoms on hospital admission included dyspnea, chest pain, initial heart rate, systolic and diastolic blood pressure, and need for supplemental oxygen at presentation (defined as within three J o u r n a l P r e -p r o o f
+</t>
+  </si>
+  <si>
+    <t>62c29c01a0c9b6d1f6534d2313bab96cfd0cd3b3</t>
+  </si>
+  <si>
+    <t>Journal Pre-proof Clinical validation of quantitative SARS-CoV-2 antigen assays to estimate SARS- CoV-2 viral loads in nasopharyngeal swabs Title Clinical validation of quantitative SARS-CoV-2 antigen assays to estimate SARS-CoV-2 viral loads in nasopharyngeal swabs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+Expansion of the testing capacity for severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) is an important issue to mitigate the pandemic of coronavirus disease-2019 (COVID-19) caused by this virus. Recently, a sensitive quantitative antigen test (SQT), Lumipulse ® SARS-CoV-2 Ag, was developed. It is a fully automated chemiluminescent enzyme immunoassay system for SARS-CoV-2.In this study, the analytical performance of SQT was examined using clinical specimens from nasopharyngeal swabs using reverse transcription polymerase chain reaction (RT-PCR) as a control.Receiver operating characteristic analysis of 24 SARS-CoV-2-positive and 524 -negative patients showed an area under the curve of 0.957±0.063. Using a cut-off value of 1.34 pg/ml, the sensitivity was 91.7%, the specificity was 98.5%, and the overall rate of agreement was 98.2%. In the distribution of negative cases, the 99.5 percentile value was 1.03 pg/ml. There was a high correlation between the viral load calculated using the cycle threshold value of RT-PCR and the concentration of J o u r n a l P r e -p r o o f antigen. The tendency for the antigen concentration to decrease with time after disease onset correlated with that of the viral load.Presented results indicate that SQT is highly concordant with RT-PCR and should be useful for the diagnosis of COVID-19 in any clinical setting. Therefore, this fully automated kit will contribute to the expansion of the testing capability for SARS-CoV-2. Keywords COVID-19, SARS-CoV-2, nasopharynx, nasopharyngeal swab, saliva, chemiluminescent enzyme immunoassay, sensitive quantitative antigen test J o u r n a l P r e -p r o o f might account for the scattered correlation in samples with low viral loads and the discrepancies observed in this study.Funding This research was supported by the Japan Agency for Medical Research and J o u r n a l P r e -p r o o f Development under Grant Number JP19fk0108113. Conflict of Interest SY and SO are employees of Fujirebio, Inc.. The other authors have no conflict of interest to declare.We are grateful to Mr. Kenjiro Matsushita for his technical assistance. We would like to express our thanks to Dr. Hisashi Nojima for his support for data analysis.Contributors YI was responsible for the organization and coordination of the study.KA, TN, SO and SY were responsible for the data analysis. YI, KA, SY, KK and KT prepared this study design. TMa, TMi, and SY contributed to take informed consent and collection of clinical specimens. All authors contributed to the writing of the manuscript.J o u r n a l P r e -p r o o f
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+Since December 2019, diseases caused by the novel coronavirus 2019, severe acute respiratory coronavirus 2 (SARS-CoV-2), emerged in China and rapidly spread throughout the world. The World Health Organization stated that the coronavirus disease-2019 (COVID-19) pandemic is not close to ending and is still a serious public health threat [1] . An analysis of viral load kinetics indicated that access to SARS-CoV-2 testing as well as the frequency and rapidity of tests should be prioritized to control the spread of SARS-CoV-2 [2].Currently, nucleic acid testing (NAT) using reverse transcription polymerase chain reaction (RT-PCR) has been used for the diagnosis of COVID-19. However, its complicated operation, relatively long time to obtain results (several hours to several days), and cost are issues that have prevented the expansion of NAT for the general testing of COVID-19 in several countries. Rapid antigen tests (RAT) are expected to address these issues; however, recent studies have reported their high specificity and poor sensitivity compared with 4] . In addition, RAT is a qualitative test and should not be used to estimate viral loads when monitoring the status of virus replication.Recently, a sensitive quantitative antigen test (SQT), "Lumipulse® J o u r n a l P r e -p r o o f SARS-CoV-2 Ag", was developed based on a fully automated chemiluminescent enzyme immunoassay system that enables the rapid and multiple testing of SARS-CoV-2 N antigens in nasopharyngeal swabs or saliva.In this study, we investigated the performance of the SQT and compared it with that of RT-PCR using clinical samples.
+Patient samples
+Five hundred and forty-eight nasopharyngeal swab specimens were collected from COVID-19 patients or suspected patients with COVID-19 hospitalized in Omori Hospital, who had been diagnosed by RT-PCR. Some samples were collected from the same patients at multiple time points. Informed consent was obtained from all participants in the study. Specimens were stored at 80°C and did not melt during storage (within 2 months). The study protocol was approved by the Ethics Committee of the Faculty of Medicine, Toho University (No. A20028_A20020_A20014_A19099).
+SARS-CoV-2 RNA detection
+RT-PCR analysis was performed according to the "Pathogen Detection (NIID_2019-nCOV_N_F2 and NIID_2019-nCOV_N_R2) and FAM labeled probe (NIID_2019-nCOV_N_P2) were used as they were previously reported to target gene N [5]. The detection limit value of the measurement system was set at 5 copies/reaction. The RNA copy number was calculated using the cycle threshold (Ct) value of the AccuPlex SARS-CoV-2 reference (SeraCare, MA, USA) using known RNA copies.
+Measurement of SARS-CoV-2 antigen
+SARS-CoV-2 antigen was measured using the LUMIPULSE SARS-CoV-2 Ag kit and the LUMIPULSE G1200 automated immunoassay analyzer according to the manufacturer's instructions (Fujirebio Inc., Tokyo, Japan) using nasopharyngeal swab specimens frozen after RT-PCR. To remove viscous materials from the samples, J o u r n a l P r e -p r o o f specimens were centrifuged at 1,300 ×g for 10 min, and the supernatants were used for the analysis. First, 100 μL of the supernatant was added to the treatment solution and consecutively aspirated using a single tip. Then, the mixture was dispensed into an anti-SARS-CoV-2 Ag monoclonal antibody-coated magnetic particle solution and incubated for 10 minutes at 37°C. After the first washing step, alkaline phosphatase-conjugated anti-SARS-CoV-2 Ag monoclonal antibody was added and incubated for 10 minutes at 37°C. After another washing step, the substrate solution was added and incubated for 5 minutes at 37°C. The resulting reaction signals were proportional to the amount of SARS-CoV-2 Ag in the sample, which allowed the quantitative determination of SARS-CoV-2 Ag in the nasopharyngeal swabs. When the antigen levels were greater than the upper range of the measurement (5,000 pg/mL), we tested samples diluted with Lumipulse® sample diluent (Fujirebio Inc.). University, Saitama, Japan), which is a graphical user interface for R and Excel (Microsoft Corporation, Redmond, WA, USA). Receiver operating characteristic (ROC) curve analysis was conducted using R to evaluate the assay performance and to visualize the curves, and areas under the ROC curves (AUC), sensitivity, specificity and the overall percent agreement were calculated. Because the negative group distribution did not follow a normal distribution or have a lognormal distribution, a nonparametric method (99.5 percentile) was used to establish a negative reference value.
+Results
+The ROC analysis of SQT by RT-PCR showed an AUC of 0.957 ± 0.063 and a cut-off value of 1.34 pg/mL using Youden's Index ( Figure 1A ). The distribution of antigen levels in 510 samples collected from persons without a history of COVID-19, whom had been diagnosed by RT-PCR, is shown in Figure 1B . The 99.5 percentile determined by a nonparametric method was 1.03 pg/mL, and was sufficiently below the cut-off value. Using this cut-off value, the SQT had a sensitivity of 91.7%, a J o u r n a l P r e -p r o o f specificity of 98.5%, and overall rates of agreement of 98.2%.There were eight RT-PCR-negative and SQT-positive cases (1.5%) (Table 1, Figure 2B ). In all these cases, specimens were collected several times and were from patients with COVID-19 history. We examined the dilution-linearity of five available samples to eliminate the possibility of non-specific interference and variation in the measurements [6]. In the 5-fold dilution measurement, the antigen concentration was decreased approximately in proportion to the degree of dilution in each case ( Table 2) . The corresponding values were obtained when the samples were diluted 5-fold for cases of discrepancy, suggesting that the SQT measures the antigen level accurately.However, there were two cases with PCR-positive and SQT-negative findings (Table 1, Figure 2B ). These two specimens were collected at 2 and 10 days after the onset of symptoms (initial sample collection); the LAMP method for RNA detection gave a negative result for one of these specimens (data not shown) [7] . because these values differ between testing kits and between facilities. Monitoring antigen levels can provide a more rapid and stable quantitative basis for infection control, treatment progress, and discharge decisions. It might also be possible to quantitatively determine the likelihood of relapse.
+Discussion
+The results of this study showed that SQT had a high concordance rate with J o u r n a l P r e -p r o o f the RT-PCR method, and even samples with a low viral load showed positive results with SQT. In addition, the antigen concentration correlated well with the RNA titer.These data suggest that SQT might replace RT-PCR for the diagnosis of COVID-19.Using SQT, the antigen concentration can be obtained in approximately 30 minutes using a fully-automated analyzer with a throughput rate of 60 or 120 samples per hour, which will contribute to the expansion of the testing capability for SARS-CoV-2. The cost of SQT is lower than that of NAT, and the insurance points of SQT (600) is less than half of that of NAT (1350 or 1800) in Japan. Because the SQT can provide test results in a short period of time (30 minutes), it is particularly useful in facilities where it is difficult for many people to stay for a long time, such as airports.Because false-positive results are likely to occur when sputum is used for antigen tests [10] , especially if the viscosity of the sample is high or impurities are present, centrifugation might be an effective method to avoid false-positive results. Several discrepancies were found in this study. Although limitations in the volume and/or concentration of samples hindered further analysis by western blotting or different NAT tests, the dilution-linearity test suggested a specific immunoreaction for measurements. Further analysis of J o u r n a l P r e -p r o o f discrepant specimens will help the manufacturer improve the SQT.Correlation analysis between the antigen test and RT-PCR showed low variability in the correlation between antigen concentration and RNA titer in samples with high viral loads, and scattered correlation patterns were observed in samples with low viral loads, which were collected from patients at later periods after symptom onset. Virological factors that might affect these observations are not clear; however, we think that the accuracy and precision of the measurements might affect the correlation patterns because the SQT showed high linearity of dilution with a coefficient of variation less than 10% (Table 2) [11]. In addition, differences in the analyte stability in samples might affect the scattered correlation pattern.Generally, proteins are more resistant to degradation than RNAs [12] [13] [14] [15] . In some cases, intracellular viruses do not replicate as RNA but only produce antigenic proteins [16, 17] . Differences in stability or viral production of the antigen protein
+</t>
+  </si>
+  <si>
+    <t>bbcfade6ed34e50e80c4c15693588a91bce00c91</t>
+  </si>
+  <si>
+    <t>Time from first seen in specialist care to surgery does not influence survival outcome in patients with upfront resected pancreatic adenocarcinoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+Background: This study evaluated the impact of time to surgery (TTS) on overall survival (OS), disease free survival (DFS) and postoperative complication rate in patients with upfront resected pancreatic adenocarcinoma (PA).We retrospectively included patients who underwent upfront surgery for PA between January 1, 2004 and December 31, 2014 from four French centers. TTS was defined as the number of days between the date of the first consultation in specialist care and the date of surgery. DFS for a 14-day TTS was the primary endpoint. We also analyzed survival depending on different delay cut-offs (7, 14, 28, 60 and 75 days).: A total of 168 patients were included. 59 patients (35%) underwent an upfront surgery within 14 days. Patients in the higher delay group (&gt; 14 days) had significantly more vein resections and endoscopic biliary drainage. Adjusted OS (p = 0.44), DFS (p = 0.99), fistulas (p = 0.41), hemorrhage (p = 0.59) and severe post-operative complications (p = 0.82) were not different according to TTS (&gt; 14 days). Other delay cut-offs had no impact on OS or DFS. Discussion: TTS seems to have no impact on OS, DFS and 90-day postoperative morbidity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+Pancreatic adenocarcinoma (PA) is one of the most aggressive digestive cancers. Five-year overall survival (OS) rate is estimated below 8% (all stages combined) [1] . This malignancy is expected to be the second leading cause of cancer-related death in Europe by 2030 [2] .French actual standard of care for resectable PA is upfront carcinologic surgery followed by adjuvant chemotherapy [3] . Unfortunately, prognosis remains poor despite improvements in surgical technique, perioperative care, diagnosis accuracy, patient selection and more active chemotherapy regimen [4] . New perspectives are needed to increase both survival rates and quality of life for patients diagnosed with PA.One of the objectives studied in other cancers has been to reduce time to treatment by improving the organization of the care pathway. Time to surgery (TTS) has turned out to be a major prognostic factor associated with survival in several malignancies [5] [6] [7] [8] . To date, the impact of TTS on OS and disease-free survival (DFS) in patients diagnosed with resectable PA remains unclear [9] .Moreover, pancreatic resection is one of the most challenging surgery, with significant postoperative morbidity and mortality [10] . Improving preoperative status-by means of biliary drainage, hemostasis correction, prehabilitation with nutritional and adapted physical activity interventions [11] -is needed before surgery as complications are more frequent in unfit patients [12] . Shorter TTS may not allow to optimize prehabilitation but could improve carcinologic prognosis.This study evaluated the impact of TTS on OS, DFS and postoperative complication rate in patients who underwent upfront curative intent surgical resection of a PA.
+Materials and methods
+We retrospectively included patients with upfront resected PA between January 1, 2004 and December 31, 2014 in three tertiary French centers (Reims University Hospital, Amiens University Hospital, Strasbourg University Hospital) and in one private center (Reims Courlancy Clinic). Patients were screened with administrative coding and multidisciplinary tumor board meetings data (MTBM). All cases have been discussed in MTBM, including a senior radiologist and a pancreatic surgeon, as now recommended by the consensus of the International Study Group of Pancreatic Surgery [13] . No systematic preoperative imaging review was made at inclusion.All patients who underwent upfront curative intent resection for a PA were included. Patients were excluded in case of neoadjuvant treatment or incomplete surgical resection (R2).Basic baseline clinical, biological (i.e. ECOG performance status (PS), initial symptoms, tumor location, preoperative biliary drainage, bilirubin levels and neutrophil-lymphocyte ratio), pathological and surgical data [i.e. TNM staging (5th, 6th or 7th edition, according to the standard of care at the time of treatment], lymph node ratio (number of invaded lymph nodes/total number of resected lymph nodes), resection margins [R0 or R1 (&lt; 1 mm)], venous and adjacent organ involvement (gastric, colon or left adrenal resection), were collected using medical records. Follow up characteristics such as postoperative complications, adjuvant treatment regimen and evolution of the disease (tumor recurrence, site of recurrence and death) were also collected.Time to decision (TTD) was defined as the delay in days between first specialized medical interview (gastroenterologist, pancreatic surgeon, or medical oncologist) and MTBM decision. Time to surgery (TTS) was defined as the delay between the first specialized medical interview (gastroenterologist, pancreatic surgeon, medical oncologist) and surgery. The 90-day postoperative complications were assessed using Dindo-Clavien classification and ISGPS definitions [14] . Grade III or higher grade complications were considered as severe [14] . Grade V complications correspond to postoperative death. Follow-up was standard and left to the physician's discretion according to guidelines prevailing at the time of the treatment [3] . The primary objective was to determine the impact of a shorter (≤ 14 days) TTS in DFS improvement. This threshold was chosen in accordance with literature review and the investigators' experience [15] [16] [17] [18] [19] [20] . Secondary objectives were to evaluate OS and DFS according to other TTS and TTD thresholds (7-, 14-, 28-, 60-and 75-day delay). Ninety-day morbidity rate was compared using a 14-day delay. Endpoint date was set to provide at least a 12-month follow-up (December 31, 2015).
+Statistical analysis
+Continuous variables were described as median and interquartile ranges. Categorical variables were described as frequencies expressed with percentages. Groups with different management delays were compared using Mann-Whitney test (non-normal continuous variables) and Chi square test or Fisher test (categorical variables), depending on variable type and sample size. OS was calculated from date of surgery procedure to date of death or censoring at the date of last visit. DFS was calculated from the date of the surgical procedure to the date of progression, death or censoring at the date of last visit [9] . Survival curves were established using the Kaplan-Meier method and compared using Cox proportional-hazards model for univariate and multivariate analyses. We preplanned several survival analyses stratified on different delay cut-offs (7, 14, 28, 60 and 75 days). Complication rates were analyzed according to a 14-day delay using Mann-Whitney test and logistic regression adjusted for factors with a p &lt; 0.2 in stepwise regression. All data analyses were performed using R (R Development Core Team, 2005). Statistical significance was defined as a p value &lt; 0.05 for all tests.
+Ethics
+Patient's records were anonymized prior to analysis. Database was constituted in accordance with the reference methodology MR004 of the National Commission of Liberties and Informatics. (no. 2206749, 13/09/2018). As per French regulations, no additional ethical review was required.
+Population characteristics at baseline
+A total of 534 patients with a PA were screened. Among them, 201 patients underwent an upfront surgery procedure with curative intent; 33 were finally excluded due to unresectable tumor upon surgical reassessment [21] or insufficient data collection [6] yielding a total of 168 included patients. The study flowchart is presented in Fig. 1 (Flowchart) .Patient characteristics are presented in Table 1 . Most patients were men (57.7%), with a median age of 66 years (IQR 58-71). ECOG PS was available in 60.2% of the cases. Only four patients were ECOG PS &gt; 1. Jaundice was the main symptom (69%) at first patient visit, and diagnosis was made during a hospital stay in 44.6% of the cases. Tumors were mainly located in the head of the pancreas (79.8%), warranting a biliary drainage in 64 patients (38.1%). Nine of the patients underwent isolated metastases (liver and/or distant lymph nodes) resection, in curative intent at the time of surgery. Median total bilirubin prior to any biliary drainage was 197.5 µmol/L (IQR 135.5-336.75).
+Treatment characteristics
+Pancreaticoduodenectomy was performed in 131 patients, (78%). Mesenteric superior vein was resected in 69 patients (41.1%). Other organs were resected in only 10 patients (6%) ( Table 1B) . Median length of hospital stay was 19 days (IQR 14-27.5). TNM stage on the final pathology report was mainly T3 (76.2%) and N1 (76.8%). A median of two lymph nodes were positive at pathological analysis (IQR 1-4) for a lymph node ratio calculated at 0.08 (IQR 0.00-0.2). Postoperative complication data were available in 159 patients (94.6%). Eighty-seven (51.8%) and 66 patients (39.3%) experienced hemorrhage and fistulas, respectively. Post-operative complications were considered severe in 41 patients (24.4%). Ten patients (6%) died of post-operative complications (Dindo-Clavien class 5).Adjuvant chemotherapy was administered in 141 patients (83.9%), mainly gemcitabine. A median of 6(IQR 5.5-6) chemotherapy cycles were administered. was Adjuvant radiotherapy was used for 13 patients (7.7%).Median follow-up lasted 651.5 days (IQR 374, 1077.2), approximatively 21.5 months. Recurrence was identified for 128 patients (76.2%), and classified as at least distant/ metastatic (95.3%, 122 patients), or only locoregional (4.7%, 6 patients). A total of 114 (67.9%) patients had died at study endpoint date.
+Delay analysis
+Median TTD was 9.5 days (IQR 1-30.5). Median TTS was 19 days (IQR 12-36). Patient characteristics stratified upon TTS inferior to 14 days are presented in Table 2 . A total of 59 patients (35%) had their tumor resected less than 14 days after first consultation. Patients in the longer delay group had more frequent vein resections, endoscopic biliary drainage (p &lt; 0.001), jaundice (p = 0.044), and higher median total serum bilirubin levels (p &lt; 0.001).Univariate survival analysis using Cox model showed no significant statistical differences with a 14-day TTS threshold (Fig. 2) for DFS (p = 0.82) or OS (p = 0.97). No difference was shown for DFS either with a 7-(p = 0.22), 28-(p = 0.33), 60-(p = 0.79) or 75-(p = 0.88) day delay. OS and DFS were not different in both groups when comparing extreme delays (Table 3) . TTD did not impact either DFS or OS, regardless of the delay cut-off (Table 3) .Adjusted OS (on organ and vein invasion, severe complications, and adjuvant chemotherapy) and adjusted DFS (on vein invasion, organ resection, severe complications, R status, N status, and adjuvant chemotherapy) were not significantly improved with a shorter TTS, inferior or equal to 14 days (p = 0.44 (Table 3) .Delay had no influence on the occurrence of fistula (p = 0.44), hemorrhage (p = 0.35) and severe postoperative complication (p = 1) ( Table 4 ). Multivariate logistic regression analysis adjusted on significant factors selected from the univariate analyses did not show any statistical significance concerning fistula (p = 0.41), severe post-operative complication (p = 0.82) or hemorrhage (p = 0.59) ( Table 4) . 
+Discussion
+In our study, TTS-considered as the time from the first specialized interview to surgery-had no impact on DFS and OS in patients with upfront resected PA. Hemorrhage, fistula, or severe post-operative complications rate were not different, regardless of TTS. This is the first study to evaluate the impact of TTS on the 90-day morbidity. Shortening time to treatment has been a promising approach to improve survival. TTS has been set as a quality care index in other malignancies [6, 7, 22, 23] . As an example, HCC radiofrequency ablations warrant an under five-week management delay to avoid any impact on prognosis [6] .In PA, TTS impact remains unclear. Our results are consistent with most of the previous cohorts that showed no significant influence of TTS on survival rate for patients undergoing a curative intent resection for PA [15, 17, 24] . Eshuis et al. concluded that biliary drainage and prolonged TTS do not impair survival rates in a randomized controlled trial [25] . On the contrary, Swords et al. showed a modestly improved OS (1.8 months) and a higher 30 and 90-day post-operative mortality in shorter TTS, but at the cost of including a large number of patients [26] . Subgroup analysis suggested that shorter TTS could improve resecability rate and prognosis in small tumors [15, 26, 27] . Finally, none of these studies analyzed the consequences of shorter TTS on postoperative complications such as hemorrhage, fistulas or Dindo-Clavien classification.Published studies, including ours, have failed to demonstrate a significant survival benefit with shorter delays before upfront surgery in PA. However, PA arises from pancreatic parenchyma decades before being symptomatic and diagnosed, suggesting slow growth at early stages [21] . There is also evidence to support the rapid growth of PA, in later natural history once diagnosed, with an estimated time to progression from a T1 to a T4 stage of approximately 14 months [28] . Tumor volume growth could thereby be considered as a factor distinct from the disease stage. Marchegiani et al. showed a TTS effect on survival for smaller tumors (T1 and T2) [27] . Shorter TTS could impact resecability and disease-free survival in this specific patient subgroup. In our study, only 28 patients (16.7%) had a T1 or T2 disease stage, making subgroup analyses futile.Nevertheless, median TTS seems to be increasing year after year due to the incremental PA incidence and the frequent referral to expert centers [22] . As TTS has no or little impact on prognosis, management strategy could be modified to allow sufficient time to confirm diagnosis in ambivalent cases and integrate preoperative chemotherapy and prehabilitation strategy. A 28-day minimum delay between last liver imaging and surgery remains well established to avoid any curative surgery performed on patients with liver metastases [3] .No link was observed for fistula, hemorrhage, or severe post-operative complications when TTS was shortened. Post pancreatectomy hemorrhage is mainly due to anastomotic leaks causing pseudoaneurysms [29] . Also, when performed early, these interventions are less likely to be the subject of technical debate in multidisciplinary surgical meetings and patients may be less well prepared (uncorrected coagulation, nutritional status, or jaundice). Moreover, significantly higher median bilirubin in the shorter delay group can lead to troubled hemostasis, facilitating post-operative hemorrhage [30] .Our study has several limitations. First, patients with macroscopically incomplete resection (R2) or those who finally did not undergo a curative surgery, despite an initially resectable primary tumor, were not included. These patients could potentially have longer delays explaining tumor progression. Unfortunately, they were not considered in our analysis avoiding performing an intention-totreat analysis. Vein resection rate was higher in the over 14-day delay group. This significative difference could be explained by a higher number of patients with borderline resectable disease in this group. Unfortunately, no systematic preoperative imaging review was performed, which did not allow us to better assess those patients. Furthermore, patients who waited longer without any treatment but finally underwent a curative surgical procedure may have had slower-progressive disease with a better prognosis. Preselecting candidates for curative surgery on their time to progression in the setting of such an aggressive disease seems unethical. Also, 116 patients (69%) were diagnosed upon jaundice presentation, while only 64 (38.1%) experienced a radiological or endoscopic biliary drainage. Patients treated before 2010 were more frequently resected with higher bilirubin levels. Moreover, the power of the study could be insufficient due to the limited number of inclusion centers and retrospectively included patients. Finally, three of the four inclusion centers, including 92.9% of the patients, were tertiary hospitals. We cannot exclude a selection bias and a confusion effect due to highly skilled techniques developed in these centers with low complication rates.Surgery remains the only existing treatment to cure PA [3] . Recent progress with polychemotherapy regimens and better patient selection for surgery has modestly improved overall survival [31, 32] . Moreover, new management strategies including neoadjuvant and induction chemotherapies are to be interpreted differently from passive delay where no therapeutic interventions occur. New perspectives must be found to increase the survival and quality of life of these patients. PA may not be the most suitable malignancy to study TTS as a quality metric. However, the COVID-19 pandemic has called for urgent case hierarchization and has thereby raised new questions about carcinologic surgical priorities. Ongoing multicentric CAPANCOVID-19 (https:// clini caltr ials. gov/ ct2/ show/ NCT04 406571) tries to measure the impact of the COVID-19 pandemic causing prolonged management delay, from surgery to palliative situations. We showed that TTS seems to have no impact on OS, DFS and 90-day postoperative morbidity in patients with resected pancreatic adenocarcinoma. Other trials need to be carried out to understand the role of TTS in smaller tumor sizes.
+</t>
+  </si>
+  <si>
+    <t>2f4a93836cdcfc4cda4b4c309ef0350e3734f018</t>
+  </si>
+  <si>
+    <t>Supplementary Material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study design
+In this dual-center observational cohort study, we included 30 patients on hemodialysis and 18 healthy controls between February 2021 and May 2021 at the Division of Nephrology of the University Hospital of Heidelberg and at the associated Kidney Center Heidelberg.Vaccination was performed twice in all 48 individuals at week 0 and 3. To exclude individuals with prior SARS-CoV-2 infection or infection during follow-up, we measured antibodies to the nucleocapsid protein before enrollment and after the first and the second vaccination.The anti-spike(S) 1 IgG index and SARS-CoV-2 specific neutralizing antibodies detected by a surrogate virus neutralization assay (sVNT) were measured 3 weeks after the second vaccination. In all individuals with detectable seroconversion, neutralization of B.1.1.7 and the variant of concern (VOC) B.1.351 was investigated in titration experiments on VeroE6 cells as previously described by us (S1). Seroconversion was defined as detectable anti-S1antibodies and &gt;30% inhibition activity in the sVNT.The study was approved by the ethics committee of the University of Heidelberg and conducted in accordance with the Declaration of Helsinki. Written informed consent was obtained from all study participants.
+Anti-SARS-CoV-2 IgG assay
+The IgG response against the S1 protein was measured by the SARS-CoV-2 IgG Assay (Siemens, Eschborn, Germany) and the antibody response against the nucleocapsid protein by the Elecsys Anti-SARS-CoV-2 assay (Roche, Mannheim, Germany) according to the manufacturer's instructions. A semi-quantitative index of &lt; 1 was defined as negative, and a value of ≥ 1 as positive. This cutoff for detection gives a specificity of 99.9% with a sensitivity of 96.4%.
+Surrogate virus neutralization assay
+The binding-inhibition potency of serum samples was detected by a plate-based SARS-CoV-2 surrogate virus neutralizing assay (Medac, Wedel, Germany). This assay mimics the spike protein -angiotensin converting enzyme 2 (ACE2) interaction by direct protein-protein interaction using purified receptor-binding domain protein from the viral spike protein and the host cell receptor ACE2. The serum samples were incubated with SARS-CoV-2 receptorbinding domain horse-radish peroxidase and added to ACE2 coated wells. The reactions were developed using 3,3',5,5'-tetramethylbenzidine as substrate. Optical density at 450 nm was measured in each well and the percent (%) inhibition was calculated as follows:A cut-off for viral neutralization of ≥ 30% inhibition of receptor-binding domain -ACE-2 binding was applied according to the manufacturer's instructions. The assay has a specificity of 100% with a sensitivity of 98%.
+Cells and viruses
+Cultivation of VeroE6 cells and production of SARS-CoV-2 stocks have been reported recently (S2) . In brief, SARS-CoV-2 variants were isolated from nasopharyngeal and oropharyngeal 
+Antibody neutralization tests
+Neutralization titers were determined in titration experiments on VeroE6 cells as described previously (S1). Briefly, two-fold serial dilutions of vaccine sera were incubated with SARS- 
+</t>
+  </si>
+  <si>
+    <t>4f96860d266e1ade66315e8150cadd3d86a68734</t>
+  </si>
+  <si>
+    <t>A Sanger-based approach for scaling up screening of SARS-CoV-2 variants of interest and Running title: Identification of SARS CoV-2 variants with Sanger sequencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+The global spread of new SARS-CoV-2 variants of concern underscore an urgent need of 20 simple deployed molecular tools that can differentiate these lineages. Several tools and protocols 21 have been shared since the beginning of the COVID-19 pandemic, but they need to be timely 22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+sequencing of a single PCR fragment that is able to identify and discriminate all SARS-CoV-2 28 variants of concern (VOCs) identified so far, according to each characteristic mutational profile 29 at the Spike-RBD region (K417N/T, E484K, N501Y, A570D). Twelve COVID-19 samples from 30 Brazilian patients were evaluated for both WGS and Sanger sequencing: three from P.2, two 31 from P.1 and seven from B.1.1 lineage. All results from the Sanger sequencing method perfectly 32 matched the mutational profile of VOCs and non-VOCs described by WGS. In summary, this 33 approach allows a much broader network of laboratories to perform molecular surveillance of 34 SARS-CoV-2 VOCs and report results within a shorter time frame, which is of utmost 35 importance in the context of rapid public health decisions in a fast evolving worldwide 36 pandemic.
+37
+Keywords: SARS-CoV-2 variants of concern; Sanger sequencing; molecular surveillance. (which was not certified by peer review) is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity. (which was not certified by peer review) is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity. 
+73
+In order to access whether the amplicon used in this study is able to cover key SARS- (which was not certified by peer review) is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity. Samples were assigned to a lineage according to the mutational profile (Table 1) .
+99
+According to the WGS, from the twelve COVID-19 samples evaluated, seven were from (Table 1) .
+104
+Within the sequencing of a single 725 base pairs PCR fragment (Figure 1 ), this approach 105 could successfully detect VOC-associated mutations and correctly classify samples according to (which was not certified by peer review) is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity. need of one specific probe or primer for each mutation to be evaluated and previous knowledge 110 of the circulating mutations (10). Furthermore, high-quality electropherograms were obtained 111 without a PCR purification step, reducing costs and time of sample processing, which is 112 particularly useful for large-scale application of the method. Another advantage of this approach 113 is that primers can be easily adjusted without major protocol modifications, in case newly 114 described mutations need to be detected. On the other hand, it is important to highlight that 115 Sanger sequencing is normally more time consuming than allelic-specific RT-PCR and hence 116 with a comparative reduced scaling capacity, but it brings some advantages such as more genetic 117 data that helps to tease apart different VOCs and the possibility of detecting new emerging RBD 118 mutations.
+119
+It is important to highlight that this approach does not substitute WGS and other PCR-120 based assays and could be used in combination to further validate the VOCs results mainly with 121 WGS to uncover other important mutation at the SAR-CoV-2 genome, but it will allows a much 
+</t>
+  </si>
+  <si>
+    <t>03d0006b73b74eb7b3343cd4b79741ae010d73ab</t>
+  </si>
+  <si>
+    <t>Journal Pre-proof Can we use noninvasive respiratory therapies in COVID-19 pandemic?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+To the editor:It is well known that non-invasive respiratory therapies (NITs) have transformed the management of patients with acute respiratory failure of various causes. Techniques such as non-invasive mechanical ventilation, continuous positive airway pressure through a nasal mask, or more recently, high-flow therapy have shown to be effective in reducing the rate of intubation and mortality in patients with hypoxemic and hypercapnic failure, in the absence of intubation criteria. NITs allow an early start of treatment, combine different techniques of ventilatory support, improve patient tolerance and well-being, save time for medical treatment to take effect and, ultimately, decrease the need for intubation and admission to intensive care. In addition, they allow J o u r n a l P r e -p r o o f the continuity of treatment in those patients who are discharged from these units and persist with respiratory failure in the ward 1 .The COVID-19 pandemic has called into question the therapeutic potential of NITs, by giving greater emphasis to the risk of pathogenic agent spread which, on the other hand, is a problem that has been known for years 2 . Based on this, NITs have been considered high risk procedures in COVID-19 and there is a school of thought recommending not to use them 3 . The technical document on the clinical management of patients with COVID-19 disease, published by the Spanish Ministry of Health on 3rd March 2020, recommended that they should be avoided.The application of these criteria has the risk of posing a therapeutic dilemma where clinicians have to choose between administering invasive ventilatory support or giving conventional oxygen therapy to a patient. Patients may not receive adequate treatment until it is time to be intubated and connected to invasive mechanical ventilation, missing the opportunity for non-invasive treatment, and increasing the risk of complications and clinical deterioration. On the other hand, there are patients discharged from critical care units still in need of respiratory support, who are deprived of non-invasive therapies in the hospital ward. Furthermore, TNIs are the only option in those patients with orders not to intubate and in circumstances in which there is no possibility of admission to critical care units due to overcrowding. Given the risk of pathogen spread, many of these patients are being deprived of NITs.TNIs have been widely used to treat patients with COVID-19 in China and have been shown to reduce intubation in patients with severe acute respiratory failure 4 . A panel of experts from 12 countries has recently published some guidelines that support the use of these therapies in COVID-19 5 . The available data tells us that TNIs should not be avoided, but rather applied in strict compliance with 3 requirements: 1) Do not delay intubation when necessary; 2) intensify protective measures, using the appropriate personal protection equipment and minimizing the aerosolization of particles by means of a specific assembly of masks and ventilation circuits; and 3) closely monitor these patients. We cannot afford to do without TNIs in the COVID-19 pandemic.Conflicto de intereses: Los autores declaran no tener conflicto de intereses relacionados con el contenido de esta publicación.J o u r n a l P r e -p r o o f
+</t>
+  </si>
+  <si>
+    <t>eb3e31f801ca4e47b050b147c5ed989693325064</t>
+  </si>
+  <si>
+    <t>Author's Reply: Aerosol Box, an Operating Room Security Measure in COVID-19 Pandemic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear Editor,
+We read with interest the letter by Dhwani et al., and we would like to thank the authors for their comments.The concept of the ''Aerosol Box'' (AB) was elucidated as a protective measure that provides an additional barrier to airborne particles expelled during high-risk aerosolization procedures. New limitations of the AB's ergonomics have emerged with the progression of the current pandemic, which are mainly related to physician maneuverability. In response to these difficulties, adaptations to the original AB model have been proposed [1] , including the concept of a plastic sheet covering a rigid frame, as well as an additional negative airflow that provides constant suction [2] . Furthermore, there is the possibility of adapting this enclosure concept to laparoscopic procedures in order to restart minimally invasive operations.We recognize the need to improve the ergonomics of the AB. It is undeniable that its rigid design restricts movements that translate to a limited range of motion and increased procedural time. This is especially true when the physician is not familiarized with the gear, thus leading to compromise after use, such as in cleaning and carrying, but more importantly, patient wellbeing.The design of Cubillos et al. [2] provides a more flexible structure and broader airborne particle management with the use of negative pressure by suction, in addition to low cost and disposable properties. We believe that these adaptations are promising in addressing these difficulties and have better outcomes during aerosolization procedures.Although laparoscopic surgery is theoretically a highrisk aerosol exposure, the magnitude of this risk remains in doubt [3] . Adding an extra barrier in this particular setting could represent a challenge that can potentially further compromise patient safety and procedural quality, as it requires exterior manipulation to operate precisely through small abdominal wall incisions and perform precise maneuvers inside the cavity. We believe this is not the best alternative to safely restart these interventions.To acquire the benefits of minimally invasive procedures, such as reduced length of stay and lower complication rates (which are vital in these times), we encourage users to abide by the following recommendations: making trocar incisions as sufficiently small as possible to insert the ports; using the minimum required pneumoperitoneum; and evacuating CO 2 through active or passive filtration systems before specimen extraction, trocar removal, wound closure, and conversion to open surgery [4] .The current pandemic requires immediate solutions to overcome the continuing challenges that surgical personnel face. Although limited evidence has addressed the capacity of the AB to provide aerosol protection, we felt that the concept of a new and extra barrier in addition to established protocols might be a reasonable precaution measure to decrease aerosol spread in the operating room during aerosolization procedures. New adaptations to this concept are required and should take into account the wellbeing of patients and medical personnel, as well as particle contingency, ergonomics, low costs, and replicable properties. There is a necessity for healthcare workforce to protect themselves with what is available against infection from &amp; Eduardo Leyva-Moraga leyvamoragaeduardo@gmail.com
+</t>
+  </si>
+  <si>
+    <t>0f9b30bb927267ef766ec3b7b8fc0bd7dbd3eb84</t>
+  </si>
+  <si>
+    <t>News-Screen Rheumatologie Raimund Lunzer News-Screen Rheumatologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+Zusammenfassung Gemäß den Empfehlungen für die Diagnose einer rheumatoiden Arthritis ist eine "Arthritis" obligatorisch. Was ist aber zu tun bei Arthralgien und Nachweis einer subklinischen Arthritis in bildgebenden Verfahren? Analysiert wurden Daten von drei unabhängigen niederländischen Kohorten mit Arthralgie-Patienten mit einer Nachbeobachtungszeit von ≥1 Jahr. Der Nachweis der subklinischen Synovitis in den Händen oder Füßen von Arthralgie-Patienten wurde entweder mittels Sonographie (Definition: Graustufen ≥2 und/oder Power-Doppler ≥1) oder MRT (Definition: Synovitis-Score ≥1 von zwei Radiologen) erbracht. Die Patienten wurden ein Jahr lang beobachtet, auch in Anbetracht relevanter Laborparameter wie z. B. ACPA.Eine subklinische Synovitis war zu Beginn in 36 %, 41 % und 31 % in den drei Kohorten vorhanden. Von den ACPApositiven Arthralgie-Patienten mit subklinischer Synovitis entwickelten 54 %, 44 % bzw. 68 % keine RA. Diese Prozentsätze waren bei den ACPA-negativen Arthralgie-Patienten sogar noch höher: 66 %, 85 % bzw. 89 %. Auch eine Analyse nach 3 Jahren zeigte ähnliche Ergebnisse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommentar
+Das Ersetzen der klinischen Arthritis durch eine diagnostische subklinische Synovitis zur Identifizierung von RA führt zu einer hohen Rate falsch-positiver Die höchste kumulative GC-Exposition von ≥8,4 g war mit einem deutlich höheren Risiko der Endpunkte assoziiert, Todesfälle 24,3 %, CVD 7,9 % und schwerer Infektionen 10 %.Weitere Risikofaktoren waren im Zeitverlauf signifikant erhöht: Alter, Bluthochdruck und BSG. Das mit der GC-Behandlung verbundene Risiko stieg zwischen dem ersten Jahr Hazard-Ratio ( HR) von 0,46 nach zehn Jahren auf ( HR) 6,83.Die Zehnjahresdaten dieser prospektiven RA-Kohorte weisen zwar ein geringes Risiko der niedrigen Glucocorticoidtherapie auf, aber es ist durchaus noch vorhanden. Diese Analysen zeigen aber erneut die Auswirkungen höherer GC-Dosen und die sind beträchtlich. Die Kontrolle der entzündlichen Aktivität kann längerfristig also nur ohne Glucocorticoide zu gewährleisten sein.Somit ist die Aussage von F. Buttgereit zu den Glucocorticoiden weiterhin gültig: "So viel wie nötig, so wenig wie möglich!" IL-17 Inhibitoren -besser als "2." Biologikum? Keine Frage, Ixekizumab wirkt auch bei TNF-alfa-Versagen sehr gut. Diese Studiendaten sind in diesem Fall aber auch anders zu sehen, insbesondere wenn der finanzielle Hintergrund eine Rolle spielen sollte bzw. Erstattungsrichtlinien erstellt werden. Ixekizumab wirkt auch als zweites Biologikum sehr gut und muss somit nicht zwingend als erstes eingesetzt werden. Die Rate positiver ANA hat sich in den letzten 20-30 Jahren fast verdoppelt. Der erste Reflex, dass die Zunahme von ANA durch den vermehrten Einsatz von modernen Tests von oder durch sensi-tivere Nachweismethoden bedingt sei, wird von den Autoren widerlegt. Eine Zunahme von ANA im Alter ist zwar bekannt, die Zunahme über die letzten Jahrzehnte wiesen aber vor allem Jüngere zwischen 12 und 19 Jahren auf. Dann wird auch die Zunahme der Autoimmunthyreopathie Typ Hashimoto angeführt, sowie auch die Tatsache, dass dem alleinigen Nachweis von ANA keine allzu große Bedeutung beigemessen werden soll. 
+Zusammenfassung
+Wie häufig ANA in der Routinediagnostik sind und wie sich deren Prävalenz in den letzten Jahrzehnten entwickelt hat, wurde untersucht. ANA wurden durch indirekte Immunfluoreszenz auf HEp-2-Zellen semiautomatisch bei 14.211 Teilnehmern des "National Health and Nutrition Examination Survey" bestimmt. In dieser Bevölkerungsgruppe werden seit den 1970er-Jahren Gesundheitsstatus und Ernährungszustand von Erwachsenen und Kindern ab 12 Jahren in den USA erhoben und Änderungen über die Zeit dokumentiert. In der Analyse zur Prävalenz von ANA stammte jeweils etwa ein Drittel aus den drei unterschiedlich langen Zeiträumen 1988 Zeiträumen -1991 Zeiträumen , 1999 Zeiträumen -2004 Zeiträumen und 2011 Zeiträumen -2012 . ANA wurden auch hier ab einem Titer von 1:80 als positiv gewertet und dann weiter bis max. 1:1.280 verdünnt. Die ANA-Prävalenz betrug 11,0 % in den Jahren 1988 -1991 , 11,5 % in den Jahren 1999 -2004 und 15,9 % in den Jahren 2011 -2012 . Unter Jugendlichen im Alter von 12-19 Jahren stieg die ANA-Prävalenz deutlich an mit einer Odds Ratio ( OR) von 2,02 und 2,88, in der zweiten und dritten Zeitperiode relativ zur ersten (p &lt; 0,0001). Die ANA-Prävalenz stieg bei beiden Geschlechtern (insbesondere bei Männern), älteren Erwachsenen (Alter ab 50 Jahre) und nicht-hispanischen Weißen an. Diese Anstiege waren auch nicht durch gleichzeitige Änderungen bei Gewicht (Zunahme), Rauchen (Abnahme) oder Alkoholkonsum (Zunahme) in diesen Zeiträumen zu erklären.
+</t>
+  </si>
+  <si>
+    <t>0f1fd39cc9db51f98124a1a2646474c7f00c55d5</t>
+  </si>
+  <si>
+    <t>Methotrexate inhibits SARS-CoV-2 virus replication "in vitro"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+In early 2020 the new respiratory syndrome COVID-19 (caused by the zoonotic SARS-CoV-2 virus) spread like a pandemic, starting from Wuhan, China, causing severe economic depression. Despite some advances in drug treatments of medical complications in the later stages of the disease, the pandemic's death toll is tragic, as no vaccine or specific antiviral treatment is currently available. By using a systems approach, we identify the host-encoded pathway, which provides ribonucleotides to viral RNA synthesis, as a possible target. We show that methotrexate, an FDA-approved inhibitor of purine biosynthesis, potently inhibits viral RNA replication, viral protein synthesis, and virus release. The effective antiviral methotrexate concentrations are similar to those used for established human therapies using the same drug. Methotrexate should be most effective in patients at the earliest appearance of symptoms to effectively prevent viral replication, diffusion of the infection, and possibly fatal complications.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+potentially lethal complications. [5] [6] [7] This more dangerous stage is characterized by a dysfunctional immune response that leads to a cytokine storm, which predisposes to hemostatic abnormalities. [5] [6] [7] High levels of interleukin-6 (IL-6), together with significant levels of SARS-CoV-2 RNA, are an index of a high lethality risk. In the most severe cases, acute respiratory distress syndrome (ARDS), often complicated by pulmonary thromboembolism, occurs finally, leading to death. 8, 9 Extension of the viral infection to extrapulmonary districts 10 may have a role in the diffused post-COVID syndrome. 11 Patients with mild symptoms receive mostly symptomatic treatments. 6 Patients in the severe stage receive anti-inflammatory drugs, including low doses of steroids or drugs acting on the IL-6 axis. 12 As the COVID-19 pandemic would be substantially constrained by a drug blocking the reproduction of viral particles, several studies are ongoing 12 to reposition available drugs looking for their ability to interfere with essential viral functions.The novelty of the present report is provided by considering, in a system biology approach, not only the events of viral entrance and reproduction into lung type II pneumocytes but also their necessary collaboration with the human host cellular pathways, among which the one providing nucleotides required for the synthesis of viral RNA. The synthesis of purines (a component of nucleotides) is inhibited by methotrexate (4-amino-10-methyl folic acid, MTX), 13 an FDA approved drug, used to treat several cancer types and, at lower doses, autoimmune diseases. Herein, we present the first round of experiments "in vitro," which clearly show that MTX blocks, with high efficiency, SARS-CoV-2 replication in the post-entry phase.
+| Cells
+African green monkey kidney Vero E6 cell line was obtained from American Type Culture Collection (ATCC) and maintained in Dulbecco's modified Eagle's medium (DMEM; Gibco, Thermo Fisher Scientific) supplemented with 10% fetal bovine serum (FBS; Gibco, Thermo-Fisher Scientific) at 37°C in a humidified atmosphere of 5% CO 2 .
+| Virus
+We successfully isolated SARS-CoV-2 in Vero E6 cells from the na- | 1781 (G-9; Santa Cruz Biotechnology). The antigen-antibody complexes were detected using peroxidase-conjugated goat anti-human or goat antimouse IgG (Sigma) and revealed using the enhanced chemiluminescence (ECL) system (Santa Cruz Biotechnology).
+| Statistical analysis
+Data were analyzed for statistical significance using the one-way analysis of variance, and the Bonferroni post test was used to compare data. Differences were considered significant when p &lt; .05.Statistical tests were performed using GraphPad Prism 8. In rheumatoid arthritis and other inflammatory syndromes, the molecular target of MTX is not DHFR. 13 MTX decreases the levels of interleukin 6 (IL-6) and soluble IL-2 receptor, the reduction in cytokine levels being paralleled by an improvement in clinical indices. 20 Therefore, in COVID-19 patients in a more advanced stage, the treatment with MTX is expected to decrease virion production and down-regulate the IL-6 pathway, a strategy currently in use in different clinical trials. 12 
+CONFLICT OF INTERESTS
+The authors declare that there is no conflict of interest.
+AUTHOR CONTRIBUTIONS
+Lilia Alberghina conceived the idea that led to the systems iden- 
+DATA AVAILABILITY STATEMENT
+The data that support the findings of this study are available from the corresponding author upon reasonable request.
+Marco Vanoni
+http://orcid.org/0000-0002-8690-2587
+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +279,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,188 +606,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="71.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>paper_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>abstract</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>full-text</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4d9a65086f2f6ba5a9c1d9ba0a69a6bd5fb6e21e</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Journal Pre-proof D-dimer cut-off points and risk of venous thromboembolism in adult hospitalized patients with COVID-19 D-dimer cut-off points and risk of venous thromboembolism in adult hospitalized patients with COVID-19</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abstract
-Word count: 1626 Keywords: deep vein thrombosis, pulmonary embolism, venous thromboembolism, Ddimer, coronavirus disease 2019 J o u r n a l P r e -p r o o f Journal Pre-proof J o u r n a l P r e -p r o o f Journal Pre-proof Receiver operating characteristics (ROC) curve analysis was used in a subgroup of patients who had a lower or upper extremity CUS or CTPA performed and the closest D-dimer value within 48 hours prior to the imaging study. In a post-hoc analysis, we determined optimal cut-off points by visually inspecting the ROC curve and identifying points on the curve at which the slope of the curve, which represents the likelihood ratio, J o u r n a l P r e -p r o o f
-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Introduction
-The novel coronavirus disease 2019 (COVID-19) pandemic has led to more than 24 million confirmed cases and over 820,000 deaths worldwide as of late August 2020.Early observational studies reported high rates of venous thromboembolism (VTE) in critically ill patients with COVID-19. 1 A recent meta-analysis reported an incidence of 26% for VTE among 3487 patients from 30 studies based on very low-quality evidence due to heterogeneity and risk of bias. 2 Furthermore, studies have reported that elevated D-dimer values in COVID-19 are associated with a higher risk of VTE, mechanical ventilation, and mortality. [3] [4] [5] However, the clinical implications of D-dimer values are unclear. We report VTE rates and analyze the diagnostic performance and relationship of D-dimer with VTE in a large observational cohort study of hospitalized adults with COVID-19.
-Methods
-We conducted a retrospective observational cohort study at New York-Presbyterian Hospital/Weill Cornell Medical Center, a quaternary referral center located in the Upper East Side of Manhattan, and New York-Presbyterian/Lower Manhattan Hospital, an affiliated nonteaching hospital. We included all consecutive adult (age ≥18 years) cases of COVID-19 confirmed by a positive SARS-CoV02 reverse transcriptase-polymerase chain reaction test admitted to our two hospitals between 3 March 2020, the date of the first positive case, and 15 May 2020. For patients who remained hospitalized at the end of the study period, data collection and analysis were complete through 5 June 2020. Univariate analysis and multivariable logistic regression analysis were performed to evaluate the association between the initial D-dimer value during hospitalization, clinical characteristics, and the odds of VTE. Complete case analysis was used for the multivariable logistic regression. Clinical characteristics with P values less than 0.05 in the univariate analysis were included in the multivariable logistic regression analysis. significantly changed. We calculated 95% confidence intervals (CIs) for the likelihood ratios at each level (mutually exclusive, all-inclusive ranges for D-dimer values) to demonstrate non-overlapping CIs.
-Results
-A total of 1739 hospitalized patients with COVID-19 were included in the study. The median age was 66.5 years (IQR 53.7-77.3), 59% were men, and common comorbidities included hypertension (56%), diabetes mellitus (31%) and obesity (30%). Figure 1) . Multilevel likelihood ratios significantly changed at the following D-dimer levels: &lt;1000 ng/mL: 0.14 (95% CI, 0.07-0.30); 1000-7500 ng/mL: 1.19 (0.97-1.47); and &gt;7500 ng/mL: 4.10 (2.94-5.71) ( Table 1) . With an overall prevalence of VTE of 16%, the posttest probabilities of VTE at each level were: 0.03 (95% CI, 0.01-0.05), 0.18 (0.14-0.23), and 0.43 (0.33-0.53), respectively.
-Discussion
-In our study of a large cohort of hospitalized COVID-19 patients in New York City the prevalence of objectively confirmed VTE was 7%. The rate of VTE in our patients with COVID-19 was lower than what was previously reported in European and Asian studies, J o u r n a l P r e -p r o o f Journal Pre-proof but similar to a recent US study comprising 400 patients (144 critically ill) in which the overall rate VTE and the rate of VTE in critically COVID-19 patients was 4.8% and 7.6%, respectively . [1] [2] 6 Elevated D-dimer levels were associated with higher probability of VTE, consistent with reports by others. 1 Other significant predictors of VTE in our cohort included Black race, need for supplemental oxygen on presentation, higher platelet counts, and prolonged prothrombin time. Higher odds of VTE among Black patients has been reported previously. 7 A possible explanation for this is that Black patients have a greater prevalence of comorbidities such as obesity, hypertension and diabetes, and may have sickle cell trait. 8 In our analysis of the diagnostic performance of D-dimer values, we identified three levels of D-dimer that stratified patients into low-probability (&lt;1000 ng/mL), intermediate-probability (1000-7500 ng/mL), and high-probability groups (&gt;7500 ng/mL). With a VTE prevalence of 16% in our D-dimer analysis, the posttest probabilities of VTE at each level were 3%, 18%, and 43%, respectively. A recent study of D-dimer levels in critically ill patients with COVID-19 on intermediate-dose thromboprophylaxis reported that D-dimers &lt;2000 ng/mL had a 100% negative predictive value for VTE and &gt;8000 ng/mL had a significantly increased likelihood ratio, concluding that cut-off points of 2000 ng/mL and 8000 ng/mL appear useful to identify patients with low and high probability of having developed VTE, respectively. 9 We identified similar cut-off points that appear to be useful for identifying patients at varying 
-Data collection
-Demographic, clinical characteristics and radiology reports were manually abstracted from electronic medical records using a quality-controlled protocol in a REDCap database. 1 This methodology has been previously described and to have found high interrater reliability. 2 Vital signs and laboratory values were extracted using an algorithm-based automated process from electronic medical records. The study was approved by the institutional review board, which granted a waiver of informed consent.
-Clinical characteristics
-We evaluated age, gender, race, ethnicity, comorbidities including obesity (defined as body mass index &gt;30 kg/m 2 ), hypertension, coronary artery disease, heart failure, diabetes mellitus, and active cancer. Presenting signs and symptoms on hospital admission included dyspnea, chest pain, initial heart rate, systolic and diastolic blood pressure, and need for supplemental oxygen at presentation (defined as within three J o u r n a l P r e -p r o o f
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>62c29c01a0c9b6d1f6534d2313bab96cfd0cd3b3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Journal Pre-proof Clinical validation of quantitative SARS-CoV-2 antigen assays to estimate SARS- CoV-2 viral loads in nasopharyngeal swabs Title Clinical validation of quantitative SARS-CoV-2 antigen assays to estimate SARS-CoV-2 viral loads in nasopharyngeal swabs</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abstract
-Expansion of the testing capacity for severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) is an important issue to mitigate the pandemic of coronavirus disease-2019 (COVID-19) caused by this virus. Recently, a sensitive quantitative antigen test (SQT), Lumipulse ® SARS-CoV-2 Ag, was developed. It is a fully automated chemiluminescent enzyme immunoassay system for SARS-CoV-2.In this study, the analytical performance of SQT was examined using clinical specimens from nasopharyngeal swabs using reverse transcription polymerase chain reaction (RT-PCR) as a control.Receiver operating characteristic analysis of 24 SARS-CoV-2-positive and 524 -negative patients showed an area under the curve of 0.957±0.063. Using a cut-off value of 1.34 pg/ml, the sensitivity was 91.7%, the specificity was 98.5%, and the overall rate of agreement was 98.2%. In the distribution of negative cases, the 99.5 percentile value was 1.03 pg/ml. There was a high correlation between the viral load calculated using the cycle threshold value of RT-PCR and the concentration of J o u r n a l P r e -p r o o f antigen. The tendency for the antigen concentration to decrease with time after disease onset correlated with that of the viral load.Presented results indicate that SQT is highly concordant with RT-PCR and should be useful for the diagnosis of COVID-19 in any clinical setting. Therefore, this fully automated kit will contribute to the expansion of the testing capability for SARS-CoV-2. Keywords COVID-19, SARS-CoV-2, nasopharynx, nasopharyngeal swab, saliva, chemiluminescent enzyme immunoassay, sensitive quantitative antigen test J o u r n a l P r e -p r o o f might account for the scattered correlation in samples with low viral loads and the discrepancies observed in this study.Funding This research was supported by the Japan Agency for Medical Research and J o u r n a l P r e -p r o o f Development under Grant Number JP19fk0108113. Conflict of Interest SY and SO are employees of Fujirebio, Inc.. The other authors have no conflict of interest to declare.We are grateful to Mr. Kenjiro Matsushita for his technical assistance. We would like to express our thanks to Dr. Hisashi Nojima for his support for data analysis.Contributors YI was responsible for the organization and coordination of the study.KA, TN, SO and SY were responsible for the data analysis. YI, KA, SY, KK and KT prepared this study design. TMa, TMi, and SY contributed to take informed consent and collection of clinical specimens. All authors contributed to the writing of the manuscript.J o u r n a l P r e -p r o o f
-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Introduction
-Since December 2019, diseases caused by the novel coronavirus 2019, severe acute respiratory coronavirus 2 (SARS-CoV-2), emerged in China and rapidly spread throughout the world. The World Health Organization stated that the coronavirus disease-2019 (COVID-19) pandemic is not close to ending and is still a serious public health threat [1] . An analysis of viral load kinetics indicated that access to SARS-CoV-2 testing as well as the frequency and rapidity of tests should be prioritized to control the spread of SARS-CoV-2 [2].Currently, nucleic acid testing (NAT) using reverse transcription polymerase chain reaction (RT-PCR) has been used for the diagnosis of COVID-19. However, its complicated operation, relatively long time to obtain results (several hours to several days), and cost are issues that have prevented the expansion of NAT for the general testing of COVID-19 in several countries. Rapid antigen tests (RAT) are expected to address these issues; however, recent studies have reported their high specificity and poor sensitivity compared with 4] . In addition, RAT is a qualitative test and should not be used to estimate viral loads when monitoring the status of virus replication.Recently, a sensitive quantitative antigen test (SQT), "Lumipulse® J o u r n a l P r e -p r o o f SARS-CoV-2 Ag", was developed based on a fully automated chemiluminescent enzyme immunoassay system that enables the rapid and multiple testing of SARS-CoV-2 N antigens in nasopharyngeal swabs or saliva.In this study, we investigated the performance of the SQT and compared it with that of RT-PCR using clinical samples.
-Patient samples
-Five hundred and forty-eight nasopharyngeal swab specimens were collected from COVID-19 patients or suspected patients with COVID-19 hospitalized in Omori Hospital, who had been diagnosed by RT-PCR. Some samples were collected from the same patients at multiple time points. Informed consent was obtained from all participants in the study. Specimens were stored at 80°C and did not melt during storage (within 2 months). The study protocol was approved by the Ethics Committee of the Faculty of Medicine, Toho University (No. A20028_A20020_A20014_A19099).
-SARS-CoV-2 RNA detection
-RT-PCR analysis was performed according to the "Pathogen Detection (NIID_2019-nCOV_N_F2 and NIID_2019-nCOV_N_R2) and FAM labeled probe (NIID_2019-nCOV_N_P2) were used as they were previously reported to target gene N [5]. The detection limit value of the measurement system was set at 5 copies/reaction. The RNA copy number was calculated using the cycle threshold (Ct) value of the AccuPlex SARS-CoV-2 reference (SeraCare, MA, USA) using known RNA copies.
-Measurement of SARS-CoV-2 antigen
-SARS-CoV-2 antigen was measured using the LUMIPULSE SARS-CoV-2 Ag kit and the LUMIPULSE G1200 automated immunoassay analyzer according to the manufacturer's instructions (Fujirebio Inc., Tokyo, Japan) using nasopharyngeal swab specimens frozen after RT-PCR. To remove viscous materials from the samples, J o u r n a l P r e -p r o o f specimens were centrifuged at 1,300 ×g for 10 min, and the supernatants were used for the analysis. First, 100 μL of the supernatant was added to the treatment solution and consecutively aspirated using a single tip. Then, the mixture was dispensed into an anti-SARS-CoV-2 Ag monoclonal antibody-coated magnetic particle solution and incubated for 10 minutes at 37°C. After the first washing step, alkaline phosphatase-conjugated anti-SARS-CoV-2 Ag monoclonal antibody was added and incubated for 10 minutes at 37°C. After another washing step, the substrate solution was added and incubated for 5 minutes at 37°C. The resulting reaction signals were proportional to the amount of SARS-CoV-2 Ag in the sample, which allowed the quantitative determination of SARS-CoV-2 Ag in the nasopharyngeal swabs. When the antigen levels were greater than the upper range of the measurement (5,000 pg/mL), we tested samples diluted with Lumipulse® sample diluent (Fujirebio Inc.). University, Saitama, Japan), which is a graphical user interface for R and Excel (Microsoft Corporation, Redmond, WA, USA). Receiver operating characteristic (ROC) curve analysis was conducted using R to evaluate the assay performance and to visualize the curves, and areas under the ROC curves (AUC), sensitivity, specificity and the overall percent agreement were calculated. Because the negative group distribution did not follow a normal distribution or have a lognormal distribution, a nonparametric method (99.5 percentile) was used to establish a negative reference value.
-Results
-The ROC analysis of SQT by RT-PCR showed an AUC of 0.957 ± 0.063 and a cut-off value of 1.34 pg/mL using Youden's Index ( Figure 1A ). The distribution of antigen levels in 510 samples collected from persons without a history of COVID-19, whom had been diagnosed by RT-PCR, is shown in Figure 1B . The 99.5 percentile determined by a nonparametric method was 1.03 pg/mL, and was sufficiently below the cut-off value. Using this cut-off value, the SQT had a sensitivity of 91.7%, a J o u r n a l P r e -p r o o f specificity of 98.5%, and overall rates of agreement of 98.2%.There were eight RT-PCR-negative and SQT-positive cases (1.5%) (Table 1, Figure 2B ). In all these cases, specimens were collected several times and were from patients with COVID-19 history. We examined the dilution-linearity of five available samples to eliminate the possibility of non-specific interference and variation in the measurements [6]. In the 5-fold dilution measurement, the antigen concentration was decreased approximately in proportion to the degree of dilution in each case ( Table 2) . The corresponding values were obtained when the samples were diluted 5-fold for cases of discrepancy, suggesting that the SQT measures the antigen level accurately.However, there were two cases with PCR-positive and SQT-negative findings (Table 1, Figure 2B ). These two specimens were collected at 2 and 10 days after the onset of symptoms (initial sample collection); the LAMP method for RNA detection gave a negative result for one of these specimens (data not shown) [7] . because these values differ between testing kits and between facilities. Monitoring antigen levels can provide a more rapid and stable quantitative basis for infection control, treatment progress, and discharge decisions. It might also be possible to quantitatively determine the likelihood of relapse.
-Discussion
-The results of this study showed that SQT had a high concordance rate with J o u r n a l P r e -p r o o f the RT-PCR method, and even samples with a low viral load showed positive results with SQT. In addition, the antigen concentration correlated well with the RNA titer.These data suggest that SQT might replace RT-PCR for the diagnosis of COVID-19.Using SQT, the antigen concentration can be obtained in approximately 30 minutes using a fully-automated analyzer with a throughput rate of 60 or 120 samples per hour, which will contribute to the expansion of the testing capability for SARS-CoV-2. The cost of SQT is lower than that of NAT, and the insurance points of SQT (600) is less than half of that of NAT (1350 or 1800) in Japan. Because the SQT can provide test results in a short period of time (30 minutes), it is particularly useful in facilities where it is difficult for many people to stay for a long time, such as airports.Because false-positive results are likely to occur when sputum is used for antigen tests [10] , especially if the viscosity of the sample is high or impurities are present, centrifugation might be an effective method to avoid false-positive results. Several discrepancies were found in this study. Although limitations in the volume and/or concentration of samples hindered further analysis by western blotting or different NAT tests, the dilution-linearity test suggested a specific immunoreaction for measurements. Further analysis of J o u r n a l P r e -p r o o f discrepant specimens will help the manufacturer improve the SQT.Correlation analysis between the antigen test and RT-PCR showed low variability in the correlation between antigen concentration and RNA titer in samples with high viral loads, and scattered correlation patterns were observed in samples with low viral loads, which were collected from patients at later periods after symptom onset. Virological factors that might affect these observations are not clear; however, we think that the accuracy and precision of the measurements might affect the correlation patterns because the SQT showed high linearity of dilution with a coefficient of variation less than 10% (Table 2) [11]. In addition, differences in the analyte stability in samples might affect the scattered correlation pattern.Generally, proteins are more resistant to degradation than RNAs [12] [13] [14] [15] . In some cases, intracellular viruses do not replicate as RNA but only produce antigenic proteins [16, 17] . Differences in stability or viral production of the antigen protein
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>bbcfade6ed34e50e80c4c15693588a91bce00c91</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Time from first seen in specialist care to surgery does not influence survival outcome in patients with upfront resected pancreatic adenocarcinoma</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abstract
-Background: This study evaluated the impact of time to surgery (TTS) on overall survival (OS), disease free survival (DFS) and postoperative complication rate in patients with upfront resected pancreatic adenocarcinoma (PA).We retrospectively included patients who underwent upfront surgery for PA between January 1, 2004 and December 31, 2014 from four French centers. TTS was defined as the number of days between the date of the first consultation in specialist care and the date of surgery. DFS for a 14-day TTS was the primary endpoint. We also analyzed survival depending on different delay cut-offs (7, 14, 28, 60 and 75 days).: A total of 168 patients were included. 59 patients (35%) underwent an upfront surgery within 14 days. Patients in the higher delay group (&gt; 14 days) had significantly more vein resections and endoscopic biliary drainage. Adjusted OS (p = 0.44), DFS (p = 0.99), fistulas (p = 0.41), hemorrhage (p = 0.59) and severe post-operative complications (p = 0.82) were not different according to TTS (&gt; 14 days). Other delay cut-offs had no impact on OS or DFS. Discussion: TTS seems to have no impact on OS, DFS and 90-day postoperative morbidity.
-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Introduction
-Pancreatic adenocarcinoma (PA) is one of the most aggressive digestive cancers. Five-year overall survival (OS) rate is estimated below 8% (all stages combined) [1] . This malignancy is expected to be the second leading cause of cancer-related death in Europe by 2030 [2] .French actual standard of care for resectable PA is upfront carcinologic surgery followed by adjuvant chemotherapy [3] . Unfortunately, prognosis remains poor despite improvements in surgical technique, perioperative care, diagnosis accuracy, patient selection and more active chemotherapy regimen [4] . New perspectives are needed to increase both survival rates and quality of life for patients diagnosed with PA.One of the objectives studied in other cancers has been to reduce time to treatment by improving the organization of the care pathway. Time to surgery (TTS) has turned out to be a major prognostic factor associated with survival in several malignancies [5] [6] [7] [8] . To date, the impact of TTS on OS and disease-free survival (DFS) in patients diagnosed with resectable PA remains unclear [9] .Moreover, pancreatic resection is one of the most challenging surgery, with significant postoperative morbidity and mortality [10] . Improving preoperative status-by means of biliary drainage, hemostasis correction, prehabilitation with nutritional and adapted physical activity interventions [11] -is needed before surgery as complications are more frequent in unfit patients [12] . Shorter TTS may not allow to optimize prehabilitation but could improve carcinologic prognosis.This study evaluated the impact of TTS on OS, DFS and postoperative complication rate in patients who underwent upfront curative intent surgical resection of a PA.
-Materials and methods
-We retrospectively included patients with upfront resected PA between January 1, 2004 and December 31, 2014 in three tertiary French centers (Reims University Hospital, Amiens University Hospital, Strasbourg University Hospital) and in one private center (Reims Courlancy Clinic). Patients were screened with administrative coding and multidisciplinary tumor board meetings data (MTBM). All cases have been discussed in MTBM, including a senior radiologist and a pancreatic surgeon, as now recommended by the consensus of the International Study Group of Pancreatic Surgery [13] . No systematic preoperative imaging review was made at inclusion.All patients who underwent upfront curative intent resection for a PA were included. Patients were excluded in case of neoadjuvant treatment or incomplete surgical resection (R2).Basic baseline clinical, biological (i.e. ECOG performance status (PS), initial symptoms, tumor location, preoperative biliary drainage, bilirubin levels and neutrophil-lymphocyte ratio), pathological and surgical data [i.e. TNM staging (5th, 6th or 7th edition, according to the standard of care at the time of treatment], lymph node ratio (number of invaded lymph nodes/total number of resected lymph nodes), resection margins [R0 or R1 (&lt; 1 mm)], venous and adjacent organ involvement (gastric, colon or left adrenal resection), were collected using medical records. Follow up characteristics such as postoperative complications, adjuvant treatment regimen and evolution of the disease (tumor recurrence, site of recurrence and death) were also collected.Time to decision (TTD) was defined as the delay in days between first specialized medical interview (gastroenterologist, pancreatic surgeon, or medical oncologist) and MTBM decision. Time to surgery (TTS) was defined as the delay between the first specialized medical interview (gastroenterologist, pancreatic surgeon, medical oncologist) and surgery. The 90-day postoperative complications were assessed using Dindo-Clavien classification and ISGPS definitions [14] . Grade III or higher grade complications were considered as severe [14] . Grade V complications correspond to postoperative death. Follow-up was standard and left to the physician's discretion according to guidelines prevailing at the time of the treatment [3] . The primary objective was to determine the impact of a shorter (≤ 14 days) TTS in DFS improvement. This threshold was chosen in accordance with literature review and the investigators' experience [15] [16] [17] [18] [19] [20] . Secondary objectives were to evaluate OS and DFS according to other TTS and TTD thresholds (7-, 14-, 28-, 60-and 75-day delay). Ninety-day morbidity rate was compared using a 14-day delay. Endpoint date was set to provide at least a 12-month follow-up (December 31, 2015).
-Statistical analysis
-Continuous variables were described as median and interquartile ranges. Categorical variables were described as frequencies expressed with percentages. Groups with different management delays were compared using Mann-Whitney test (non-normal continuous variables) and Chi square test or Fisher test (categorical variables), depending on variable type and sample size. OS was calculated from date of surgery procedure to date of death or censoring at the date of last visit. DFS was calculated from the date of the surgical procedure to the date of progression, death or censoring at the date of last visit [9] . Survival curves were established using the Kaplan-Meier method and compared using Cox proportional-hazards model for univariate and multivariate analyses. We preplanned several survival analyses stratified on different delay cut-offs (7, 14, 28, 60 and 75 days). Complication rates were analyzed according to a 14-day delay using Mann-Whitney test and logistic regression adjusted for factors with a p &lt; 0.2 in stepwise regression. All data analyses were performed using R (R Development Core Team, 2005). Statistical significance was defined as a p value &lt; 0.05 for all tests.
-Ethics
-Patient's records were anonymized prior to analysis. Database was constituted in accordance with the reference methodology MR004 of the National Commission of Liberties and Informatics. (no. 2206749, 13/09/2018). As per French regulations, no additional ethical review was required.
-Population characteristics at baseline
-A total of 534 patients with a PA were screened. Among them, 201 patients underwent an upfront surgery procedure with curative intent; 33 were finally excluded due to unresectable tumor upon surgical reassessment [21] or insufficient data collection [6] yielding a total of 168 included patients. The study flowchart is presented in Fig. 1 (Flowchart) .Patient characteristics are presented in Table 1 . Most patients were men (57.7%), with a median age of 66 years (IQR 58-71). ECOG PS was available in 60.2% of the cases. Only four patients were ECOG PS &gt; 1. Jaundice was the main symptom (69%) at first patient visit, and diagnosis was made during a hospital stay in 44.6% of the cases. Tumors were mainly located in the head of the pancreas (79.8%), warranting a biliary drainage in 64 patients (38.1%). Nine of the patients underwent isolated metastases (liver and/or distant lymph nodes) resection, in curative intent at the time of surgery. Median total bilirubin prior to any biliary drainage was 197.5 µmol/L (IQR 135.5-336.75).
-Treatment characteristics
-Pancreaticoduodenectomy was performed in 131 patients, (78%). Mesenteric superior vein was resected in 69 patients (41.1%). Other organs were resected in only 10 patients (6%) ( Table 1B) . Median length of hospital stay was 19 days (IQR 14-27.5). TNM stage on the final pathology report was mainly T3 (76.2%) and N1 (76.8%). A median of two lymph nodes were positive at pathological analysis (IQR 1-4) for a lymph node ratio calculated at 0.08 (IQR 0.00-0.2). Postoperative complication data were available in 159 patients (94.6%). Eighty-seven (51.8%) and 66 patients (39.3%) experienced hemorrhage and fistulas, respectively. Post-operative complications were considered severe in 41 patients (24.4%). Ten patients (6%) died of post-operative complications (Dindo-Clavien class 5).Adjuvant chemotherapy was administered in 141 patients (83.9%), mainly gemcitabine. A median of 6(IQR 5.5-6) chemotherapy cycles were administered. was Adjuvant radiotherapy was used for 13 patients (7.7%).Median follow-up lasted 651.5 days (IQR 374, 1077.2), approximatively 21.5 months. Recurrence was identified for 128 patients (76.2%), and classified as at least distant/ metastatic (95.3%, 122 patients), or only locoregional (4.7%, 6 patients). A total of 114 (67.9%) patients had died at study endpoint date.
-Delay analysis
-Median TTD was 9.5 days (IQR 1-30.5). Median TTS was 19 days (IQR 12-36). Patient characteristics stratified upon TTS inferior to 14 days are presented in Table 2 . A total of 59 patients (35%) had their tumor resected less than 14 days after first consultation. Patients in the longer delay group had more frequent vein resections, endoscopic biliary drainage (p &lt; 0.001), jaundice (p = 0.044), and higher median total serum bilirubin levels (p &lt; 0.001).Univariate survival analysis using Cox model showed no significant statistical differences with a 14-day TTS threshold (Fig. 2) for DFS (p = 0.82) or OS (p = 0.97). No difference was shown for DFS either with a 7-(p = 0.22), 28-(p = 0.33), 60-(p = 0.79) or 75-(p = 0.88) day delay. OS and DFS were not different in both groups when comparing extreme delays (Table 3) . TTD did not impact either DFS or OS, regardless of the delay cut-off (Table 3) .Adjusted OS (on organ and vein invasion, severe complications, and adjuvant chemotherapy) and adjusted DFS (on vein invasion, organ resection, severe complications, R status, N status, and adjuvant chemotherapy) were not significantly improved with a shorter TTS, inferior or equal to 14 days (p = 0.44 (Table 3) .Delay had no influence on the occurrence of fistula (p = 0.44), hemorrhage (p = 0.35) and severe postoperative complication (p = 1) ( Table 4 ). Multivariate logistic regression analysis adjusted on significant factors selected from the univariate analyses did not show any statistical significance concerning fistula (p = 0.41), severe post-operative complication (p = 0.82) or hemorrhage (p = 0.59) ( Table 4) . 
-Discussion
-In our study, TTS-considered as the time from the first specialized interview to surgery-had no impact on DFS and OS in patients with upfront resected PA. Hemorrhage, fistula, or severe post-operative complications rate were not different, regardless of TTS. This is the first study to evaluate the impact of TTS on the 90-day morbidity. Shortening time to treatment has been a promising approach to improve survival. TTS has been set as a quality care index in other malignancies [6, 7, 22, 23] . As an example, HCC radiofrequency ablations warrant an under five-week management delay to avoid any impact on prognosis [6] .In PA, TTS impact remains unclear. Our results are consistent with most of the previous cohorts that showed no significant influence of TTS on survival rate for patients undergoing a curative intent resection for PA [15, 17, 24] . Eshuis et al. concluded that biliary drainage and prolonged TTS do not impair survival rates in a randomized controlled trial [25] . On the contrary, Swords et al. showed a modestly improved OS (1.8 months) and a higher 30 and 90-day post-operative mortality in shorter TTS, but at the cost of including a large number of patients [26] . Subgroup analysis suggested that shorter TTS could improve resecability rate and prognosis in small tumors [15, 26, 27] . Finally, none of these studies analyzed the consequences of shorter TTS on postoperative complications such as hemorrhage, fistulas or Dindo-Clavien classification.Published studies, including ours, have failed to demonstrate a significant survival benefit with shorter delays before upfront surgery in PA. However, PA arises from pancreatic parenchyma decades before being symptomatic and diagnosed, suggesting slow growth at early stages [21] . There is also evidence to support the rapid growth of PA, in later natural history once diagnosed, with an estimated time to progression from a T1 to a T4 stage of approximately 14 months [28] . Tumor volume growth could thereby be considered as a factor distinct from the disease stage. Marchegiani et al. showed a TTS effect on survival for smaller tumors (T1 and T2) [27] . Shorter TTS could impact resecability and disease-free survival in this specific patient subgroup. In our study, only 28 patients (16.7%) had a T1 or T2 disease stage, making subgroup analyses futile.Nevertheless, median TTS seems to be increasing year after year due to the incremental PA incidence and the frequent referral to expert centers [22] . As TTS has no or little impact on prognosis, management strategy could be modified to allow sufficient time to confirm diagnosis in ambivalent cases and integrate preoperative chemotherapy and prehabilitation strategy. A 28-day minimum delay between last liver imaging and surgery remains well established to avoid any curative surgery performed on patients with liver metastases [3] .No link was observed for fistula, hemorrhage, or severe post-operative complications when TTS was shortened. Post pancreatectomy hemorrhage is mainly due to anastomotic leaks causing pseudoaneurysms [29] . Also, when performed early, these interventions are less likely to be the subject of technical debate in multidisciplinary surgical meetings and patients may be less well prepared (uncorrected coagulation, nutritional status, or jaundice). Moreover, significantly higher median bilirubin in the shorter delay group can lead to troubled hemostasis, facilitating post-operative hemorrhage [30] .Our study has several limitations. First, patients with macroscopically incomplete resection (R2) or those who finally did not undergo a curative surgery, despite an initially resectable primary tumor, were not included. These patients could potentially have longer delays explaining tumor progression. Unfortunately, they were not considered in our analysis avoiding performing an intention-totreat analysis. Vein resection rate was higher in the over 14-day delay group. This significative difference could be explained by a higher number of patients with borderline resectable disease in this group. Unfortunately, no systematic preoperative imaging review was performed, which did not allow us to better assess those patients. Furthermore, patients who waited longer without any treatment but finally underwent a curative surgical procedure may have had slower-progressive disease with a better prognosis. Preselecting candidates for curative surgery on their time to progression in the setting of such an aggressive disease seems unethical. Also, 116 patients (69%) were diagnosed upon jaundice presentation, while only 64 (38.1%) experienced a radiological or endoscopic biliary drainage. Patients treated before 2010 were more frequently resected with higher bilirubin levels. Moreover, the power of the study could be insufficient due to the limited number of inclusion centers and retrospectively included patients. Finally, three of the four inclusion centers, including 92.9% of the patients, were tertiary hospitals. We cannot exclude a selection bias and a confusion effect due to highly skilled techniques developed in these centers with low complication rates.Surgery remains the only existing treatment to cure PA [3] . Recent progress with polychemotherapy regimens and better patient selection for surgery has modestly improved overall survival [31, 32] . Moreover, new management strategies including neoadjuvant and induction chemotherapies are to be interpreted differently from passive delay where no therapeutic interventions occur. New perspectives must be found to increase the survival and quality of life of these patients. PA may not be the most suitable malignancy to study TTS as a quality metric. However, the COVID-19 pandemic has called for urgent case hierarchization and has thereby raised new questions about carcinologic surgical priorities. Ongoing multicentric CAPANCOVID-19 (https:// clini caltr ials. gov/ ct2/ show/ NCT04 406571) tries to measure the impact of the COVID-19 pandemic causing prolonged management delay, from surgery to palliative situations. We showed that TTS seems to have no impact on OS, DFS and 90-day postoperative morbidity in patients with resected pancreatic adenocarcinoma. Other trials need to be carried out to understand the role of TTS in smaller tumor sizes.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>c9a9565f4d11b927100349b8a23ff63ed4425c54</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>On-site measurement of tracer gas transmission between horizontal adjacent flats in residential building and cross-infection risk assessment</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abstract
-Airborne transmission is a main spread mode of respiratory infectious diseases, whose frequent epidemic has brought serious social burden. Identifying possible routes of the airborne transmission and predicting the potential infection risk are meaningful for infectious disease control. In the present study, an internal spread route between horizontal adjacent flats induced by air infiltration was investigated. Onsite measurements were conducted, and tracer gas technique was employed. Two measurement scenarios, closed window mode and open window mode, were compared. Using the calculated air change rate and mass fraction, the cross-infection risk was estimated using the WellseRiley model. It found that tracer gas concentrations in receptor rooms are one order lower than the source room, and the infection risks are also one order lower. Opening windows results in larger air change rate on the one hand, but higher mass fraction on the other hand. Higher mass fraction not necessarily results in higher infection risk as the pathogen concentration in the source room is reduced by the higher air change rate. In the present study, opening windows could significantly reduce the infection risk of the index room but slightly reduce the risks in receptor rooms. The mass fraction of air originated from the index room to the receptor units could be 0.28 and the relative cross-infection risk through the internal transmission route could be 9%, which are higher than the external spread through single-sided window flush. The study implicates that the horizontal transmission route induced by air infiltration should not be underestimated.
-</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Introduction
-In recent years, frequent outbreaks of infectious diseases have The main spread modes of infectious diseases are direct contact transmission, large droplet contact transmission and airborne transmission. Airborne transmission has been supposed to be responsible for the spread of many respiratory infectious diseases, such as tuberculosis, measles, influenza, smallpox and SARS [1e3]. Riley et al. [4] implicated the ventilation system with a measles epidemic in a school in 1974, in which 60 children were infected. Yu and Li et al. [5, 6] associated the not uniformed distribution of infected cases in the Amoy Gardens housing during 2003 SARS epidemic with the dispersion of airborne aerosols predicted using the computational fluid dynamics and multi-zone modeling. It found that the risk distribution characteristics, upper floors had higher risks than lower floors, matched with the rising plume in the airshaft, and the hypothesis of the airborne spread of virus-laden aerosols was also identified. Therefore, airborne transmission should not be underestimated [7] . The airborne spread of virus is within short-distance due to the interaction of respiration. However, relying on air movement, it might be long-distance spread and could contribute to largescaled outbreaks of infectious diseases [8] . Research showed that the dispersion of aerosols could even be over 6 km [9] . Exploring the possible airborne transmission routes related to air movement and assessing the infection risk seems to be essential for the control of infectious diseases. Many works on airflow and dispersion have been done, which enhanced the confidence to investigate the air movement induced contaminant dispersion [10e13]. In hospital environment or enclosed environment like aircraft cabin, relevant guidelines have been raised [14e16] . The influences of mechanical ventilation, human walking and door motion on the airborne transmission have been well analyzed. Improved ventilation design for isolation rooms was recommended, which can be considered an improvement of the previous ventilation strategy proposed by Centers for Disease Control and Prevention. Besides, potential inter-cubicle transmission was also explored and related solutions to reduce intercubicle exposure hazards were put forward [17e20]. However, in densely populated residential environment, there is still a lack of the understanding of, the risk level and mechanism of possible airborne spread routes.An external spread route, that the air exhausts from the windows of the lower floor and re-enters the upper floor, has been identified, which is induced by single-sided natural ventilation. Niu and Tung's on-site measurements in a multi-family residential building revealed that the upper floor inhales up to 7% of exhaust air from the low floor [21] . Gao et al. [22, 23] further studied this spread route using numerical methods. Both the dispersions of the tracer gas and the particle were simulated. It found that the tracer gas concentration in upper floor is two orders lower than that in the immediate lower source floor, while particle concentration is two to three orders lower than the source floor. The infection risk in upper floor is one order lower than in the lower source floor.Outdoor wind normal to the building may restrain or reinforce the upward dispersion depending on the wind speed magnitudes. Liu et al. [24, 25] investigated the tracer gas dispersion and crosscontamination through the external route by conducting wind tunnel tests, and found that not only the vertical upward but also vertical downward and horizontal transmission were observed under wind effects. Ai et al. [26e29] optimized the numerical methods for the simulations of the single-sided ventilation induced inter-unit dispersion, including the employment of inhomogeneous atmospheric boundary layer, the treatment of near-wall simulation and the methods for the determination of sing-sided ventilation rates. It is found that the inter-unit reentry ratios could reach around 10.0%, and that the building envelope features could affect the gaseous dispersion. The strongest dispersion occurs on the windward wall of the buildings due to high air change rate. However, these studies only focused on the transmission through external routes of buildings with single-sided ventilation. Other transmission routes intra a multiunit residential building could also be possible.In the present study, a possible internal transmission route between horizontal adjacent flats induced by air infiltration was investigated. Many works about the infiltration have been conducted, but they mainly concentrated on the determination of the infiltration flow rate and its impact factors [30, 31] . Research that associates the air infiltration with the contaminants transmission was limited. In the present study, on-site measurements were carried out, and tracer gas technique was employed to simulate the diffusion of gaseous pollutants or fine particles. Although the transport of coarse particles could be significantly limited by the deposition and gravitational effects, fine particles less than 1.0 mm disperse like gaseous pollutants [23] . Zhao and Wu [32] compared the diffusion of particles in size range 0.3e20 mm with passive pollutants, and found that, when the indicator, the product of the nominal time and the particle relaxation time, is small enough, particles could be treated as gaseous pollutants. The main objectives of this study are to verify the internal transmission route and to assess the relative crossinfection risks of this route.
-Measurement settings and instrumentations
-On-site measurements were carried out in a slab-type building located in Pak Tin Estate, Hong Kong, which is a 16-story public housing built in 1979. Subject to the complicated mountainous terrain in Hong Kong, many different designs were used in building constructions, such as slab type, H type, tower type, I type, harmony type, linear type, trident type, mark type, cruciform type, concord type and so on. Among them, slab-type housing is one of the most common and basic designs, especially in public housing estates, which provide houses for more than 30% populations in Hong Kong. Besides, slab-type design is also widely used in the buildings of hospital wards and student dormitories. The typical building plan of the test housing is shown in Fig. 1 . In each floor, there are 40 flats, with 20 in each side of a 1.75 m width corridor. At both ends of the corridor, there are windows opened most of the time. Three horizontal adjacent flats in 13th floor were rented for the measurements with two flats (R1308 and R1310) in the west side and another one (R1307) in the east side opposite to R1308. The interior structures in a unit are shown in Fig. 2 . In each unit, there is a living room near the corridor and a lavatory and a kitchen on the balcony. Between the living room and the balcony, there is a partition containing a door and a window, which could be fully closed. On the internal walls near the corridor, windows are designed, which are closed in most cases for privacy reason. In the present measurements, gaps have to be left on the internal windows for the arrangement of the tracer gas sampling tubes. On the external wall of each unit, windows and air slits are designed for natural ventilation.The measurements last for three months from March to May 2015. Two measurement scenarios were carried out. Scenario 1 is closed window mode (simplified as Close mode below), which was carried out in March and April, and Scenario 2 is open window mode (simplified as Open mode) conducted in the end of April and May. In Close mode, all the doors, including the entrance doors, kitchen doors, lavatory doors and the doors on the partitions that connect the living rooms and the balconies, and all the windows, including internal windows, partition windows and external windows, in three flats were closed. The setting of closed windows is in conformity with the occupant behavior in cool season. The tracer gas dispersion is mainly induced by the infiltration flow through cracks of building components. The dimensions of cracks were measured, which are 0.5~2 cm width on doors, and 1~2 cm and 2~3 cm width for external and internal windows. The effective air leakage areas for doors and windows are about 360 cm 2 /ea and 120 cm 2 /m 2 , respectively. They are much larger than the values in ASHRAE Handbook, in which the best estimated effective air leakage areas for residential entrance doors, internal doors and windows are 70 cm 2 /ea, 21 cm 2 /ea and 1.6 cm 2 /m 2 , respectively. In Open mode, the windows on external facades and on the partitions were open at an angle of 45 , while the internal windows towards the corridor and all the doors were closed. The setting of open external windows conforms to the occupant behavior in warm seasons. In this scenario, with the influence of natural ventilation near building facades, the pressure difference that drives the infiltration flow and dispersion between units would increase. Besides, it should be mentioned that during the test period there were residents in other flats on the same floor, and their living behaviors were not controlled. Whether their external windows were closed or open may also affect the airflow and dispersion in the common corridor.In the measurements, the tracer gas technique was used to identify the indoor airflow pattern and to reproduce the pathogens dispersion. SF 6 (Sulfur hexafluoride) and CO 2 (Carbon dioxide) were provided as tracers. Both of them were used at low concentrations that are known to be not harmful to the residents. SF 6 was tracer for pollutant dispersion analysis and ventilation rate calculation, while the monitored CO 2 concentrations were used to calculate the ventilation rates based on tracer decay method. B&amp;K Multi-gas Monitor 1302 and B&amp;K Multipoint Sampler and Doser 1303 were used for SF 6 dosing and sampling in three flats. The CO 2 concentrations were monitored in three flats using 2 sets of TSI Q-Trak and 1 set of Telaire CO 2 Sensor. The wind speed condition was also measured, by locating a set of Young UVW Anemometers above the roof.The distribution of SF 6 dosing and sampling points is shown in Fig. 3 . The dosing point of SF 6 was set in R1307, the southeast flat among three rented flats, since that the dominant wind direction near the site is southeast according to the record of the Hong Kong Observatory in the last three years. 6 sampling points were distributed in three flats with two points in each flat, one in the center of the room (P-1, P-4 and P-6) and the other one in the crack of the internal window (P-2, P-3 and P-5). Before the startup of the measurement, the windows and doors of the flats were opened, and the outdoor fresh air was allowed to purge the old air out. Then the windows were closed or opened based on different scenarios to start the tracer gas release. SF 6 was injected to the dosing point with a constant rate of 3 ml/s. Air samples were extracted from 6 sampling points were analyzed in sequence, and the time taken to analyze 6 samples was about 5 min. CO 2 was released in three flats twice in a day to raise the indoor CO 2 concentrations above 2000 ppm. The first release was in the morning, and the second in the afternoon. The CO 2 concentration was monitored continuously and recorded once a minute. In these measurements, SF 6 was used both as the tracer of indoor gaseous pollutant and for the air change rate assessment. CO 2 was used as a double check of the air change rate. In addition, as SF 6 was released in the source/index room at a constant rate, to measure the air change rate in the other two adjacent rooms, a second tracer gas was needed. To assure better accuracy, the CO 2 concentrations were monitored continuously in the empty rooms, and the equilibrium CO 2 concentrations before and after each of the short dosing and decay period were good indictors of the real-time background concentration. Furthermore, the ACH obtained using the CO 2 decay method could be representative of the average ACH during the two short periods of CO 2 decay test on each day, which provides additional information on the possible variation of the air change.During the test period of the Close mode, the outdoor temperatures were 20e28 C, while they were 28e31 C during the Open mode tests. But, considering that no occupant is allowed to stay and no air conditioning services were provided in all the test flats during tests, the indooreoutdoor temperature differences were quite small in the duration of measurement. The incoming wind conditions during the measurement periods for the two scenarios are shown in Fig. 4 . It can be seen that the wind conditons were similar for the two scenarios. The wind speeds were mainly below 2 m/s, which were low-wind conditions.
-Data analysis approach
-To determine the air change rate of the index unit, the monitored SF 6 concentrations were employed. Assuming the steady airflow and well-mixed indoor tracer gas, the variation of SF 6 concentration against time can be calculated by the mass balance equation:where, C is the indoor SF 6 concentration. C 0 is the SF 6 concentration in ambient fresh air, which equals to 0. V is the volume of the room. E is the known SF 6 emission rate, 3 ml/s Q 0 and Q are inflow rate from outdoor fresh air and outflow rate, respectively. For incompressible flow, Q 0 ¼ Q. With the boundary conditions, t¼0, C¼C i and (1) can be solved as the expression:where, C i is the initial SF 6 concentration, which can be obtained from the measurement data. C ∞ is the equilibrium SF 6 concentration. The well-mixed hypothesis could be verified with the measurement results in the following chapters, in which it is found that SF 6 concentration profiles of two sampling points in a some receptor flat seems to be similar, and their mean values are almost the same. Besides, considering that the measurements were carried out in empty rooms, and the tracer gases employed are chemically stable, the sink effects were ignored in the mass balance formulas above. By minimizing the sum deviation between measured SF 6 concentration data and theoretical calculated data by Equation (2), the air flow rate Q could be obtained using the statistic approach of least square fitting [33] . Accordingly, the equilibrium SF 6 concentration C ∞ could also be calculated. In reality, the monitored SF 6 concentration changed all the time, and the air flow rate was also variable. Therefore, the constant values of Q and C ∞ achieved from theoretical fitting only reflect the equivalent air flow rate and corresponding indoor tracer gas level. Measured and fitted SF 6 variation curves of a test day in the index room is provided as an example in Fig. 5 . As an important parameter to assess the infection risks, the equivalent air change rate Q of the index room, was obtained not only from the SF 6 variation, but also from the wellestimated CO 2 concentration decay method [34e36], as illustrated in Fig. 6 . The differences of the air flow rates calculated by using the SF 6 constant realease method and CO 2 decay method are below 35% for the Close mode and below 21% for the Open mode. For the receptor units, R1308 and R1310, air change rates were calculated using the CO 2 decay method, as the tracer gas SF 6 was realeased in the source room.To assess the infection risk of diseases, an index, infection probability P, is calculated using the WellseRiley model [4] . The WellseRiley model is proposed based on the hypothesis of the quantum of infection, which is the number of infectious pathogens required to infect people, and developed by considering the inhaled dose of pathogens. It has been extensively applied for infection risk assessment, especially for airborne transmission infectious diseases [37, 38] . The WellseRiley equation was shown as follows: Fig. 4 . Wind frequency during the test periods for two scenarios. where, q is the quanta generation rate, which is the infectious source strength term considering both the emission rate and the infectivity of the pathogen [39] . I is the number of infectors, p is the pulmonary ventilation rate of a person, t is the exposure time, Q is the air flow rate, V is the room volume. To predict the infection risk of a specific disease, the values of quanta generation rate q, pulmonary ventilation rate p and exposure time t could be obtained epidemiologically from an outbreak case with known attack rate. In the present study, these parameters are set same with our previous study about the vertical dispersion [22] for the comparison between two transmission routes. Where, infector number in the index room is 1, the quanta generation rate is 13 quanta per hour (q ¼ 13), the pulmonary ventilation rate of a person is 0.6 m 3 /h (p ¼ 0.6), and the exposure time is 8 h (t ¼ 8). To predict the infection risk in the index room using Equation (3), the air change rate Q/V found from on-site measurements is also required. It should be noticed that since the air change rate used was the equivalent value which was obtained under the steady airflow assumption, the peak risk under the worst condition may be underestimated. Besides, the calculated infection risks here are relative values rather than absolute risks. For the receptor rooms, it is the pathogens originating from the index room that could cause illness. To assess the cross-infection risks in receptor rooms, the quanta concentration in the receptor units should be ÀIqMV Q rather than ÀIqV Q . Where, the mass fraction M iÀj , was defined as the fraction of air in the point j that stems from the point i, which was obtained directly using the equilibrium tracer gas concentrations as follows:In the present study, M 1-4 and M 1-6 were calculated to reflect the tracer gas transmission level from the index room to two receptor rooms, respectively. With the mass fraction M and air change rate of the index room Q/V obtained from the on-site monitoring, the cross-infection risks of receptor rooms could be calculated with the equation as follows:
-Tracer gas dispersion characteristics and incoming wind condition
-The monitored SF 6 concentrations and incoming wind of several test days are shown in Fig. 7 and Fig. 8 . The SF 6 concentrations of 6 sampling points are presented in logarithmic scale. The locations of the points were illustrated in Fig. 3 . The wind speeds are reported as vector components, in which Uþ is in east direction, Vþ is north and Wþ is upward.For both closed window and open window scenarios, the SF 6 concentrations in receptor rooms are about one order lower than that in the index room. For the Close mode, the SF 6 concentrations decrease gradually, from P-1 to P-6. It is to say, the transmission route of the tracer gas from the index room to receptor rooms is across the internal window leakage and the corridor. Along the routes, Point 1-2-3-4, and Point 1-2-5-6, tracer gas dilutes, especially while passing through the corridor. Comparing the tracer gas concentrations at two sampling points in a same room, it can be observed that points in the window cracks have more fluctuant concentrations than the points in the room centers. This may have been caused by the frequent switch of airflow directions through the cracks. Besides, the SF 6 concentrations at P-3 and P-4 in the closer receptor room A are higher than those at P-5 and P-6 in the farther receptor room B. With the increase of the distance between the sampling point and dosing point, the concentration decreases. However, for the Open mode, SF 6 concentrations in the two receptor rooms are almost the same. It indicates that as the windows are open, the tracer gas was well mixed to the same concentration level in the corridor, at least in the region near the two receptor rooms.The influence of the wind condition on the tracer gas transmission could be recognized especially for the Close mode. From the profiles of 27 March (Fig. 7) , it can be seen that SF 6 concentrations in the receptor rooms during the period of 15:30e16:30 were relatively lower than other periods due to the negative U component of wind speed. Besides, the remarkable variations of tracer gas concentrations in receptor rooms during 14:00e15:30 were also consistent with the fluctuations of U wind component. Moreover, the fluctuations of the SF 6 concentration in the receptor rooms on 27 March were much more drastic than other days, which may be attributed to the frequent shift of wind directions observed on that day. For the Open mode, the wind fluctuation induced concentrations variations were much weaker except at P-2, the sampling point in the window crack of the index room. However, the concentration fluctuations seem not as tied to the fluctuations of the incoming wind. With the irregular fluctuation of the incoming wind condition, the effective tracer gas transmission is extremely complicated, which will be further explored separately.The mean SF 6 concentration at each sampling point on each test day was calculated for both scenarios. The statistic results for the whole monitoring period are shown in Fig. 9 . The box ranges from 25th to 75th percentiles with a line in the box reflects 50 th percentiles of a data group. Inside the box, the small square symbol "," indicates the mean value of the data group. And the cross symbols "Â" at the top and bottom of the whisker show the maximum and minimum values, respectively. It can be observed that tracer gas concentration levels in the receptor rooms are one order lower than that in the index room for both closed and open window mode. The mean SF 6 concentrations in the index room are 337 mg/m 3 and 208 mg/m 3 , respectively for the closed window and open window conditions. The former one is much higher. For the Close mode, the mean SF 6 concentrations in the two receptor rooms are different, with values of 36 mg/m 3 for the closer one and 23 mg/ m 3 for the furthur one, respectively, while for the Open mode they are the same with the mean value of around 28 mg/m 3 . Besides, the longer whiskers of the box charts for the Close mode indicates that the tracer gas concentration levels are more variable. For both conditions, the tracer gas concentrations at the two sampling points in the same receptor room are fairly close, though concentrations at the window cracks fluctuate more drastically than those in the room centers. It indicates that tracer gas in the two receptor rooms tend to be well-mixed.
-Cross-infection risk assessment
-With the monitored SF 6 and CO 2 concentration data, the air change rate, mass fraction and relative infection risk of each test day were calculated using the data analysis method introduced above. The statistic results for the whole monitoring period are shown in box charts in Fig. 10, Fig. 11 and Fig. 12 . It can be seen that air change rate per hour (ACH) for the Open mode is significantly higher than that at the Close mode. Specifically, the mean ACH of the index room was below 3 at the Close mode, while it was 5 at the Open mode. It should be noted that 3 ACH under the closed window condition is still much higher than the recommended value of air leakage under 0.7e0.8 ACH for energy saving on the ASHRAE handbook. As a main factor that affects the infection risk, the higher ACH of the index room could effectively reduce the pathogen concentration in the index room and accordingly reduce the risk of infection.Mass fraction is an important index that reflects the airborne transmission level. M 1-4 means mass fraction of air originating from P-1 in the index room and present at P-4 in the receptor room A. And M 1-6 is the mass fraction of air spreading from P-1 to P-6. For the Close mode the mass fractions in two receptor rooms are different, and for the Open mode they are almost the same. The mass fractions at the Open mode are higher than those at the Closed mode. The mean values of M 1-4 and M 1-6 are 0.11 and 0.07 when windows are closed. While they both rose to 0.15 as windows are open. The maximum value of mass fraction for the Open mode is 0.28, which is a little higher than the Close mode. That is to say, as the windows are open, more air from the index room flows into receptor units. However, subject to the relatively higher airflow rate as the windows were open, the tracer gas in the index room is more diluted and has lower concentration. Therefore, higher mass fraction not necessarily results in higher infection risk. While the crosshousehold infection risk is concerned, both the mass fraction between the rooms and the pathogen concentration in the source room should to be considered, using Equation (7).The estimated infection risks are shown in Fig. 12 , it can be seen that in the index room, there is no doubt that opening the window could effectively reduce the risk of infection. For the Closed mode the maximum and mean infection risk of the index room are 0.33 and 0.29, while for the Open mode they are just 0.21 and 0.18. The infection risk in the index room is lower by one-third at the open window conditions. The mean infection risks in receptor rooms are one order lower than that in the index room. The mean crossinfection risks of the two receptor rooms are 0.04 and 0.02 for the Close mode, and 0.03 for the Open mode. The mean crossinfection risk levels are similar for both open window and closed window conditions, which indicates that opening windows did not effectively reduce the infection risks in the receptor room, since it increased the mass fraction and reduced the tracer gas concentration in the index unit at the same time. But, for the Closed mode, the maximum risk in the room R1308 is 0.09, while it is just 0.05 for the Open mode. It is to say, the maximum risk levels for the closed window mode is higher than the open window mode. It should be noted that the corridor in the present measurement has openings on both ends, which increases the airflow and helps to dilute the tracer gas spilled from the index room. In residential buildings with a sealed corridor space, the horizontal cross-infection risk could be higher.The correlations of the three index, air change rate, mass fraction and infection risk, were summarized in Fig. 13, Fig. 14 [21, 22] , in which the maximum value of infection probability is 6.6% and the maximum mass fraction is below 0.09, the cross-infection risk via the internal horizontal spread route induced by air leakage in the present study is higher with a maximum infection risk of 9% and maximum mass fraction of 0.28. It should be noted that in all above studies, tracer gas was used to explore possible airborne transmission route. Tracer gas could pass through cracks on building envelopes without absorption, but particles may not [40] . Particles of 0.02e7 mm could completely penetrate through building envelopes when the cracks are larger than 1 mm and the pressure difference are higher than 4 Pa [41] . But under the experimental conditions of Tung et al.'s study, 15e30% of particle in the size range of 0.43e10 mm could be trapped by the building shell [42] . Besides, the particle deposition onto indoor surfaces can also limit the spread [43] . Therefore, the crosscontaminate risk in the present study may be over-estimated.
-Conclusions
-On-site measurement was carried out to explore possible airborne transmission route in a slab-type building. The tracer gas concentrations in three horizontal adjacent flats were monitored. The mean daily air change rates were obtained by both SF 6 constant release and CO 2 decay methods, and the inter-household air transmission was quantified using the mass fraction index. The relative risks of infection were assessed using WellseRiley model. It is found that, the internal spread route between horizontal adjacent flats induced by air infiltration could be verified. The tracer gas concentrations in the receptor rooms are one order lower than that in the index room, and the relative risks are also one order lower in terms the infection probability. In general, with the open external windows, larger air change rate would reduce the airborne infection risks within the infector room. While opening external windows does not significantly reduce the cross infection risks in the receptor units. This is because there is a simultaneous increase of the mass fraction together with the dilution of the pathogens in the infector room. It should be cautioned that this conclusion is based upon the specific wind conditions during the late spring and early summer season in Hong Kong, and specific building configuration investigated. The cross-infection risk through this air infiltration induced spread route could be up to 9%, which is higher than the risk of 6.6% occurred via the vertical spread route through the single-sided open windows. Also the risk assessment is done using the WellseRiley model, which was originally developed for wellmixed single space condition. With infiltration flow through window and door gaps, the aerosol state pathogens may deposit with a significant portion, therefore the risk probability would be lower, but on the other hand, the exposure time is assumed to be 8 h, which can vary quite widely in the residential environment. 
-</t>
-        </is>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/media/papers_test.xlsx
+++ b/media/papers_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alex\code\Glonnet\Sci_papers\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alex\code\Glonnet\Sci_papers_front\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4601F7-125A-4E9C-AF8B-353FC09880C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5538EB0C-4002-44D8-946B-A7E78437844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>paper_id</t>
   </si>
@@ -129,91 +129,6 @@
 </t>
   </si>
   <si>
-    <t>2f4a93836cdcfc4cda4b4c309ef0350e3734f018</t>
-  </si>
-  <si>
-    <t>Supplementary Material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study design
-In this dual-center observational cohort study, we included 30 patients on hemodialysis and 18 healthy controls between February 2021 and May 2021 at the Division of Nephrology of the University Hospital of Heidelberg and at the associated Kidney Center Heidelberg.Vaccination was performed twice in all 48 individuals at week 0 and 3. To exclude individuals with prior SARS-CoV-2 infection or infection during follow-up, we measured antibodies to the nucleocapsid protein before enrollment and after the first and the second vaccination.The anti-spike(S) 1 IgG index and SARS-CoV-2 specific neutralizing antibodies detected by a surrogate virus neutralization assay (sVNT) were measured 3 weeks after the second vaccination. In all individuals with detectable seroconversion, neutralization of B.1.1.7 and the variant of concern (VOC) B.1.351 was investigated in titration experiments on VeroE6 cells as previously described by us (S1). Seroconversion was defined as detectable anti-S1antibodies and &gt;30% inhibition activity in the sVNT.The study was approved by the ethics committee of the University of Heidelberg and conducted in accordance with the Declaration of Helsinki. Written informed consent was obtained from all study participants.
-Anti-SARS-CoV-2 IgG assay
-The IgG response against the S1 protein was measured by the SARS-CoV-2 IgG Assay (Siemens, Eschborn, Germany) and the antibody response against the nucleocapsid protein by the Elecsys Anti-SARS-CoV-2 assay (Roche, Mannheim, Germany) according to the manufacturer's instructions. A semi-quantitative index of &lt; 1 was defined as negative, and a value of ≥ 1 as positive. This cutoff for detection gives a specificity of 99.9% with a sensitivity of 96.4%.
-Surrogate virus neutralization assay
-The binding-inhibition potency of serum samples was detected by a plate-based SARS-CoV-2 surrogate virus neutralizing assay (Medac, Wedel, Germany). This assay mimics the spike protein -angiotensin converting enzyme 2 (ACE2) interaction by direct protein-protein interaction using purified receptor-binding domain protein from the viral spike protein and the host cell receptor ACE2. The serum samples were incubated with SARS-CoV-2 receptorbinding domain horse-radish peroxidase and added to ACE2 coated wells. The reactions were developed using 3,3',5,5'-tetramethylbenzidine as substrate. Optical density at 450 nm was measured in each well and the percent (%) inhibition was calculated as follows:A cut-off for viral neutralization of ≥ 30% inhibition of receptor-binding domain -ACE-2 binding was applied according to the manufacturer's instructions. The assay has a specificity of 100% with a sensitivity of 98%.
-Cells and viruses
-Cultivation of VeroE6 cells and production of SARS-CoV-2 stocks have been reported recently (S2) . In brief, SARS-CoV-2 variants were isolated from nasopharyngeal and oropharyngeal 
-Antibody neutralization tests
-Neutralization titers were determined in titration experiments on VeroE6 cells as described previously (S1). Briefly, two-fold serial dilutions of vaccine sera were incubated with SARS- 
-</t>
-  </si>
-  <si>
-    <t>4f96860d266e1ade66315e8150cadd3d86a68734</t>
-  </si>
-  <si>
-    <t>A Sanger-based approach for scaling up screening of SARS-CoV-2 variants of interest and Running title: Identification of SARS CoV-2 variants with Sanger sequencing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract
-The global spread of new SARS-CoV-2 variants of concern underscore an urgent need of 20 simple deployed molecular tools that can differentiate these lineages. Several tools and protocols 21 have been shared since the beginning of the COVID-19 pandemic, but they need to be timely 22
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-sequencing of a single PCR fragment that is able to identify and discriminate all SARS-CoV-2 28 variants of concern (VOCs) identified so far, according to each characteristic mutational profile 29 at the Spike-RBD region (K417N/T, E484K, N501Y, A570D). Twelve COVID-19 samples from 30 Brazilian patients were evaluated for both WGS and Sanger sequencing: three from P.2, two 31 from P.1 and seven from B.1.1 lineage. All results from the Sanger sequencing method perfectly 32 matched the mutational profile of VOCs and non-VOCs described by WGS. In summary, this 33 approach allows a much broader network of laboratories to perform molecular surveillance of 34 SARS-CoV-2 VOCs and report results within a shorter time frame, which is of utmost 35 importance in the context of rapid public health decisions in a fast evolving worldwide 36 pandemic.
-37
-Keywords: SARS-CoV-2 variants of concern; Sanger sequencing; molecular surveillance. (which was not certified by peer review) is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity. (which was not certified by peer review) is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity. 
-73
-In order to access whether the amplicon used in this study is able to cover key SARS- (which was not certified by peer review) is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity. Samples were assigned to a lineage according to the mutational profile (Table 1) .
-99
-According to the WGS, from the twelve COVID-19 samples evaluated, seven were from (Table 1) .
-104
-Within the sequencing of a single 725 base pairs PCR fragment (Figure 1 ), this approach 105 could successfully detect VOC-associated mutations and correctly classify samples according to (which was not certified by peer review) is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity. need of one specific probe or primer for each mutation to be evaluated and previous knowledge 110 of the circulating mutations (10). Furthermore, high-quality electropherograms were obtained 111 without a PCR purification step, reducing costs and time of sample processing, which is 112 particularly useful for large-scale application of the method. Another advantage of this approach 113 is that primers can be easily adjusted without major protocol modifications, in case newly 114 described mutations need to be detected. On the other hand, it is important to highlight that 115 Sanger sequencing is normally more time consuming than allelic-specific RT-PCR and hence 116 with a comparative reduced scaling capacity, but it brings some advantages such as more genetic 117 data that helps to tease apart different VOCs and the possibility of detecting new emerging RBD 118 mutations.
-119
-It is important to highlight that this approach does not substitute WGS and other PCR-120 based assays and could be used in combination to further validate the VOCs results mainly with 121 WGS to uncover other important mutation at the SAR-CoV-2 genome, but it will allows a much 
-</t>
-  </si>
-  <si>
-    <t>03d0006b73b74eb7b3343cd4b79741ae010d73ab</t>
-  </si>
-  <si>
-    <t>Journal Pre-proof Can we use noninvasive respiratory therapies in COVID-19 pandemic?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-To the editor:It is well known that non-invasive respiratory therapies (NITs) have transformed the management of patients with acute respiratory failure of various causes. Techniques such as non-invasive mechanical ventilation, continuous positive airway pressure through a nasal mask, or more recently, high-flow therapy have shown to be effective in reducing the rate of intubation and mortality in patients with hypoxemic and hypercapnic failure, in the absence of intubation criteria. NITs allow an early start of treatment, combine different techniques of ventilatory support, improve patient tolerance and well-being, save time for medical treatment to take effect and, ultimately, decrease the need for intubation and admission to intensive care. In addition, they allow J o u r n a l P r e -p r o o f the continuity of treatment in those patients who are discharged from these units and persist with respiratory failure in the ward 1 .The COVID-19 pandemic has called into question the therapeutic potential of NITs, by giving greater emphasis to the risk of pathogenic agent spread which, on the other hand, is a problem that has been known for years 2 . Based on this, NITs have been considered high risk procedures in COVID-19 and there is a school of thought recommending not to use them 3 . The technical document on the clinical management of patients with COVID-19 disease, published by the Spanish Ministry of Health on 3rd March 2020, recommended that they should be avoided.The application of these criteria has the risk of posing a therapeutic dilemma where clinicians have to choose between administering invasive ventilatory support or giving conventional oxygen therapy to a patient. Patients may not receive adequate treatment until it is time to be intubated and connected to invasive mechanical ventilation, missing the opportunity for non-invasive treatment, and increasing the risk of complications and clinical deterioration. On the other hand, there are patients discharged from critical care units still in need of respiratory support, who are deprived of non-invasive therapies in the hospital ward. Furthermore, TNIs are the only option in those patients with orders not to intubate and in circumstances in which there is no possibility of admission to critical care units due to overcrowding. Given the risk of pathogen spread, many of these patients are being deprived of NITs.TNIs have been widely used to treat patients with COVID-19 in China and have been shown to reduce intubation in patients with severe acute respiratory failure 4 . A panel of experts from 12 countries has recently published some guidelines that support the use of these therapies in COVID-19 5 . The available data tells us that TNIs should not be avoided, but rather applied in strict compliance with 3 requirements: 1) Do not delay intubation when necessary; 2) intensify protective measures, using the appropriate personal protection equipment and minimizing the aerosolization of particles by means of a specific assembly of masks and ventilation circuits; and 3) closely monitor these patients. We cannot afford to do without TNIs in the COVID-19 pandemic.Conflicto de intereses: Los autores declaran no tener conflicto de intereses relacionados con el contenido de esta publicación.J o u r n a l P r e -p r o o f
-</t>
-  </si>
-  <si>
-    <t>eb3e31f801ca4e47b050b147c5ed989693325064</t>
-  </si>
-  <si>
-    <t>Author's Reply: Aerosol Box, an Operating Room Security Measure in COVID-19 Pandemic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear Editor,
-We read with interest the letter by Dhwani et al., and we would like to thank the authors for their comments.The concept of the ''Aerosol Box'' (AB) was elucidated as a protective measure that provides an additional barrier to airborne particles expelled during high-risk aerosolization procedures. New limitations of the AB's ergonomics have emerged with the progression of the current pandemic, which are mainly related to physician maneuverability. In response to these difficulties, adaptations to the original AB model have been proposed [1] , including the concept of a plastic sheet covering a rigid frame, as well as an additional negative airflow that provides constant suction [2] . Furthermore, there is the possibility of adapting this enclosure concept to laparoscopic procedures in order to restart minimally invasive operations.We recognize the need to improve the ergonomics of the AB. It is undeniable that its rigid design restricts movements that translate to a limited range of motion and increased procedural time. This is especially true when the physician is not familiarized with the gear, thus leading to compromise after use, such as in cleaning and carrying, but more importantly, patient wellbeing.The design of Cubillos et al. [2] provides a more flexible structure and broader airborne particle management with the use of negative pressure by suction, in addition to low cost and disposable properties. We believe that these adaptations are promising in addressing these difficulties and have better outcomes during aerosolization procedures.Although laparoscopic surgery is theoretically a highrisk aerosol exposure, the magnitude of this risk remains in doubt [3] . Adding an extra barrier in this particular setting could represent a challenge that can potentially further compromise patient safety and procedural quality, as it requires exterior manipulation to operate precisely through small abdominal wall incisions and perform precise maneuvers inside the cavity. We believe this is not the best alternative to safely restart these interventions.To acquire the benefits of minimally invasive procedures, such as reduced length of stay and lower complication rates (which are vital in these times), we encourage users to abide by the following recommendations: making trocar incisions as sufficiently small as possible to insert the ports; using the minimum required pneumoperitoneum; and evacuating CO 2 through active or passive filtration systems before specimen extraction, trocar removal, wound closure, and conversion to open surgery [4] .The current pandemic requires immediate solutions to overcome the continuing challenges that surgical personnel face. Although limited evidence has addressed the capacity of the AB to provide aerosol protection, we felt that the concept of a new and extra barrier in addition to established protocols might be a reasonable precaution measure to decrease aerosol spread in the operating room during aerosolization procedures. New adaptations to this concept are required and should take into account the wellbeing of patients and medical personnel, as well as particle contingency, ergonomics, low costs, and replicable properties. There is a necessity for healthcare workforce to protect themselves with what is available against infection from &amp; Eduardo Leyva-Moraga leyvamoragaeduardo@gmail.com
-</t>
-  </si>
-  <si>
-    <t>0f9b30bb927267ef766ec3b7b8fc0bd7dbd3eb84</t>
-  </si>
-  <si>
-    <t>News-Screen Rheumatologie Raimund Lunzer News-Screen Rheumatologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract
-Zusammenfassung Gemäß den Empfehlungen für die Diagnose einer rheumatoiden Arthritis ist eine "Arthritis" obligatorisch. Was ist aber zu tun bei Arthralgien und Nachweis einer subklinischen Arthritis in bildgebenden Verfahren? Analysiert wurden Daten von drei unabhängigen niederländischen Kohorten mit Arthralgie-Patienten mit einer Nachbeobachtungszeit von ≥1 Jahr. Der Nachweis der subklinischen Synovitis in den Händen oder Füßen von Arthralgie-Patienten wurde entweder mittels Sonographie (Definition: Graustufen ≥2 und/oder Power-Doppler ≥1) oder MRT (Definition: Synovitis-Score ≥1 von zwei Radiologen) erbracht. Die Patienten wurden ein Jahr lang beobachtet, auch in Anbetracht relevanter Laborparameter wie z. B. ACPA.Eine subklinische Synovitis war zu Beginn in 36 %, 41 % und 31 % in den drei Kohorten vorhanden. Von den ACPApositiven Arthralgie-Patienten mit subklinischer Synovitis entwickelten 54 %, 44 % bzw. 68 % keine RA. Diese Prozentsätze waren bei den ACPA-negativen Arthralgie-Patienten sogar noch höher: 66 %, 85 % bzw. 89 %. Auch eine Analyse nach 3 Jahren zeigte ähnliche Ergebnisse.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kommentar
-Das Ersetzen der klinischen Arthritis durch eine diagnostische subklinische Synovitis zur Identifizierung von RA führt zu einer hohen Rate falsch-positiver Die höchste kumulative GC-Exposition von ≥8,4 g war mit einem deutlich höheren Risiko der Endpunkte assoziiert, Todesfälle 24,3 %, CVD 7,9 % und schwerer Infektionen 10 %.Weitere Risikofaktoren waren im Zeitverlauf signifikant erhöht: Alter, Bluthochdruck und BSG. Das mit der GC-Behandlung verbundene Risiko stieg zwischen dem ersten Jahr Hazard-Ratio ( HR) von 0,46 nach zehn Jahren auf ( HR) 6,83.Die Zehnjahresdaten dieser prospektiven RA-Kohorte weisen zwar ein geringes Risiko der niedrigen Glucocorticoidtherapie auf, aber es ist durchaus noch vorhanden. Diese Analysen zeigen aber erneut die Auswirkungen höherer GC-Dosen und die sind beträchtlich. Die Kontrolle der entzündlichen Aktivität kann längerfristig also nur ohne Glucocorticoide zu gewährleisten sein.Somit ist die Aussage von F. Buttgereit zu den Glucocorticoiden weiterhin gültig: "So viel wie nötig, so wenig wie möglich!" IL-17 Inhibitoren -besser als "2." Biologikum? Keine Frage, Ixekizumab wirkt auch bei TNF-alfa-Versagen sehr gut. Diese Studiendaten sind in diesem Fall aber auch anders zu sehen, insbesondere wenn der finanzielle Hintergrund eine Rolle spielen sollte bzw. Erstattungsrichtlinien erstellt werden. Ixekizumab wirkt auch als zweites Biologikum sehr gut und muss somit nicht zwingend als erstes eingesetzt werden. Die Rate positiver ANA hat sich in den letzten 20-30 Jahren fast verdoppelt. Der erste Reflex, dass die Zunahme von ANA durch den vermehrten Einsatz von modernen Tests von oder durch sensi-tivere Nachweismethoden bedingt sei, wird von den Autoren widerlegt. Eine Zunahme von ANA im Alter ist zwar bekannt, die Zunahme über die letzten Jahrzehnte wiesen aber vor allem Jüngere zwischen 12 und 19 Jahren auf. Dann wird auch die Zunahme der Autoimmunthyreopathie Typ Hashimoto angeführt, sowie auch die Tatsache, dass dem alleinigen Nachweis von ANA keine allzu große Bedeutung beigemessen werden soll. 
-Zusammenfassung
-Wie häufig ANA in der Routinediagnostik sind und wie sich deren Prävalenz in den letzten Jahrzehnten entwickelt hat, wurde untersucht. ANA wurden durch indirekte Immunfluoreszenz auf HEp-2-Zellen semiautomatisch bei 14.211 Teilnehmern des "National Health and Nutrition Examination Survey" bestimmt. In dieser Bevölkerungsgruppe werden seit den 1970er-Jahren Gesundheitsstatus und Ernährungszustand von Erwachsenen und Kindern ab 12 Jahren in den USA erhoben und Änderungen über die Zeit dokumentiert. In der Analyse zur Prävalenz von ANA stammte jeweils etwa ein Drittel aus den drei unterschiedlich langen Zeiträumen 1988 Zeiträumen -1991 Zeiträumen , 1999 Zeiträumen -2004 Zeiträumen und 2011 Zeiträumen -2012 . ANA wurden auch hier ab einem Titer von 1:80 als positiv gewertet und dann weiter bis max. 1:1.280 verdünnt. Die ANA-Prävalenz betrug 11,0 % in den Jahren 1988 -1991 , 11,5 % in den Jahren 1999 -2004 und 15,9 % in den Jahren 2011 -2012 . Unter Jugendlichen im Alter von 12-19 Jahren stieg die ANA-Prävalenz deutlich an mit einer Odds Ratio ( OR) von 2,02 und 2,88, in der zweiten und dritten Zeitperiode relativ zur ersten (p &lt; 0,0001). Die ANA-Prävalenz stieg bei beiden Geschlechtern (insbesondere bei Männern), älteren Erwachsenen (Alter ab 50 Jahre) und nicht-hispanischen Weißen an. Diese Anstiege waren auch nicht durch gleichzeitige Änderungen bei Gewicht (Zunahme), Rauchen (Abnahme) oder Alkoholkonsum (Zunahme) in diesen Zeiträumen zu erklären.
-</t>
-  </si>
-  <si>
     <t>0f1fd39cc9db51f98124a1a2646474c7f00c55d5</t>
   </si>
   <si>
@@ -241,6 +156,191 @@
 The data that support the findings of this study are available from the corresponding author upon reasonable request.
 Marco Vanoni
 http://orcid.org/0000-0002-8690-2587
+</t>
+  </si>
+  <si>
+    <t>2a6e6e09871c66741228e020ba0354978d2306e3</t>
+  </si>
+  <si>
+    <t>Science and pseudoscience during the COVID-19 pandemic COVID-19 pandemisi sırasında bilim ve yalancı bilim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+Since the emergence of humankind on the stage of history, activities occurring in parallel with the process of the fight between human and nature, humanization of nature and uncovering of the mystery of nature, have been examined under the title of science. Communication and confrontation of humanity with science started with the discovery of fire, and extended up to the present amazing technological and scientific advancements. The aim of scientific disciplines emerging with the efforts of scientists, who are engaged in science, is to reach the truth, find the truth, and change and humanize current life. The starting point in the search of scientific truth is the hypothesis proposed, and the specificity that is found and hidden in this hypothesis. The scientist primarily produces a specific hypothesis related to the research subject, and subsequently makes an all-out effort to prove, and at the same time, to disprove this hypothesis with utmost strength and honesty. The hypothesis produced, springs from inside of life. The problem for which an answer is searched is inside life itself, and its solution will facilitate the life of humanity. Only when the hypothesis is successfully proven or disproven, the scientific truth is reached. Trying to disprove one's own data or ideas requires extraordinary honesty. This honesty also requires an extraordinary commitment to ethical rules, which have been established in years with humanity's experiences (1, 2).Scientists do not owe anybody. Developed, humanized, cultured, and transformed humans owe only humanity. Therefore, each practice performed should have a humanitarian meaning, and this rule should never be forgotten while conducting scientific studies. All studies in positive sciences should involve factuality, internal and external consistency, criticism and self-criticism, universality, prediction, social necessity and belief in utopia, and these should create a source of inspiration. All these are regulated by scientific and ethical rules that have been established over centuries (1, 2).The preparation stages of a scientific design involve a considerably long process. The researchers involved in this process should ask themselves many different questions and go through many phases. In each stage, the most important foundation of researchers should be the scientific and ethical rules established priorily based on humanity's experiences. These stages can be listed as follows: Primarily, it is obligatory to ask a specific scientific and logical question. Afterwards, preliminary investigations related to the subject should be conducted, and relevant medical literature should be screened. After completion of this screening, hypotheses and predictions related to the subject should be specified. Before specifying hypotheses and predictions, all present resources and documents related to the subject that can be reached should be read carefully. Subsequently, the stages such as finding necessary monetary resources and obtaining approvals, conducting experiments, collecting data, evaluating data and making conclusions, and demonstrating validity inside life, should be performed respectively. The important points in a scientific study include searching for the truth, providing evidence, proving trueness, and being unbiased and objective (1, 2).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Since the emergence of humankind on the stage of history, activities occurring in parallel with the process of the fight between human and nature, humanization of nature and uncovering of the mystery of nature, have been examined under the title of science. Communication and confrontation of humanity with science started with the discovery of fire, and extended up to the present amazing technological and scientific advancements. The aim of scientific disciplines emerging with the efforts of scientists, who are engaged in science, is to reach the truth, find the truth, and change and humanize current life. The starting point in the search of scientific truth is the hypothesis proposed, and the specificity that is found and hidden in this hypothesis. The scientist primarily produces a specific hypothesis related to the research subject, and subsequently makes an all-out effort to prove, and at the same time, to disprove this hypothesis with utmost strength and honesty. The hypothesis produced, springs from inside of life. The problem for which an answer is searched is inside life itself, and its solution will facilitate the life of humanity. Only when the hypothesis is successfully proven or disproven, the scientific truth is reached. Trying to disprove one's own data or ideas requires extraordinary honesty. This honesty also requires an extraordinary commitment to ethical rules, which have been established in years with humanity's experiences (1, 2).Scientists do not owe anybody. Developed, humanized, cultured, and transformed humans owe only humanity. Therefore, each practice performed should have a humanitarian meaning, and this rule should never be forgotten while conducting scientific studies. All studies in positive sciences should involve factuality, internal and external consistency, criticism and self-criticism, universality, prediction, social necessity and belief in utopia, and these should create a source of inspiration. All these are regulated by scientific and ethical rules that have been established over centuries (1, 2) .The preparation stages of a scientific design involve a considerably long process. The researchers involved in this process should ask themselves many different questions and go through many phases. In each stage, the most important foundation of researchers should be the scientific and ethical rules established priorily based on humanity's experiences. These stages can be listed as follows: Primarily, it is obligatory to ask a specific scientific and logical question. Afterwards, preliminary investigations related to the subject should be conducted, and relevant medical literature should be screened. After completion of this screening, hypotheses and predictions related to the subject should be specified. Before specifying hypotheses and predictions, all present resources and documents related to the subject that can be reached should be read carefully. Subsequently, the stages such as finding necessary monetary resources and obtaining approvals, conducting experiments, collecting data, evaluating data and making conclusions, and demonstrating validity inside life, should be performed respectively. The important points in a scientific study include searching for the truth, providing evidence, proving trueness, and being unbiased and objective (1, 2).One of the most important disciplines, which reveals and actualizes science and scientific data in detail, is MEDICINE (1, 2). We have recently been confronted by the most important evidence that has proven this proposal. In December 2019, humanity faced a very important danger that threatened itself and its future. This danger was the COVID-19 infection as we all know. It was not known what COVID-19 was, how this infection proceeded, and how it could be prevented and treated (2, 3) . Humanity was in a great fright and anxiety. Many mysteries of this infection were resolved with studies that were conducted at an unprecedented pace. We will even resolve the issue of prevention with preventive vaccines, which will be on the market in 1-2 months (2, 3). In the meantime, however, we have faced a very important problem in terms of reliability of science and scientific data, and commitment to ethical rules. This problem was the data presented by pseudoscience against science (4) (5) (6) (7) (8) . In particular, various studies conducted without abiding by scientific research ethics committees had to be withdrawn. At this point, the scientific setting was attempted to be misguided, especially with data that were produced based on pseudoscience. The efficiency of the scientific world was attempted to be reduced. The evidence levels of the relevant studies were not sufficient (4) (5) (6) (7) (8) . These studies included excessive discordant and distorted data. One of the most important problems was the fact that researchers who had expertise other than the relevant area of expertise, were added to these studies. For example, one of the largest treatment studies was conducted by a cardiovascular surgeon. After a while, the deficits in this study, which was published in a very important journal, were revealed, and the study was withdrawn (9) . Many pseudoscience products were revealed and withdrawn from the scientific world due to the very high sensitivity of true scientists (4). I think this fight between science and pseudoscience will never end, but the existence of true science will persist for centuries as one of the greatest foundations of humanity.In conclusion, humanity's efforts to reach the truth and find true information, which has continued for centuries, will persist with an increasing speed by way of medical studies conducted with a steady commitment to scientific, ethical and universal rules, and probably, the process of humanization rather than extinction of nature will be completed.
+</t>
+  </si>
+  <si>
+    <t>cc216ea6dac169d8e1791d5420cc9965350ad694</t>
+  </si>
+  <si>
+    <t>Case Report Exuberant Intratracheal Granuloma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+Background. Upper airway granulomas are commonly encountered benign masses and are a result of pronounced tissue reactivity to localized respiratory mucosal trauma. e mechanism of injury to respiratory epithelium is most commonly iatrogenic and associated with intubation or indwelling tracheostomy. Case Report. A 40-year-old obese female with a history of multiple intubations, poorly controlled diabetes mellitus type II, and history of tracheal stenosis presented with sudden onset respiratory distress requiring intubation at an outside hospital. Direct laryngoscopy revealed a rapidly forming transglottic tissue mass, measuring 5.0 × 2.2 × 0.8 cm. e following case represents an unusual exception to our experience with granulomas given its rapidity of onset and migration of tissue around the endotracheal tube. Discussion. Laryngeal erythema and granulation formation are expected postintubation findings in most patients; however, the large size of granuloma tissue and rapid onset of symptoms in this case make it remarkable. Our patient had multiple risk factors for postintubation stenosis: female sex, poorly controlled diabetes, hypertension, obesity, and multiple prior intubations for periods lasting longer than forty-eight hours. Conclusion. Our case highlights a rare laryngeal finding of a large granulation tissue mass causing sudden onset airway obstruction.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+Vocal process granulomas are benign lesions found in the posterior glottis [1, 2] . Rather than true granulomas, these collections of granulation or fibrotic tissue heaped beneath injured squamous epithelium represent a reactive or reparative process [2] . e most common causes include laryngopharyngeal reflux (LPR), vocal abuse, and intubation trauma [3] [4] [5] . Risk factors associated with the development of laryngeal granulomas after intubation include female sex, prolonged intubation, traumatic intubation, inappropriate tube size, high cuff pressures, and presence of a concurrent nasogastric tube. However, no single risk factor for progression to chronic granuloma has been consistently identified [3, 6, 7] . Some techniques put forward to reduce the occurrence including use of high volume and low-pressure cuffs and choosing appropriate tube size to minimize contact injury.ese lesions most commonly occur on the vocal process of the arytenoid cartilage, where the endotracheal tube exerts pressure. e vocal process is also vulnerable due to its thin mucoperichondrial covering and frequent, powerful impacts during vocal cord adduction [4] . In addition to granuloma formation, prolonged intubation is also the leading cause of tracheal stenosis. e most common site for postintubation tracheal stenosis occurs at the cuff site and is attributed to localized tissue ischemia secondary to pressure [8] . Postintubation tracheal stenosis recurs in some cases, but the rate of recurrence and need for intervention varies widely between patients.
+Case Description
+Our patient is a 40-year-old obese female with a complex medical history, including multiple cerebrovascular insults, goiter, and poorly controlled diabetes mellitus type II with a HbA1c of 9.8% and hypertension. To compound this, she had undergone multiple intubations, the longest of which lasted 5 days, and had previous tracheal stenosis requiring laser and balloon dilation only one month prior to presentation. She arrived at our institution for upper airway evaluation in the context of sudden onset respiratory distress requiring intubation at an outside hospital. Intraoperative laryngoscopy revealed a rapidly forming sessile transglottic tissue mass which not only filled the subglottic space superior to the cuff of the endotracheal tube but also began to "climb" up the sides of the tube itself ( Figure 1 ). e tissue appeared adherent to the tube but was easily peeled away with forceps. Bronchoscopy beyond the endotracheal tube cuff demonstrated a patent airway without involvement of the granuloma (Figure 2 ). Cup forceps were used to remove the transglottic mass, and carbon dioxide (CO 2 ) laser was used to further treat the tracheal stenosis. Balloon dilation was performed to 15 mm to re-establish patency, after which exposed cartilage was visible in the subglottic space. A tracheostomy was then performed given the unpredictable nature of the patient's airway. Final pathology demonstrated reactive tissue consistent with granuloma along with fibrinopurulent exudate and severe edema, measuring 5.0 × 2.2 × 0.8 cm in total (Figure 3 ). e patient had been lost to follow-up amidst the pandemic of coronavirus disease 2019 (COVID-19) and remains with tracheostomy tube with further treatment as anticipated.
+Discussion
+Our case represents an extraordinarily rapid growing and massive laryngeal granuloma. Of those who undergo endotracheal intubation, the majority will experience laryngeal erythema, mucosal ulceration, or granulation tissue [9] . However, for most patients, this will resolve within six weeks [6] . In one large case series of ninetyseven patients undergoing intubation longer than three days, forty-four developed a laryngeal granuloma and did so on in average within four weeks of extubation [6] . Despite an average of one month, development of granulomas in this cohort varied anywhere from two to ten weeks. Many smaller granulomas resolve on their own, often between eight to fourteen weeks postextubation, but larger granulomas often require surgical excision. e exuberant growth of our patient's granuloma may in part be due to female sex, previous prolonged intubations, and the exposed perichondrium visible in her trachea, but this is not a complete explanation of her unique reaction. While her granuloma was completely removed intraoperatively, her recurrence pattern has yet to be seen. Treatment of tracheal stenosis encompasses a wide and multidisciplinary array of options. ese range from minimally invasive balloon dilation, to laser or cold knife Case Reports in Otolaryngology widening, to tracheal resection and anastomosis. We chose to pursue carbon dioxide (CO 2 ) laser ablation with balloon dilation due to previous response to these modes and overall poor health which made more invasive techniques a higher risk. e use of anti-inflammatory drugs, steroids, antibiotics, zinc sulfate, acid suppressive therapy, and surgery has been studied for preventing and/ or treating laryngeal granuloma formation postextubation, but these methods have varying efficacy and no first-line treatment has been established [10] . A convergence of medical comorbidities including poor wound healing, chronic proinflammatory state, and iatrogenic manipulation of delicate mucosal sites may yield such a phenomenon.e considerable size of the granuloma tissue excised in this case and associated sudden onset of her symptoms make this case remarkable.
+Conclusion
+Our case highlights a rare laryngeal finding of a large granulation tissue mass causing sudden onset airway obstruction. A review of the literature identified that our patient had several documented risk factors for postintubation tracheal stenosis, but the large size of the granuloma and the short course in which it formed were complications that could not be foreseen. Most granulomas resolve on their own, but large ones often are indications for surgical intervention, as in this instance. We believe recognizing risk factors for postintubation tracheal stenosis early throughout a patients' treatment course may encourage more judicious observation helping to avoid unexpected airway compromise.
+Disclosure
+No funding was allocated for this manuscript as it was performed as part of the employment from the University of California San Diego Health Sciences, Department of Surgery, Division of Otolaryngology.
+Conflicts of Interest
+e authors declare that there are no conflicts of interest. 
+</t>
+  </si>
+  <si>
+    <t>00de7e43d12ce08306c79245e9b6ced401c1e4e4</t>
+  </si>
+  <si>
+    <t>Clinical Update in COVID-19 …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+Since the outbreak of COVID 19 , there has been extensive attempt from every sphere to come up with a suitable medicine for treatment purpose. However, till date there has been no single approved medicine for COVID 19 treatment [1] though several of them are in clinical trial and are showing promising result. Remdesivir is presently the frontrunners among the drug of choice for the treatment of COVID-19 as evidenced from clinical trials. However, there is no consolidated critical clinical summery on the activity and performance of Remdesivir in clinical settings. This article approaches a critical appreciation on the drug based on clinical evidences which is essential in present context. of suspect and laboratory confirmed COVID 19 case in adult and children hospitalized with severe disease [7] . The EPA allows Remdesivir to be distributed and administered intravenously by health care providers, as appropriate for the treatment of COVID-19. Based on the evaluation of EUA and clinical evidence available, considering the non-availability of any drug or treatment options for COVID-19, Remdesivir is assumed to be effective. The fact sheet provides detailed guidelines in this regard. EUA is provided to Gilead Sciences Inc. that simultaneously carries out clinical trials. 
+Probable mechanism against COVID19
+Remdesivir is a prodrug of an adenosine triphosphate (ATP) analog and its triphosphate form (RDV-TP) is known to inhibit the synthesis of viral RNA by delayed chain termination method [5] . A probable molecular mechanism is deciphered that the RDT-TP binds with RNA dependent RNA Polymerase [6] and forms complex with the viral RNA and ATP to inhibit RNA synthesis [9] . ▶Fig 2 summarizes the plausible mechanism of Remdesivir.
+Dosage and use
+The USFDA through EUA suggests the use of Remdesivir, administered through intravenous (IV) infusion to treat COVID 19. Though the optimal dose and duration of treatment remains unknown, their suggestion is depicted in ▶table 1 [10] .
+Other considerations and possible side effect
+It is advisable to use Remdesivir during pregnancy only if the potential benefit justifies the potential risk for the mother and the fetus. Since the pharmacokinetic analysis of Remdesivir is unavailable for patient with renal as well as hepatic imparement, its use is subject to potential risk and benefit consideration i. e. when the potential benefit outweighs the potential risk. Hepatic laboratory testing is compulsory during treatment [10] .Several infusions related reactions and symptoms including hypotension, nausea, vomiting, diaphoresis etc. are also reported in some case, that might require discontinuing the drug if clinically significant reaction takes place. Alanine aminotransferase (ALT) ▶Fig. 1 Chemical Structure of Remdesivir.▶Fig. 2 Plausible mechanism of action of Remdesivir against COVID19. elevation is also seen [10] . The most common adverse events were increased hepatic enzymes, diarrhea, rash, renal impairment, and hypotension. In general, adverse events were more common in patients receiving invasive ventilation [11] .The empirical non-clinical data of side-effect of Remdesivir is limited to mostly in-vitro observations. However, in-vivo pharmacological studies showed that Remdesivir may transiently increase respiratory rate while no significant effect on respiration or EKG have been recorded. Remdesivir is also negative in genotoxicity studies. No renal or hepatic abnormalities were attributed to Remdesivir usage [12] . No effect on CNS and cardiovascular function have been reported [13] . Considering these facts, Remdesivir is still not beyond question [14] and remains incompletely defined in human population [15] .
+Clinical research output
+The process of systemic review was followed (▶ Figure 3) Feb 2020, that has peaked up since the declaration of pandemic by WHO on 12 th March 2020. Analyzing the clinical trials from ▶table 2 it is evident that there is attempt to use Remdesivir alone or in combination with other drugs for the treatment of COVID 19. The non-availability of any suitable drug for the therapeutic purpose of COVID 19 as well as lack of information regarding safety issue of Remdesivir has promted its use only in hospital set-up and that too for critically ill patents. Data of adverse drug effect and long term use are expected only by the end of this year through several studies. Only a mere handful of publications are reported from the results of clinical trials (17, 18) while most of them are yet to be completed and still inconclusive. As a result, Remdesivir still remains as investigational drug, distant from USFDA approval.
+Scientific Publications
+There has been 660 Scientific publications found on the keyword 'Remdesivir; in pubmed.gov. out of which 636 are from the current year. However, a majority of them are review articles and meta-analysis while only 7 reflect results of clinical trials. The following ▶table 3 summarizes the clinical results reflected in research publication.
+Conclusion
+Remdesivir is presently a 'molecule of hope' to the world to stop the menace of COVID19. However, it has to cross stringent safety regulations and clinical trial to be out of question. It is to be remembered that Remdesivir is still not a USFDA approved drug and its efficacy against COVID 19 are initial result that requires subsequent validation and safety/ risk analysis studies for a longer duration to act as a full proof weapon against COVID 19. Careful monitoring of patient condition and parameters are warranted during Remdesivir administration. Scientific research should also look beyond this molecule to come up with better alternatives, which remains a challenge considering present situation. In this trial ethical and moral obligation of patients are evaluated in terms of effective treatment. The trial is a reproduction of Remdesivir and other drug usage to identify whether the drugs offer real time benefit to patients.[24]
+</t>
+  </si>
+  <si>
+    <t>505e0ab637ca61fdda77785b66eac89e63ccdb0a</t>
+  </si>
+  <si>
+    <t>Constraint 2021: Machine Learning Models for COVID-19 Fake News Detection Shared Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+In this system paper we present our contribution to the Constraint 2021 COVID-19 Fake News Detection Shared Task, which poses the challenge of classifying COVID-19 related social media posts as either fake or real. In our system, we address this challenge by applying classical machine learning algorithms together with several linguistic features, such as n-grams, readability, emotional tone and punctuation. In terms of pre-processing, we experiment with various steps like stop word removal, stemming/lemmatization, link removal and more. We find our best performing system to be based on a linear SVM, which obtains a weighted average F1 score of 95.19% on test data, which lands a place in the middle of the leaderboard (place 80 of 167).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+The internet functions as a valuable resource for individuals who seek information online. A majority of people for instance use it when searching for healthrelated information [11] . With the rise of social media in recent years, platforms like Facebook, Instagram and Twitter are a key resource to go for following updates during crisis events [12] like the COVID-19 pandemic spreading. On these platforms any registered user can publish and disseminate unverified content. This can act as a breeding ground for disinformation and fake news, potentially exposing millions of users to harmful misinformation in a short frame of time [10] . In order to prevent the negative impact of misinformation spread, there is an incentive to develop new methods capable of assessing the validity of social media posts.Constraint 2021 1 is a workshop on combating online hostile posts (hate speech, fake news detection, cyberbullying, etc.) in regional languages during emergency situation and is held as part of the 35th AAAI conference on artificial intelligence on February 8, 2021. It encourages researchers from interdisciplinary domains to think of new ways on how to combat online hostile posts during emergencies such as the 2021 US presidential election or the COVID-19 pandemic spreading. In alignment with that, the workshop organizes a shared task 2 [13] and invites for participation in it's two subtasks, which focus on COVID-19 Fake News Detection in English (Subtask 1) and Hostile Post Detection in Hindi (Subtask 2).In this paper, we discuss our take on Subtask 1, where we apply classical machine learning algorithms with diverse groups of linguistic features, considering n-grams, readability, emotional tone and punctuation, in order to classify social media posts as either fake or real.
+Related Work
+Interest about fake news detection has increased over the last years, and there are various shared tasks in this domain, like Profiling Fake News Spreaders on Twitter [19] , Fake News Challenge (FNC-1) [17] , RumorEval [3, 8] , CheckThat! [1] , and Fact Extraction and Verification (FEVER) [21, 22] .In Profiling Fake News Spreaders on Twitter, the task aims at identifying possible fake news spreaders on social media as a first step towards preventing fake news from being propagated among online users. The organizers of FNC-1 propose their task to be tackled from a stance perspective, i.e. estimate the stance of a body text from a news article relative to a headline, where the body text may agree, disagree, discuss or be unrelated to the headline. This is similar to task-A of RumorEval whose objective is to track how other sources orient to the accuracy of a rumourous story. In both task-B of RumorEval and task-B of CheckThat! the goal is to predict the veracity of a given rumor or claim. Task-A of CheckThat! is concerned with the detection of check-worthy tweets, i.e. tweets that include a claim that is of interest to a large audience (specially journalists), might have a harmful effect, etc. The idea behind FEVER is to evaluate the ability of systems to verify factual claims by extracting evidence from Wikipedia. Based on the extracted evidence, the claims are labeled Supported, Refuted, or NotEnoughInfo (if there isn't sufficient evidence to either support of refute it).Through these shared tasks, numerous methods for fake news detection have been found. Zhou et al. [24] propose GEAR, a graph-based evidence aggregating and reasoning framework, that enables information to transfer on a fullyconnected evidence graph and then utilizes different aggregators to collect multievidence information. In conjunction with BERT [4] , an effective pre-trained language representation model, they are able to achieve a promising FEVER score of 67.10%. Umer et al. [23] address the problem of fake news stance detection in FNC-1 by following a hybrid neural network approach, that combines the capabilities of CNN and LSTM, in addition with two different dimensionality reduction approaches, Principle Component Analysis (PCA) and Chi-Square. Within their experimental results they show that PCA outperforms Chi-Square and obtain state-of-the-art performance with 97.8% accuracy. Ghanem et al. [7] use classical machine learning algorithms together with stylistic, lexical, emotional, sentiment, meta-structural and Twitter-based features for the task of rumor stance classification in RumorEval, and introduce two novel feature sets that proved to be successful for this task.
+Task Description
+The Constraint 2021 Shared Task is composed of two individual subtasks:-Subtask 1: COVID-19 Fake News Detection in English -Subtask 2: Hostile Post Detection in Hindi Since our contribution to the shared task is solely concerned with Subtask 1, we shall now give a closer definition of that task, which is as follows: Given a collection of COVID-19-related posts from various social media platforms such as Twitter, Facebook, Instagram, etc., classify the posts as either fake or real, as illustrated in Table 1 The basis of the social media posts is provided by a manually annotated COVID-19 fake news dataset that is described in the following section.
+Dataset
+The foundation of social media posts provided for Subtask 1 is laid by a fake news dataset [14] containing 10700 manually annotated social media posts and articles of real and fake news on COVID-19. The dataset is split into training, validation and test sets with respect to a 3:1:1 ratio as illustrated in Table 2 . Regarding class label distribution, a consistent balance across training, validation and test set has been established, where 52.34% of the samples are attributed to real news and the remaining 47.66% to fake news. Further dataset metrics can be derived by determining total unique words, average words per post and average characters per post as shown in Table 3 . Based on data from the table, it can be observed that on average, real news posts are longer than fake news post in terms of both characters per post and words per post. The size of the vocabulary, given by the unique words in the dataset, is 37505 where 5141 of these words are contained in both fake and real posts.
+Evaluation
+Each team participating at Subtask 1 has access to training, validation and test splits of the dataset, where training and validation data are labeled, and test data are unlabeled. Participant systems should predict class labels for social media posts contained in test data. Performance is measured in terms of weighted average F1 score, however, weighted average precision, weighted average recall and accuracy are also reported. The best performing baseline result provided by the organizers is a linear SVM with 93.46% weighted average F1 score.
+System Description
+In our approach, we experiment with different pre-processing pipelines and apply classical machine learning algorithms with diverse groups of linguistic features, such as n-grams, readability, emotional tone and punctuation. Regarding machine learning, we utilize scikit-learn [15] , a Python module providing a wide range of state-of-the-art machine learning algorithms for medium-scale supervised and unsupervised problems. For some of our pre-processing steps we utilize functionality provided by the Natural Language Toolkit (NLTK) [9] . Furthermore, to extract some of the linguistic features, we use Linguistic Inquiry and Word Count (LIWC) [16] , which is a text analysis program, capable of reading a given text and counting the percentage of words that reflect different emotions, thinking styles, social concerns, and even parts of speech.
+Pre-processing
+Using scikit-learn's pipeline capability, we create and experiment with different pre-processing pipelines, where in each of these, the following steps may be applied:Stop word removal: If this step is applied, English stop words are removed from the social media posts. In that case, the stop word dictionary is provided by NLTK. Link removal: In this step, hypertext links are removed from the social media posts. This is accomplished via regular expressions. Lemmatization or stemming: During this step either lemmatization or stemming is performed. Lemmatization is achieved by NLTK's WordNet Lemmatizer and stemming by NLTK's Snowball Stemmer implementation, which is based on Porter2 stemming algorithm [18] . Reply removal: In this step, words starting with @ (mostly used for Twitter replies) are removed. This is also accomplished via regular expressions.Apart from the pre-processing steps described above, the following steps are always applied to every social media post:Lowercase transformation: To account for differences in capitalization, in this step, every word is transformed to lowercase. XML entity replacement: Some social media posts contain XML entities such as "&amp;amp;", "&amp;gt;" and "&amp;lt;". In this step, those entities are replaced by their corresponding text symbol.
+Features
+In terms of features, we focus on linguistic aspects such as n-grams, readability, emotional tone and punctuation. Based on these features, together with scikit-learn's pipeline capability, we create and experiment with different feature extraction pipelines, where in each of these, the features mentioned above may be contained:N-grams: We extract unigrams and bigrams derived from the bag of words representation of each pre-processed social media post. To address differences in content length, we encode these features as TF-IDF values. To accomplish this, we make use of scikit-learn's CountVectorizer in conjunction with it's TfidfTransformer. Regarding tokenization, we experiment with NLTK's TweetTokenizer and WordPunctTokenizer. Readability: Here we extract features that reflect text understandability. These features are based on properties such as words per sentence, characters per word, syllables per word, number of complex words, and so on. Various readability metrics that calculate a readability score using this information already exist. In our experiments, we calculate several of these metrics, including Automatic Readability Index (ARI) [20] , Flesch-Kincaid [5] , Coleman-Liau [2] , Flesch Reading Ease [6] and more.Emotional tone: We use the Linguistic Inquiry and Word Count text analysis software (LIWC, Version 1.6.0 2019) [16] to extract the proportions of words that fall into certain psycholinguistic categories (e.g., positive emotions, negative emotions, cognitive processes, social words). In our work, we experiment with features derived from LIWC summary categories (e.g. emotional tone, analytical thinking) and psychological categories (e.g. social words, cognitive processes). Punctuation: Also using LIWC, we construct a punctuation feature set composed of various types of punctuation as derived from LIWC's punctuation categories. These punctuation categories include punctuation characters such as question marks, exclamation marks, periods, commas, dashes, etc.
+Experiments and Results
+We conduct several experiments with different combinations of pre-processing steps and feature sets. Regarding machine learning algorithms, we use Support Vector Machine (SVM) with linear kernel, Random Forest (RF), Logistic Regression (LR), Naive Bayes (NB) and Multilayer Perceptron (MLP), all of which are provided by scikit-learn [15] . Every classifier is trained on the predefined training split of the dataset and validated against the predefined validation split, with accuracy, precision, recall and F1 measure. In order to tune the classifiers, we employ a grid search method as offered by scikit-learn. Within this method, we first predefine sets of pre-processing steps, features, and hyperparameters. Then the grid search is started, where elements of these sets are automatically combined into different classification pipelines, which are then trained and evaluated using respective training and validation data. After the grid search is finished, the best performing combination is retrieved. Table 4 shows results of highest performing models in each machine learning approach as found via grid search. Table 4 . Performance on validation data in terms of accuracy (Acc), weighted average precision (P), weighted average recall (R) and weighted average F1 score (F1) of highest performing models in each machine learning approach as found via grid search. Overall, only SVM and LR models were able to beat the baseline. The confusion matrix corresponding to SVM is illustrated in Figure 1 .In Table 5 , we have a closer look at the concrete pre-processing and feature combination that led to best performance in our SVM model and compare it to other combinations. We observe that using readability, punctuation and emotional features alone doesn't perform very well. In combination with each other, performance increases noticeably, however, overall performance is still far away from top. Interestingly, using n-gram features with pre-processing alone works fairly well and already is enough to outperform the baseline. With the additional introduction of the remaining features we reach our maximum performance.
+Shared Task Submission
+In total, shared task participants were allowed to submit five system runs. We decided to submit a system run for each of our five types of machine learning models. To do that, we used the models from Table 4 and had them predict labels for social media posts contained in the test set. Among our five submissions, the one using linear SVM yielded the best result with a weighted average F1 score of 95.19%. This is consistent with our expectations based on validation results, and is able to land a place in the middle of the leaderboard, where we are now placed at rank 80 of 167. Table 5 . Different feature and pre-processing combinations as used in our linear SVM and corresponding model performance in terms of weighted average F1 score on validation data. Model A describes the best feature and pre-processing combination as found by grid search.
+Model Features and Pre-processing F1
+A N-grams: Unigrams and bigrams are extracted from preprocessed social media posts. 
+Conclusion
+In this paper we presented an overview of our participation at the Constraint 2021 COVID-19 Fake News Detection Shared Task. We followed a classical machine learning approach, where we used Support Vector Machine, Random Forest, Logistic Regression, Naive Bayes and Multilayer Perceptron for classification. Feature-wise, we experimented with several linguistic features, such as n-grams, readability, emotional tone and punctuation. Our pre-processing pipeline consisted of steps like stop word removal, stemming/lemmatization, link removal and more. Each of the five classifiers we used was tuned by conducting a grid search over different combinations of feature sets, pre-processing steps and hyperparameters. In the end, we submitted the best run of each classifier and achieved the best result (95.19% F1 score on test data) with our Support Vector Machine, landing on place 80 of 167 in the leaderboard.
+</t>
+  </si>
+  <si>
+    <t>7bd9b0f97c4c4a0ed90c8232446d76bc39a951d2</t>
+  </si>
+  <si>
+    <t>Ultrasound in Medicine and Biology of Point-of-Care Lung Ultra-sound for Clinical Classification of COVID-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+In this study, the utility of point-of-care lung ultrasound for the clinical classification of coronavirus disease (COVID-19) was prospectively assessed. Twenty-seven adult patients with COVID-19 underwent bedside lung ultrasonography (LUS) examinations three times within the first two weeks of admission to the 2 isolation ward. We divided the 81 exams into three groups (i.e., moderate group, severe group, and critically ill group). Lung scores were calculated as the sum of points. A rank sum test and bivariate correlation analysis were carried out to determine the correlation between LUS on admission and the clinical classification of COVID-19. There were dramatic differences in LUS (p&lt;0.001) among the three groups, and LUS scores (r=0.754) correlated positively with clinical severity (p&lt;0.01). In addition, moderate, severe, and critically ill patients were more likely to have low (≤9), medium (9-15), and high scores (≥15), respectively.This study provides stratification criteria of LUS scores to assist in quantitatively evaluating COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+COVID-19, which is caused by severe acute respiratory syndrome corona virus 2 (SARS-CoV-2), is a 3 new public health crisis threatening the world. The disease is transmitted primarily via direct contact or through droplets generated by an infected individual when coughing or sneezing (Rothe et al. 2020 ).SARS-CoV-2 binds to angiotensin receptor 2 (ACE 2 ) expressed by cells of the lung, making the lung the primary site of damage (Singhal 2020) . The most frequent symptoms of COVID-19 pneumonia are fever, cough, and fatigue; other symptoms include sore throat, myalgia, hemoptysis, and dyspnea. These symptoms are similar to those of other respiratory infections. Interestingly, the severity of COVID-19 varies, ranging from an asymptomatic state to acute respiratory distress syndrome and multiorgan dysfunction (Huang et al. 2020 ； Ren et al. 2020 . Therefore, effective therapies warrant the specific identification of disease severity.LUS has been rapidly developed in the last few years. Although it was originally proposed for a range of clinical applications in the 1990s, the technique has spread mainly in the last decade. Currently, acute respiratory failure, circulatory failure and cardiac arrest can be assessed by LUS. LUS can also be utilized for quantitative assessment of lung aeration and may be a useful tool to guide mechanical ventilation (Mojoli et al. 2019) . Moreover, prior research has shown that LUS affected clinical decisions for up to 50% of intensive care unit patients (Xirouchaki et al. 2014) . The unique benefits of LUS in the current context include bedside feasibility, no radiation, low cost and easy application (See et al. 2018 ). Indeed, due to its ready availability at the bedside, LUS may play a pivotal role in monitoring serial changes in COVID-19 pneumonia.The current clinical evidence strongly suggests the potential diagnostic accuracy of LUS for COVID-19 (Volpicelli and Gargani 2020) . Previous studies have reported that bedside LUS correlates with CT findings in adults with COVID-19 pneumonia (Poggiali et al. 2020) . Although the latter technique is considered one of the primary imagological criteria for the diagnosis of COVID-19, the disadvantages of 4 radiographic examinations make LUS a complementary method for COVID-19 patients. Some investigators suggest that lung abnormalities in the pediatric population and pregnant women with COVID-19 can be effectively detected by radiation-free LUS (Buonsenso et al. 2020c ；Denina et al. 2020 ). In addition, ultrasound, especially the use of pocket devices, is considered relatively safer because it reduces the exposure of health care workers to infected patients . Early studies suggested that the irregular pleural line with small subpleural consolidations, white lung, confluents and irregular vertical artifacts (B-lines) are ultrasonic manifestations of COVID-19 pneumonia , and LUS scores have been used for the identification of patients with lung involvement and disease severity (Vetrugno et al. 2020) . However, such studies are mostly subject case reports, and further research is lacking. Thus, the present study was undertaken to investigate correlations between LUS and the severity of COVID-19, aiming to clarify the diagnostic and monitoring role of LUS in COVID-19 pneumonia.
+Participants
+The prospective observational study included 27 patients with imaging signs of COVID-19 pneumonia (moderate and above) in the isolation ward of the First Affiliated Hospital of Wen Zhou Medical University from February 1 st , 2020, to March 1 st , 2020. All patients underwent three bedside LUS scans within the first two weeks of admission. We ensured that all patients were admitted in the early stages of COVID-19 because patients with confirmed COVID-19 are immediately admitted to the isolation ward in China. The interval between each ultrasound examination was three to five days. The study protocol was reviewed and approved by the Ethics Committee of the First Affiliated Hospital of Wen Zhou Medical University. The next of kin of all subjects provided informed consent for participation in this study.
+5
+Exclusion criteria:(1) Patients with mild disease who lacked imaging signs of pneumonia;(2) Patients with any conditions that interfered with LUS assessment, such as obstruction on the scan area and chest deformity;(3) Patients receiving examinations fewer than three times due to a short duration of hospitalization;(4) Patients lacking clinical data.
+Lung Ultrasonographic Assessment
+A bedside LUS was performed by a trained sonographer using a C1-5-RS transducer (1.5-5 MHz), GE Vivid iq. set (GE Healthcare, WuXi, JiangSu, China). The study depth was set to approximately 10-15 cm (depending on the body habitus). The sonographer wore the standard personal protections as per WHO indications and disinfected the probe with 3% hydrogen peroxide after the examination.Ten (2 anterior, 2 lateral, and 1 posterior) lung zones were scanned in sequence ( Figure 1 ). The anterior, lateral and posterior zones were divided by the anterior and posterior axillary lines. The anterior and lateral regions were divided into upper and lower parts, respectively, by the 4 th rib. Scanning started in the anterior zone, descending from the clavicle to the 4 th rib (zone A1) and then downwards to the upper surface of the abdominal organs (zone A2). After that, the scan proceeded down from the axilla to the 4 th rib (zone L1) and then to the upper margin of the abdominal organs (zone L2). We examined the posterior (zone P) and scanned the abdominal contents from the upper lung boundary. The contralateral thoracic cavity was then examined. The anterolateral parts of the chest wall were examined in the supine position and the posterior parts either in the lateral or seated position. This study had no impact on the treatment of the patients.The sonographic signs of lung aeration were classified into the following four scoring patterns (Soldati et al. 2020a) (Figure 2 ): (1) Score 0: the presence of lung sliding, with A lines or isolated B lines (less than 6 or equal to two) and the pleural line continuous and regular; (2) Score 1: the pleural line was indented, with multiple spaced B lines of an interval of approximately 7 mm; (3) Score 2: the pleural line was broken, with coalescent B lines at an interval of ≤3 mm; (4) Score 3: dense and largely extended white lung with or without larger consolidations. For a given region of interest, points were allocated according to the worst ultrasound score pattern observed. The lung scores were calculated as the sum of points (the highest score was 30).
+Statistical Analysis
+Statistical analysis was performed with SPSS 26.0 software (SPSS, Chicago, IL, USA). We divided the 81 exams into three groups (i.e., moderate group, severe group, and critically ill group) according to Guidelines on Diagnosis and Treatment of Novel Coronavirus Pneumonia (Trial, seventh edition) at each examination (Table 1) . Clinical data, including the LUS score, blood biochemistry (alanine aminotransferase, aspartate aminotransferase, r-glutamyl transferase, creatinine, and blood urea nitrogen), routine blood examinations (leukocyte count and lymphocyte count), and blood coagulation function (D-dimer), were monitored synchronously. The distribution of LUS scores among the three groups is provided. In addition, categorical variables with p&lt;0.05 according to the Spearman test were analyzed. Such categorical variables are expressed as percentages, and results were compared with those of the Kruskal-Wallis test or Wilcoxon test, as appropriate. A p-value less than 0.05 was considered statistically significant.
+Results
+Of the 27 patients with COVID-19 enrolled in our study, 16 (59%) were male and 11 (41%) female, with an average age of 63.0 ± 14.2 years (range, 35-93 years). The distribution of LUS scores for the three 7 COVID-19 groups is summarized in Figure 3 . Thirty-five exams (43%) were classified into the moderate group, 20 (25%) into the severe group, and 26 (32%) into the critically ill group. The mean LUS scores of the critically ill, severe and moderate groups were 16.2±2.4 (range, 11-20), 12.9 ± 3.7 (range, 7-20), and 7. 8±3.7 (range, 11-20) , respectively. According to Spearman correlation test results (Table 2) Then, we divided the LUS scores into three scales (low ≤9; 9&lt;medium&lt;15; high ≥15) and compared them with the severity of COVID-19 disease ( Table 3 ). The Wilcoxon test results (P&lt;.001) showed that the distribution of severity among the low-LUS, medium-LUS and high-LUS groups differed. In addition, critically ill patients have a high proportion in the high-LUS group (72%), with a lower proportion in the medium-LU and low-LUS group (27.6%, 0.0%). Moderate, severity and critically ill patients are more likely to be present in the low-LUS, medium-LUS and high-LUS groups, respectively.According to Kruskal-Wallis test results, lymphocytopenia (P&lt;0.001), leukocytosis (P=0.004), increased AST (P=0.014), increased RGT (P=0.016), and increased BUN (P=0.001) were more commonly observed in the critically ill group (Table 4) . However, no significant difference in D-dimer levels was observed among the three groups.
+Discussion
+The spread of the COVID-19 around the world is posing a tremendous danger to human health in 2020 and puts unprecedented pressure on health care workers. The number of cases continues to rise, and more than 6 million people have been infected thus far. Therefore, effective therapies warrant the specific identification of disease severity, as the severity of the disease varies according to patients' symptoms and 8 imaging characteristics. However, limitations of radiological imaging are obvious: (1) it is dangerous and time-consuming because of the transport of critically ill patients followed by the necessary decontamination procedures (Peng et al. 2020 ); (2) it is not suitable for pregnant women and children to receive repeated examinations due to the radioactivity involved (Yoon et al. 2020) ; and (3) the depiction based on a portable device does not always correlate with the clinical picture. Conversely, LUS examinations do not have the above limitations, and changes in pulmonary and cardiac signs can be observed by bedside ultrasound in real time. In a previous observational study, LUS was considered a useful tool to assess and monitor lung involvement in pregnant women with COVID-19 and even played a significant role in treatment decisions (Buonsenso et al. 2020c) . As a result, LUS is probably regarded as the best complement to radiography of the chest (Pierce 2020 ；See et al. 2018 .Ultrasound is an appropriate tool for the management of respiratory failure and lung injury caused by COVID-19 because histopathological progression of COVID-19 pneumonia occurs in the distal region of the lung, as characterized by alveolar injury and edema, interstitial thickening, and gravitational enhancement (Soldati et al. 2020b) . Several LUS patterns of COVID-19 pneumonia described in the literature include separate and coalescent B-lines, irregular and fragmented pleural lines, and small peripheral consolidations. These LUS patterns were confirmed in this study as well. Accordingly, some previous articles strongly emphasize the importance of bedside LUS for the diagnosis and clinical management of COVID-19 in the novel COVID-19 era. However, there is little further research on whether LUS can quantitatively assess the severity of this disease. In this study, we used LUS scores of 10 points to explore the applicability of the technique for COVID-19 rather than the 14 points suggested by Soldati et al. (Soldati et al. 2020a ). The two evaluation methods are essentially the same, with the 14-point LUS score dividing the posterior (zone P) into three sections. However, as a 10-point scan could be completed in a shorter time, it would be extremely serviceable for intensive care unit patients. 9 The results showed that the LUS score correlated highly positively with clinical severity, demonstrating the potential of LUS for quantitative management of COVID-19. We first found that moderate, severe, and critically ill patients were more likely to have low LUS, medium LUS and high LUS scores, respectively. This kind of classification of LUS scores can effectively stratify COVID-19 pneumonia severity and helpfully guide clinical monitoring. In addition, lymphocytopenia (P&lt;0.001) and leukocytosis have been reported to occur as the disease progressed (Cheng KB et al. 2020) , as verified in the present research. AST, RGT, and BUN levels correlated weakly with COVID-19 severity, and their distributions were different in the three COVID-19 groups.
+Limitations
+Our study has certain limitations. First, our sample size was small. To better evaluate the utility of LUS in the management of patients with COVID-19, future studies with a larger number of patients are needed.Second, multiple LUS exams were performed for the same patients, resulting in the inclusion of independent exams; this is because the total number of cases in this study was very small in the early stages of the epidemic. This situation may have caused statistical error but did not change the final conclusion. Third, the lack of clinical outcome (death, intensive care admission, ventilation) was also a limitation. As a result, using LUS to predict the risk for intensive care unit admission and death, as the research of Nicola et al.， was not involved (Bonadia et al. 2020 ). Finally, our study was a cross-sectional study, which can only indicate whether LUS scores are highly related to the severity of COVID-19 but cannot provide prognostic information.
+10
+In this study, a significant correlation was found between LUS scores, leukocytes, lymphocytes and clinical classification of COVID-19. We also obtained stratification criteria of LUS scores for COVID-19.Although further research is needed, the findings expand the applications of ultrasound in COVID-19 from the complementary point of care to severity stratification, which will be helpful for guiding clinicians in accurate diagnosis and treatment outcome follow-up on patients with COVID 19. 
+</t>
+  </si>
+  <si>
+    <t>c2bec5ed11d3d8e5f658560e6849b6594060ef5c</t>
+  </si>
+  <si>
+    <t>A preliminary model to describe the transmission dynamics of Covid-19 between two neighboring cities or countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+We present a mathematical model that would allow one to describe the transmission dynamics of Covid-19 between two neighboring cities or countries. This model is analyzed both analytical and numerically. It is a preliminary model because it assumes that the migration rate and the mortality rate are constant over time. Despite these simplifications, only two of the four equilibrium conditions were deduced from the system of equations proposed in this paper. Finally, we show an example the transmission dynamics between Portugal and Spain according to the cases registered before June 3, 2020.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+Currently the world is suffering from a pandemic caused by a new coronavirus (2019-nCoV) that was detected for the first time in a Chinese market in Wuhan in December, 2019. Up to June 3, more than 7 million infections have been registered worldwide and more than 400,000 have deceased according to data registered at Johns Hopkins University.To date, a large number of mathematical models have been published to understand the transmission dynamics of Covid-19 in a given community, state, or a country [see for example [1] [2] [3] [4] . However, these studies do not consider the influence that the migration effect between neighboring countries can exert, and thus be able to design public policies that best fit the cases registered across the borders. This type of model is not new in the scientific literature, although there are few cases that analyze real data and have not been used to describe the transmission of Covid-19. In fact, one of the pioneering works was that of Ahmed et al [5] who present one of the first models with displacement between two different regions, and later generalized between different n patches by Sattenspiel et al [6] . In fact, Wallen and Zhao present various variants based on a SEIR and SEIRS type compartmental model [7, 8] . However, it was Chen et al [9] who proposed a transmission model where people can become infected during travel.Unfortunately, the countries do not separate the cases of contagion by local (or community) Covid-19 and those caused by the effect of migration (or imported). This is a limitation that it is necessary to indicate in the future. Therefore, this work presents a preliminary mathematical model that could explain the transmission dynamics of Covid-19 that moves between neighboring countries as will be explained in the next section.
+Mathematical model
+The model is of the compartmental type capable of describing the transmission dynamics between two neighboring cities or countries. The cities are denoted with the subscripts 1 and 2, and we propone the following system of equations:where the subscript represents each of the countries (i = 1,2). The β i and μ i values are determined from a least squares adjustment of the cases of contagion registered in the John Hopkins University database.In the next section, the system of equations proposed in the work will be analytically investigated.
+Analytical resolution
+The methodology required to solve the system of equations proposed in this work has been described on multiple occasions throughout various scientific works [10] [11] [12] [13] [14] , and for this reason, only we shows the results.Four steady-state solutions are obtained when the system of equations is solved (denoted as PC i , i = 1 until 4) and they are:. CC-BY 4.0 International license It is made available under a is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity.
+(which was not certified by peer review)
+The copyright holder for this preprint this version posted July 21, 2020. The next step is to determine if these values (ie., PC i , i=1..4) are stable over time, and for this, the Jacobian of the system of equations must be calculated, and evaluated in each of the four solutions indicated above.The Jacobian obtained from the system of equations (abbreviated as J) is equal to:. CC-BY 4.0 International license It is made available under a is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity.The copyright holder for this preprint this version posted July 21, 2020. .To determine if each solution is stable over time, we must evaluate Jacobian for each of the Critical Points, and later determine the eigenvalues. However, it was only possible to calculate the eigenvalues of the first two critical points (PC 1 and PC 2 ) given that the last two have generated very complex analytical expressions which are difficult to analyze in this paper.Two eigenvalues that were determined for the first critical point (PC 1 ) are:The eigenvalues of the second critical point (PC 2 ) are:From these values, we can deduce, for example, that, so that the solutions are real. and the next step we shows an example between Portugal and Spain.The copyright holder for this preprint this version posted July 21, 2020. . The figure 2 shows the vector field diagrams of the infected cases in each of the countries (I 1 versus I 2 ) that were evaluated with the parameters obtained in the previous step. As can be seen in Figure 2 (a), the transmission dynamics of Covid-19 between the countries when there are no imported cases (β 12 = β 21 = 0). Figure fig 2(b) considers that there is a migration of people from Portugal to Spain (B 12 = 50, B 21 = 0. These values were randomly selected. Finally, Figure 2 (c) presents an extreme example where a high migration of people from Portugal to Spain is assumed highlighting the exponential growth of cases in Spain.. CC-BY 4.0 International license It is made available under a is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity.The copyright holder for this preprint this version posted July 21, 2020. . https://doi.org/10.1101/2020.07.18.20156695 doi: medRxiv preprint Figure 2 (a). Vector field diagram of Covid-19 infected cases between Portugal and Spain (denoted as 1 and 2, respectively). In this example, we considered an initial susceptible population S 1 = 100 and S 2 = 140. Fig 2(b) . Vector field diagram where there is only a migration of imported cases from Portugal to Spain (B 12 = 50, B 21 = 0) where it is seen how the cases of contagion in Spain increase significantly.. CC-BY 4.0 International license It is made available under a is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity.The copyright holder for this preprint this version posted July 21, 2020. . https://doi.org/10.1101/2020.07.18.20156695 doi: medRxiv preprint Fig 2(c) . It is an extreme example where it is only considered that there could be a high migration of cases of infections that leave Portugal to Spain (B 12 = 100, B 21 = 0), and we verify that Portugal presents few cases in comparison to Spain.
+Numerical solution
+We analyzed the number of infected cases between Portugal and Spain, denoted as 1 and 2, respectively. To do that, it is necessary to fit using the least squares method for each of the parameters of the system of equations based on the data recorded in the Johns Hopkins University up to June 3, 2020. We have preferred to adjust the data country by country because we don't have data separating the local and imported cases between these countries. is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity.
+Conclusions
+The present mathematical model proposes a system of differential equations that will allow us to understand how the transmission dynamics of cases by Covid-19 varies between two neighboring countries. This system was partially solved analytically due to the complexity of the solutions found in the work. Finally, an example of how the number of cases of Covid-19 infection between Portugal and Spain can vary is presented.It is necessary that the countries must separate the local cases from the imported ones, and in this way be able to propose more realistic models, and in this way, for example, be able to relax or radicalize the measures at the borders between neighboring countries.
+Acknowledgment
+I'd like to acknowledgment to Karl E. Longreen for your comments in this manuscript.. CC-BY 4.0 International license It is made available under a is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity. (which was not certified by peer review)The copyright holder for this preprint this version posted July 21, 2020. . https://doi.org/10.1101/2020.07.18.20156695 doi: medRxiv preprint
+</t>
+  </si>
+  <si>
+    <t>6619829d93f0e2761fa149b5ae8d5a77ca13adbc</t>
+  </si>
+  <si>
+    <t>Detecting specific cytotoxic T lymphocytes against SARS-coronavirus with DimerX HLA-A2:Ig fusion protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+To assess specific cytotoxic T lymphocytes (CTLs) against Severe acute respiratory syndrome (SARS)-coronavirus, a modified DimerX flow cytometry assay was performed with peripheral blood mononuclear cell (PBMC) from HLA-A2 + SARS-recovered donors at different time points post disease. CD8 + DimerX-S1203 + CTLs were detected in the PBMC from these donors up to 3 months after recovery. The percentages of CD8 + DimerX-S1203 + cells paralleled the numbers of interferon-g-positive spots in an ELISPOT assay using the same antigenic peptide. In conclusion, DimerX-based flow cytometry staining may prove to be a real-time method to screen for CTL directed at epitopes from a newly identified virus. D
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+Severe acute respiratory syndrome (SARS) is a newly described viral disease that first appeared within the past 2 years [1, 2] . The pathogenic agent is the SARS coronavirus (SARS-CoV) that represents a new strain of coronavirus. To date, there is no effective treatment currently involving supportive therapy while the presumed anti-viral immune response develops. This appears to consist of neutralizing Ab, as well as cytotoxic T lymphocytes (CTL) that can be detected after SARS infection. We have previously shown that a nona-peptide corresponding to a sequence of the S2 protein from SARS-CoV could induce interferon-g-pro-ducing lymphocytes using an ELISPOT assay [3] . DimerX HLA-A2:Ig fusion protein/peptide complex staining and evaluation via flow cytometry have shown CTL for specific viral epitopes [4, 5] . In this study, we present evidence for the presence ofanti-SARS-CoV-specific CD8 + T cells in peripheral blood mononuclear cells (PBMC) obtained from SARS-recovered donors using a SARS S2 protein nona-peptide derived DimerX HLA-A2:Ig fusion protein.
+Peptide synthesis
+Two nona-peptides corresponding to sequences from a fragment of either the S2 protein of SARS-CoV (S1203 Hong Kong University of Science and Technology). Both nona-peptides showed a high affinity for the HLA-A2 molecule by database analysis [6] , and this was validated by T2 binding assay [3] .
+Patients and sample collection
+PBMCs were isolated from blood samples obtained from five donors who had recovered from SARS on August 26, 2003. These donors worked in the Peking University First Hospital and were infected with SARS-CoV between April 23 and April 27, 2003. All five of these donors are female, express HLA-A2 + , and ranged in age from 20 to 23 years old. Two age-matched, female HLA-A2 À SARS-recovered donors and two HLA-A2 + healthy donors acted as the control donors in this study. Detection of SARS-CoV antibody in the recovered donors (independent to the expression of HLA-A2) was performed using a commercially available ELISA kit (EUROIMMUN Medizinische Labordiagnostika AG) ( Table 1 ). All donors gave informed consent for the collection and testing of the PBMC samples and the protocol was approved and authorized by the Hospital Ethic Review Committee.
+IFN-c-release enzyme-linked immunospot (ELISPOT) assay
+The ELISPOT assay to detect IFN-g-secreting CD8 + T cells was performed according to the method described previously [7] . Briefly, PBMCs (1 Â 10 5 ) collected from the donors listed above were plated in triplicate in roundbottomed 96-well plates. The cells were incubated with 10 Ag/ml of either nona-peptide in 5% CO 2 at 378C. After 18h stimulation, the cells were thoroughly mixed and transferred onto flat-bottomed 96-well nitrocellulose plates (HA Multiscreen, Millipore, Bedford, MA, USA) coated with anti-IFN-g mAb (2 Ag/ml, 1-D1K; diluted in pH 9.6 carbonate buffer). The cells were then incubated for an additional 20 h. The plates were washed and blocked with 10% human AB serum for 2 h at 378C. The IFN-g-secreted spots were detected using a commercial kit (MABTECH, Sweden) according to the instructions of the manufacturer. The colored spots identifying the cytokine-producing cells were counted using a dissecting microscope. The mean number of spots from the triplicate wells was calculated and expressed as the number of specific IFN-g-secreting cells/1 Â 10 5 cultured PBMC cells [8] .DimerX HLA-A2:Ig fusion proteins for the analysis of specific T cells for SARS virusThe complex of SARS-CoV-specific and HcoV-229especific nona-peptide with DimerX HLA-A2:Ig fusion protein (gifts from Mr. Zhang Jing, BD Biosciences, USA) was produced with a modified active peptideloading by acid stripping following the standard protocol described in Application Handbook 1st Edition, BD Biosciences [9] . Briefly, nona-peptide concentration was calculated as noted below by the formula and dissolved at 20 mg/ml using DMSO (SIGMA, US) and then further diluted in sterile PBS to 2 mg/ml until use, was incubated BD DimerX reagent, and was then exposed to 5 volume equivalents of citrate-phosphate buffer (pH5.8) at 378C for 1.5-2 h. The pH of the mixture then was adjusted to 7.4 and the mixture was incubated at 48C for 36 h to allow the protein to refold. PBMCs from SARS patients or controls were blocked with human AB serum for 1 h before staining. The cells were suspended in PBS at a concentration of approximately 1 million cells per 50 Al and incubated with 4 Ag loaded BD DimerX at 48C for 1 h. After washing once with 200 Al PBS, the cells were resuspended in 100 Al PBS containing 1 Ag FITC-labeled anti-mouse IgG (BD Biosciences, US) and incubated at 48C for 45 min. After washing twice with 200 Al PBS, the cells were resuspended in 100 Al PBS containing 1 Ag PerCPconjugated antihuman CD8 at 48C for 45 min. After washing twice with PBS, the cells were resuspended in Table 1 The data of patients studied Results and discussion S1203 is a potent immunogenic T cell epitope in the S2 protein of SARS-CoV virus defined by our previous study [4] . S1203 is a nona-peptide with Leu and Val at positions 2 and 9 that anchor in the HLA-A 2 peptide binding groove and show a similar high affinity to HLA-A2 molecules during T2 cell binding assay [4] . In PBMC from SARS-recovered donors, specific CD8 + CTLs for S1203 were identified by DimerX staining as well as with ELISPOT assay using this nona-peptide (Fig. 1) . Furthermore, the results of DimerX staining paralleled the results of ELISPOT and both identify a class I MHC-restricted CD8+ T cell response (Table 1 ). In this study, PBMC from HLA-A2 À SARS-recovered donors and healthy HLA-A2 + donors were also assayed and none of these controls responded in either assay system (Table 1) . This suggests that DimerX HLA-A2:Ig is a useful tool in the screening of CTL directed against specific epitopes from the SARS-CoV proteins.DimerX staining as well as Tetramer staining [4, 10] provides a direct method using flow cytometry to identify the specific CD8 + CTL. Tetramer technology is technically difficult to produce and is useful for only one specific peptide. In contrast, DimerX can present a variety of antigenic peptides, which in this case were combined with HLA-A2. Thus, the DimerX-peptide complex technique can be easily adopted in a clinic immunology lab. The time course of anti-viral-specific CTL identified with these techniques can be relatively short following recovery from viral infection. This minimizes the utility of a complex technology such as a Tetramer because it requires identifying and preparing the appropriate antigen-specific epitope. In contrast, the DimerX:HLA-A2 fusion protein/ S1203 method for staining antigen-specific C*+ CTL appears to be a readily adaptable method to detect viralspecific cells during the post-viral recovery phase. This method could prove to be valuable in understanding the normal immune response to SARS-CoV as well as potentially helping to explain the varied outcome associated with SARS infection. PBMCs from SARS-recovered donors could be activated and secrete IFN-g by S1203, but not by H1121. (B) CD8 + DimerX-S1203 + , but not CD8 + DimerX-H1121 + , cells were detected in PBMC from HLA-A2 + SARS-recovered donors.
 </t>
   </si>
 </sst>
@@ -297,13 +397,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -676,81 +773,112 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/media/papers_test.xlsx
+++ b/media/papers_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alex\code\Glonnet\Sci_papers_front\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5538EB0C-4002-44D8-946B-A7E78437844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E60B427-4E43-4E34-AC58-20C993B6ABAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>paper_id</t>
   </si>
@@ -129,52 +129,6 @@
 </t>
   </si>
   <si>
-    <t>0f1fd39cc9db51f98124a1a2646474c7f00c55d5</t>
-  </si>
-  <si>
-    <t>Methotrexate inhibits SARS-CoV-2 virus replication "in vitro"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract
-In early 2020 the new respiratory syndrome COVID-19 (caused by the zoonotic SARS-CoV-2 virus) spread like a pandemic, starting from Wuhan, China, causing severe economic depression. Despite some advances in drug treatments of medical complications in the later stages of the disease, the pandemic's death toll is tragic, as no vaccine or specific antiviral treatment is currently available. By using a systems approach, we identify the host-encoded pathway, which provides ribonucleotides to viral RNA synthesis, as a possible target. We show that methotrexate, an FDA-approved inhibitor of purine biosynthesis, potently inhibits viral RNA replication, viral protein synthesis, and virus release. The effective antiviral methotrexate concentrations are similar to those used for established human therapies using the same drug. Methotrexate should be most effective in patients at the earliest appearance of symptoms to effectively prevent viral replication, diffusion of the infection, and possibly fatal complications.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-potentially lethal complications. [5] [6] [7] This more dangerous stage is characterized by a dysfunctional immune response that leads to a cytokine storm, which predisposes to hemostatic abnormalities. [5] [6] [7] High levels of interleukin-6 (IL-6), together with significant levels of SARS-CoV-2 RNA, are an index of a high lethality risk. In the most severe cases, acute respiratory distress syndrome (ARDS), often complicated by pulmonary thromboembolism, occurs finally, leading to death. 8, 9 Extension of the viral infection to extrapulmonary districts 10 may have a role in the diffused post-COVID syndrome. 11 Patients with mild symptoms receive mostly symptomatic treatments. 6 Patients in the severe stage receive anti-inflammatory drugs, including low doses of steroids or drugs acting on the IL-6 axis. 12 As the COVID-19 pandemic would be substantially constrained by a drug blocking the reproduction of viral particles, several studies are ongoing 12 to reposition available drugs looking for their ability to interfere with essential viral functions.The novelty of the present report is provided by considering, in a system biology approach, not only the events of viral entrance and reproduction into lung type II pneumocytes but also their necessary collaboration with the human host cellular pathways, among which the one providing nucleotides required for the synthesis of viral RNA. The synthesis of purines (a component of nucleotides) is inhibited by methotrexate (4-amino-10-methyl folic acid, MTX), 13 an FDA approved drug, used to treat several cancer types and, at lower doses, autoimmune diseases. Herein, we present the first round of experiments "in vitro," which clearly show that MTX blocks, with high efficiency, SARS-CoV-2 replication in the post-entry phase.
-| Cells
-African green monkey kidney Vero E6 cell line was obtained from American Type Culture Collection (ATCC) and maintained in Dulbecco's modified Eagle's medium (DMEM; Gibco, Thermo Fisher Scientific) supplemented with 10% fetal bovine serum (FBS; Gibco, Thermo-Fisher Scientific) at 37°C in a humidified atmosphere of 5% CO 2 .
-| Virus
-We successfully isolated SARS-CoV-2 in Vero E6 cells from the na- | 1781 (G-9; Santa Cruz Biotechnology). The antigen-antibody complexes were detected using peroxidase-conjugated goat anti-human or goat antimouse IgG (Sigma) and revealed using the enhanced chemiluminescence (ECL) system (Santa Cruz Biotechnology).
-| Statistical analysis
-Data were analyzed for statistical significance using the one-way analysis of variance, and the Bonferroni post test was used to compare data. Differences were considered significant when p &lt; .05.Statistical tests were performed using GraphPad Prism 8. In rheumatoid arthritis and other inflammatory syndromes, the molecular target of MTX is not DHFR. 13 MTX decreases the levels of interleukin 6 (IL-6) and soluble IL-2 receptor, the reduction in cytokine levels being paralleled by an improvement in clinical indices. 20 Therefore, in COVID-19 patients in a more advanced stage, the treatment with MTX is expected to decrease virion production and down-regulate the IL-6 pathway, a strategy currently in use in different clinical trials. 12 
-CONFLICT OF INTERESTS
-The authors declare that there is no conflict of interest.
-AUTHOR CONTRIBUTIONS
-Lilia Alberghina conceived the idea that led to the systems iden- 
-DATA AVAILABILITY STATEMENT
-The data that support the findings of this study are available from the corresponding author upon reasonable request.
-Marco Vanoni
-http://orcid.org/0000-0002-8690-2587
-</t>
-  </si>
-  <si>
-    <t>2a6e6e09871c66741228e020ba0354978d2306e3</t>
-  </si>
-  <si>
-    <t>Science and pseudoscience during the COVID-19 pandemic COVID-19 pandemisi sırasında bilim ve yalancı bilim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract
-Since the emergence of humankind on the stage of history, activities occurring in parallel with the process of the fight between human and nature, humanization of nature and uncovering of the mystery of nature, have been examined under the title of science. Communication and confrontation of humanity with science started with the discovery of fire, and extended up to the present amazing technological and scientific advancements. The aim of scientific disciplines emerging with the efforts of scientists, who are engaged in science, is to reach the truth, find the truth, and change and humanize current life. The starting point in the search of scientific truth is the hypothesis proposed, and the specificity that is found and hidden in this hypothesis. The scientist primarily produces a specific hypothesis related to the research subject, and subsequently makes an all-out effort to prove, and at the same time, to disprove this hypothesis with utmost strength and honesty. The hypothesis produced, springs from inside of life. The problem for which an answer is searched is inside life itself, and its solution will facilitate the life of humanity. Only when the hypothesis is successfully proven or disproven, the scientific truth is reached. Trying to disprove one's own data or ideas requires extraordinary honesty. This honesty also requires an extraordinary commitment to ethical rules, which have been established in years with humanity's experiences (1, 2).Scientists do not owe anybody. Developed, humanized, cultured, and transformed humans owe only humanity. Therefore, each practice performed should have a humanitarian meaning, and this rule should never be forgotten while conducting scientific studies. All studies in positive sciences should involve factuality, internal and external consistency, criticism and self-criticism, universality, prediction, social necessity and belief in utopia, and these should create a source of inspiration. All these are regulated by scientific and ethical rules that have been established over centuries (1, 2).The preparation stages of a scientific design involve a considerably long process. The researchers involved in this process should ask themselves many different questions and go through many phases. In each stage, the most important foundation of researchers should be the scientific and ethical rules established priorily based on humanity's experiences. These stages can be listed as follows: Primarily, it is obligatory to ask a specific scientific and logical question. Afterwards, preliminary investigations related to the subject should be conducted, and relevant medical literature should be screened. After completion of this screening, hypotheses and predictions related to the subject should be specified. Before specifying hypotheses and predictions, all present resources and documents related to the subject that can be reached should be read carefully. Subsequently, the stages such as finding necessary monetary resources and obtaining approvals, conducting experiments, collecting data, evaluating data and making conclusions, and demonstrating validity inside life, should be performed respectively. The important points in a scientific study include searching for the truth, providing evidence, proving trueness, and being unbiased and objective (1, 2).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Since the emergence of humankind on the stage of history, activities occurring in parallel with the process of the fight between human and nature, humanization of nature and uncovering of the mystery of nature, have been examined under the title of science. Communication and confrontation of humanity with science started with the discovery of fire, and extended up to the present amazing technological and scientific advancements. The aim of scientific disciplines emerging with the efforts of scientists, who are engaged in science, is to reach the truth, find the truth, and change and humanize current life. The starting point in the search of scientific truth is the hypothesis proposed, and the specificity that is found and hidden in this hypothesis. The scientist primarily produces a specific hypothesis related to the research subject, and subsequently makes an all-out effort to prove, and at the same time, to disprove this hypothesis with utmost strength and honesty. The hypothesis produced, springs from inside of life. The problem for which an answer is searched is inside life itself, and its solution will facilitate the life of humanity. Only when the hypothesis is successfully proven or disproven, the scientific truth is reached. Trying to disprove one's own data or ideas requires extraordinary honesty. This honesty also requires an extraordinary commitment to ethical rules, which have been established in years with humanity's experiences (1, 2).Scientists do not owe anybody. Developed, humanized, cultured, and transformed humans owe only humanity. Therefore, each practice performed should have a humanitarian meaning, and this rule should never be forgotten while conducting scientific studies. All studies in positive sciences should involve factuality, internal and external consistency, criticism and self-criticism, universality, prediction, social necessity and belief in utopia, and these should create a source of inspiration. All these are regulated by scientific and ethical rules that have been established over centuries (1, 2) .The preparation stages of a scientific design involve a considerably long process. The researchers involved in this process should ask themselves many different questions and go through many phases. In each stage, the most important foundation of researchers should be the scientific and ethical rules established priorily based on humanity's experiences. These stages can be listed as follows: Primarily, it is obligatory to ask a specific scientific and logical question. Afterwards, preliminary investigations related to the subject should be conducted, and relevant medical literature should be screened. After completion of this screening, hypotheses and predictions related to the subject should be specified. Before specifying hypotheses and predictions, all present resources and documents related to the subject that can be reached should be read carefully. Subsequently, the stages such as finding necessary monetary resources and obtaining approvals, conducting experiments, collecting data, evaluating data and making conclusions, and demonstrating validity inside life, should be performed respectively. The important points in a scientific study include searching for the truth, providing evidence, proving trueness, and being unbiased and objective (1, 2).One of the most important disciplines, which reveals and actualizes science and scientific data in detail, is MEDICINE (1, 2). We have recently been confronted by the most important evidence that has proven this proposal. In December 2019, humanity faced a very important danger that threatened itself and its future. This danger was the COVID-19 infection as we all know. It was not known what COVID-19 was, how this infection proceeded, and how it could be prevented and treated (2, 3) . Humanity was in a great fright and anxiety. Many mysteries of this infection were resolved with studies that were conducted at an unprecedented pace. We will even resolve the issue of prevention with preventive vaccines, which will be on the market in 1-2 months (2, 3). In the meantime, however, we have faced a very important problem in terms of reliability of science and scientific data, and commitment to ethical rules. This problem was the data presented by pseudoscience against science (4) (5) (6) (7) (8) . In particular, various studies conducted without abiding by scientific research ethics committees had to be withdrawn. At this point, the scientific setting was attempted to be misguided, especially with data that were produced based on pseudoscience. The efficiency of the scientific world was attempted to be reduced. The evidence levels of the relevant studies were not sufficient (4) (5) (6) (7) (8) . These studies included excessive discordant and distorted data. One of the most important problems was the fact that researchers who had expertise other than the relevant area of expertise, were added to these studies. For example, one of the largest treatment studies was conducted by a cardiovascular surgeon. After a while, the deficits in this study, which was published in a very important journal, were revealed, and the study was withdrawn (9) . Many pseudoscience products were revealed and withdrawn from the scientific world due to the very high sensitivity of true scientists (4). I think this fight between science and pseudoscience will never end, but the existence of true science will persist for centuries as one of the greatest foundations of humanity.In conclusion, humanity's efforts to reach the truth and find true information, which has continued for centuries, will persist with an increasing speed by way of medical studies conducted with a steady commitment to scientific, ethical and universal rules, and probably, the process of humanization rather than extinction of nature will be completed.
-</t>
-  </si>
-  <si>
     <t>cc216ea6dac169d8e1791d5420cc9965350ad694</t>
   </si>
   <si>
@@ -198,29 +152,6 @@
 No funding was allocated for this manuscript as it was performed as part of the employment from the University of California San Diego Health Sciences, Department of Surgery, Division of Otolaryngology.
 Conflicts of Interest
 e authors declare that there are no conflicts of interest. 
-</t>
-  </si>
-  <si>
-    <t>00de7e43d12ce08306c79245e9b6ced401c1e4e4</t>
-  </si>
-  <si>
-    <t>Clinical Update in COVID-19 …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-Since the outbreak of COVID 19 , there has been extensive attempt from every sphere to come up with a suitable medicine for treatment purpose. However, till date there has been no single approved medicine for COVID 19 treatment [1] though several of them are in clinical trial and are showing promising result. Remdesivir is presently the frontrunners among the drug of choice for the treatment of COVID-19 as evidenced from clinical trials. However, there is no consolidated critical clinical summery on the activity and performance of Remdesivir in clinical settings. This article approaches a critical appreciation on the drug based on clinical evidences which is essential in present context. of suspect and laboratory confirmed COVID 19 case in adult and children hospitalized with severe disease [7] . The EPA allows Remdesivir to be distributed and administered intravenously by health care providers, as appropriate for the treatment of COVID-19. Based on the evaluation of EUA and clinical evidence available, considering the non-availability of any drug or treatment options for COVID-19, Remdesivir is assumed to be effective. The fact sheet provides detailed guidelines in this regard. EUA is provided to Gilead Sciences Inc. that simultaneously carries out clinical trials. 
-Probable mechanism against COVID19
-Remdesivir is a prodrug of an adenosine triphosphate (ATP) analog and its triphosphate form (RDV-TP) is known to inhibit the synthesis of viral RNA by delayed chain termination method [5] . A probable molecular mechanism is deciphered that the RDT-TP binds with RNA dependent RNA Polymerase [6] and forms complex with the viral RNA and ATP to inhibit RNA synthesis [9] . ▶Fig 2 summarizes the plausible mechanism of Remdesivir.
-Dosage and use
-The USFDA through EUA suggests the use of Remdesivir, administered through intravenous (IV) infusion to treat COVID 19. Though the optimal dose and duration of treatment remains unknown, their suggestion is depicted in ▶table 1 [10] .
-Other considerations and possible side effect
-It is advisable to use Remdesivir during pregnancy only if the potential benefit justifies the potential risk for the mother and the fetus. Since the pharmacokinetic analysis of Remdesivir is unavailable for patient with renal as well as hepatic imparement, its use is subject to potential risk and benefit consideration i. e. when the potential benefit outweighs the potential risk. Hepatic laboratory testing is compulsory during treatment [10] .Several infusions related reactions and symptoms including hypotension, nausea, vomiting, diaphoresis etc. are also reported in some case, that might require discontinuing the drug if clinically significant reaction takes place. Alanine aminotransferase (ALT) ▶Fig. 1 Chemical Structure of Remdesivir.▶Fig. 2 Plausible mechanism of action of Remdesivir against COVID19. elevation is also seen [10] . The most common adverse events were increased hepatic enzymes, diarrhea, rash, renal impairment, and hypotension. In general, adverse events were more common in patients receiving invasive ventilation [11] .The empirical non-clinical data of side-effect of Remdesivir is limited to mostly in-vitro observations. However, in-vivo pharmacological studies showed that Remdesivir may transiently increase respiratory rate while no significant effect on respiration or EKG have been recorded. Remdesivir is also negative in genotoxicity studies. No renal or hepatic abnormalities were attributed to Remdesivir usage [12] . No effect on CNS and cardiovascular function have been reported [13] . Considering these facts, Remdesivir is still not beyond question [14] and remains incompletely defined in human population [15] .
-Clinical research output
-The process of systemic review was followed (▶ Figure 3) Feb 2020, that has peaked up since the declaration of pandemic by WHO on 12 th March 2020. Analyzing the clinical trials from ▶table 2 it is evident that there is attempt to use Remdesivir alone or in combination with other drugs for the treatment of COVID 19. The non-availability of any suitable drug for the therapeutic purpose of COVID 19 as well as lack of information regarding safety issue of Remdesivir has promted its use only in hospital set-up and that too for critically ill patents. Data of adverse drug effect and long term use are expected only by the end of this year through several studies. Only a mere handful of publications are reported from the results of clinical trials (17, 18) while most of them are yet to be completed and still inconclusive. As a result, Remdesivir still remains as investigational drug, distant from USFDA approval.
-Scientific Publications
-There has been 660 Scientific publications found on the keyword 'Remdesivir; in pubmed.gov. out of which 636 are from the current year. However, a majority of them are review articles and meta-analysis while only 7 reflect results of clinical trials. The following ▶table 3 summarizes the clinical results reflected in research publication.
-Conclusion
-Remdesivir is presently a 'molecule of hope' to the world to stop the menace of COVID19. However, it has to cross stringent safety regulations and clinical trial to be out of question. It is to be remembered that Remdesivir is still not a USFDA approved drug and its efficacy against COVID 19 are initial result that requires subsequent validation and safety/ risk analysis studies for a longer duration to act as a full proof weapon against COVID 19. Careful monitoring of patient condition and parameters are warranted during Remdesivir administration. Scientific research should also look beyond this molecule to come up with better alternatives, which remains a challenge considering present situation. In this trial ethical and moral obligation of patients are evaluated in terms of effective treatment. The trial is a reproduction of Remdesivir and other drug usage to identify whether the drugs offer real time benefit to patients.[24]
 </t>
   </si>
   <si>
@@ -341,6 +272,92 @@
 PBMCs were isolated from blood samples obtained from five donors who had recovered from SARS on August 26, 2003. These donors worked in the Peking University First Hospital and were infected with SARS-CoV between April 23 and April 27, 2003. All five of these donors are female, express HLA-A2 + , and ranged in age from 20 to 23 years old. Two age-matched, female HLA-A2 À SARS-recovered donors and two HLA-A2 + healthy donors acted as the control donors in this study. Detection of SARS-CoV antibody in the recovered donors (independent to the expression of HLA-A2) was performed using a commercially available ELISA kit (EUROIMMUN Medizinische Labordiagnostika AG) ( Table 1 ). All donors gave informed consent for the collection and testing of the PBMC samples and the protocol was approved and authorized by the Hospital Ethic Review Committee.
 IFN-c-release enzyme-linked immunospot (ELISPOT) assay
 The ELISPOT assay to detect IFN-g-secreting CD8 + T cells was performed according to the method described previously [7] . Briefly, PBMCs (1 Â 10 5 ) collected from the donors listed above were plated in triplicate in roundbottomed 96-well plates. The cells were incubated with 10 Ag/ml of either nona-peptide in 5% CO 2 at 378C. After 18h stimulation, the cells were thoroughly mixed and transferred onto flat-bottomed 96-well nitrocellulose plates (HA Multiscreen, Millipore, Bedford, MA, USA) coated with anti-IFN-g mAb (2 Ag/ml, 1-D1K; diluted in pH 9.6 carbonate buffer). The cells were then incubated for an additional 20 h. The plates were washed and blocked with 10% human AB serum for 2 h at 378C. The IFN-g-secreted spots were detected using a commercial kit (MABTECH, Sweden) according to the instructions of the manufacturer. The colored spots identifying the cytokine-producing cells were counted using a dissecting microscope. The mean number of spots from the triplicate wells was calculated and expressed as the number of specific IFN-g-secreting cells/1 Â 10 5 cultured PBMC cells [8] .DimerX HLA-A2:Ig fusion proteins for the analysis of specific T cells for SARS virusThe complex of SARS-CoV-specific and HcoV-229especific nona-peptide with DimerX HLA-A2:Ig fusion protein (gifts from Mr. Zhang Jing, BD Biosciences, USA) was produced with a modified active peptideloading by acid stripping following the standard protocol described in Application Handbook 1st Edition, BD Biosciences [9] . Briefly, nona-peptide concentration was calculated as noted below by the formula and dissolved at 20 mg/ml using DMSO (SIGMA, US) and then further diluted in sterile PBS to 2 mg/ml until use, was incubated BD DimerX reagent, and was then exposed to 5 volume equivalents of citrate-phosphate buffer (pH5.8) at 378C for 1.5-2 h. The pH of the mixture then was adjusted to 7.4 and the mixture was incubated at 48C for 36 h to allow the protein to refold. PBMCs from SARS patients or controls were blocked with human AB serum for 1 h before staining. The cells were suspended in PBS at a concentration of approximately 1 million cells per 50 Al and incubated with 4 Ag loaded BD DimerX at 48C for 1 h. After washing once with 200 Al PBS, the cells were resuspended in 100 Al PBS containing 1 Ag FITC-labeled anti-mouse IgG (BD Biosciences, US) and incubated at 48C for 45 min. After washing twice with 200 Al PBS, the cells were resuspended in 100 Al PBS containing 1 Ag PerCPconjugated antihuman CD8 at 48C for 45 min. After washing twice with PBS, the cells were resuspended in Table 1 The data of patients studied Results and discussion S1203 is a potent immunogenic T cell epitope in the S2 protein of SARS-CoV virus defined by our previous study [4] . S1203 is a nona-peptide with Leu and Val at positions 2 and 9 that anchor in the HLA-A 2 peptide binding groove and show a similar high affinity to HLA-A2 molecules during T2 cell binding assay [4] . In PBMC from SARS-recovered donors, specific CD8 + CTLs for S1203 were identified by DimerX staining as well as with ELISPOT assay using this nona-peptide (Fig. 1) . Furthermore, the results of DimerX staining paralleled the results of ELISPOT and both identify a class I MHC-restricted CD8+ T cell response (Table 1 ). In this study, PBMC from HLA-A2 À SARS-recovered donors and healthy HLA-A2 + donors were also assayed and none of these controls responded in either assay system (Table 1) . This suggests that DimerX HLA-A2:Ig is a useful tool in the screening of CTL directed against specific epitopes from the SARS-CoV proteins.DimerX staining as well as Tetramer staining [4, 10] provides a direct method using flow cytometry to identify the specific CD8 + CTL. Tetramer technology is technically difficult to produce and is useful for only one specific peptide. In contrast, DimerX can present a variety of antigenic peptides, which in this case were combined with HLA-A2. Thus, the DimerX-peptide complex technique can be easily adopted in a clinic immunology lab. The time course of anti-viral-specific CTL identified with these techniques can be relatively short following recovery from viral infection. This minimizes the utility of a complex technology such as a Tetramer because it requires identifying and preparing the appropriate antigen-specific epitope. In contrast, the DimerX:HLA-A2 fusion protein/ S1203 method for staining antigen-specific C*+ CTL appears to be a readily adaptable method to detect viralspecific cells during the post-viral recovery phase. This method could prove to be valuable in understanding the normal immune response to SARS-CoV as well as potentially helping to explain the varied outcome associated with SARS infection. PBMCs from SARS-recovered donors could be activated and secrete IFN-g by S1203, but not by H1121. (B) CD8 + DimerX-S1203 + , but not CD8 + DimerX-H1121 + , cells were detected in PBMC from HLA-A2 + SARS-recovered donors.
+</t>
+  </si>
+  <si>
+    <t>4d9e9dd65b1ec310409e21a81bbbc65db945772f</t>
+  </si>
+  <si>
+    <t>Information preferences about treatment options in diffuse cutaneous systemic sclerosis: A Delphi consensus study Original Manuscript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+Objectives: The aim of this study was to identify and prioritize aspects essential for decision making in patients with diffuse cutaneous systemic sclerosis (dcSSc) and to gain insight into information preferences of treatment options which could guide development of a leaflet for patients. Methods: A three-round Delphi study was conducted with a panel of patients with dcSSc. The questionnaire was based on a systematic literature search regarding benefits and harms of four main treatment options in dcSSc: methotrexate, mycophenolate mofetil, cyclophosphamide pulses and stem cell transplantation. Patients were asked to identify information that is essential for making a treatment decision. After the third round, a live, online discussion was held in order to reach consensus on these items and to discuss the content and design of the leaflet. Consensus was defined as ⩾75% agreement among panel members. Results: Of the 36 patients invited, 78% (n = 28) participated in one or more rounds, 67% (n = 24) completed the first, 69% (n = 25) the second and 75% (n = 27) the third round. In the last round, median age of participants was 51 years (interquartile range, 18) and median disease duration 4 years (interquartile range, 5); 52% were female. Patients had been treated with mycophenolate mofetil (67%), methotrexate (44%), cyclophosphamide (41%), autologous stem cell transplantation (26%), rituximab (4%) or were treatment-naïve (7%). Eight patients joined the live panel discussion. The panel reached consensus on seven benefits (prolonged progression-free survival, improved quality of life, improved daily functioning, improved pulmonary function, improved skin thickness, improved mobility and reduced fatigue) and four harms (treatment-related mortality, infections, cardiac damage, increased risk of cancer) as essential information for decision making. Also a design of a leaflet was made. Conclusion: This study identified information about treatment options in dcSSc that should be addressed with patients. Our results can be used to develop effective patient information.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+Diffuse cutaneous systemic sclerosis (dcSSc) has a high impact on quality of life and is associated with increased mortality. 1 Several treatment options are available in dcSSc, including immunosuppressive medication (such as antimetabolite and alkylating agents), and hematopoietic stem cell transplantation (SCT). [2] [3] [4] [5] The choice of treatment depends on preferences of both the rheumatologist and the patient. Among rheumatologists, there is a fair level of agreement regarding treatment strategies for some aspects of SSc. 6 Still, patient preferences should be taken into consideration when choosing a treatment and shared decision making (SDM) is key in choosing the appropriate treatment strategy.A study in patients with SSc and interstitial lung disease showed, however, that in most consultations, patients were given little opportunity to explain their concerns about the disease and possible treatments. 7 Furthermore, in a qualitative study investigating the decision-making process in dcSSc, patients reported that the lack of accessible, reliable, dcSSc-specific patient education about treatment options is currently complicating decision making. 8 In order to optimize the SDM process in dcSSc, patient information that provides a clear overview of treatment options needs to be developed. 9 To create patient information that meets the needs of patients, more insight is needed in information preferences of patients with dcSSc. 10, 11 The aim of this study was to identify and prioritize aspects that should be included in patient information on treatment options in dcSSc.
+Design
+This is a consensus study using Delphi technique. In this structured process, we used three online questionnaire rounds and one live, online panel meeting with a final voting round in order to reach consensus. [12] [13] [14] This study was classified by the institutional review board as exempt from the Medical Research Involving Human Subjects Act (19-666/C). Written informed consent was obtained from all participants.
+Participants
+All patients with an established diagnosis of dcSSc treated at the University Medical Centre Utrecht, The Netherlands, between 1 January 2010 and 1 February 2020, were selected from the electronic hospital records. These patients were invited by their rheumatologist to participate in the study. All selected patients were verbally informed about the study by their rheumatologists (J.S., J.M.v.L.) during a routine hospital visit or by phone. When interested, they received written patient information by email and a link to the first Delphi round. Informed consent was obtained by an online form. We estimated that at least 25 participants were needed for a representative panel. 15 Nonresponders received a reminder 10 days after the invitation was sent.For all three rounds, 36 patients were invited to participate. In round 1, 24 patients completed the survey (67%); in round 2, 25 patients responded (69%); and in the last round, 27 patients responded (75%). Of the 27 patients who participated in the third round, 14 (52%) were female, median age was 51 years and median disease duration was 4 years. MMF was included in the treatment history of 67%, methotrexate in 44%, CYC in 41% and autologous SCT in 26% of all participants. For an overview of all patient characteristics, see Table 1 . Eight patients participated in the live online panel discussion.
+Questionnaire design and content
+The questionnaire was based on a systematic literature search on benefits and harms or side-effects of the four main therapies used in dcSSc, namely methotrexate, mycophenolate mofetil (MMF), cyclophosphamide (CYC) and autologous SCT. 13, 14 Results of this literature search are summarized in Supplementary Appendix 1.Round 1 consisted of a list of benefits and harms of the four treatment options. All questions and information about items was provided in simple text in order to make it easy to read for lay persons.Participants were asked to assess whether the given benefit or harm should be discussed during decision-making consultation (essential or not necessary). For each harm and benefit, the prevalence belonging to each of the treatment options was given, to the extent reported in the literature. Participants could also suggest new information items. The questionnaire was pilot-tested by two patients prior to the first round.In the second and third rounds, suggestions from participants from the prior round were added to the list of items. In the third round, only the items with no consensus were shown. Also the percentage of participants considering the item as essential was reported. Participants were now asked to choose the five most important benefits and five most important harms that should be discussed during an informed consent consultation. The results from the second round were shown as a percentage in the third round, in order to let participants reconsider their previous response.Socio-demographic (age, sex and education level) and disease-related details (disease duration and treatment history) were collected with multiple-choice questions the first time a patient participated.
+Consensus meeting
+After the third online round, a live, online consensus meeting using the videoconferencing platform Zoom© was held to discuss the items for which consensus had not yet been reached. This was done online to enable patients with travel limitations to join the discussion and to limit health risks during the COVID-19 pandemic. In rounds 2 and 3, and in the live session, consensus was considered to be achieved when ⩾75% of the panel ticked the same answer. In this meeting, content of an information leaflet about treatment options for patients was discussed as well.
+Data collection and analysis
+In rounds 1-3, data were collected using the software programme Calibrum®. Descriptive statistics were used to report patients' characteristics. Fisher's exact tests were used to compare categorical variables sex and treatment history with items quality of life, fatigue, skin thickness, daily functioning, infertility, hair loss and risk of malignancies and impact on social activities. The Mann-Whitney U test was used to assess the relation between disease duration and these prioritized items. A two-sided p-value of ⩽0.05 was considered statistically significant. Statistical analysis was done using SPSS version 25.0.
+Prioritized information
+In the first round, no benefits or harms were dismissed from the list. Five benefits (improved cardiac function, oesophageal function, improved mobility, improved mood, improved fatigue) and six harms (erectile dysfunction, neuropathic pain (CYC), temporary negative impact on social life (SCT), mobility (SCT), hormonal imbalance (SCT), increased fatigue (SCT and CYC)) were suggested by patients in the free-text fields. These items were added to the second round. In the second and third rounds, the items were prioritized. After the third round, agreement was reached over the following items: progression-free survival, quality of life, daily functioning and treatmentrelated mortality (Supplementary Appendix 2) . After the live online discussion with the panel, a final list was made with the benefits and harms that were considered most important to share with patients (Table 2) . Patients reached consensus on seven benefits and four harms as essential information for the decision-making process. The benefits included prolonged progression-free survival, improved quality of life, improved daily functioning, improved pulmonary function, improved skin thickness, improved mobility and reduced fatigue. The four harms included treatment-related mortality, infections, cardiac damage and increased risk of cancer.Except for erectile dysfunction, men did not prioritize different items compared to female participants. Patients prioritizing infertility had a shorter disease duration (3 vs 15 years, p = 0.015). No significant differences were observed between information preferences and treatment history.
+Information leaflet about treatment options
+In addition to the items marked as essential for making the treatment decision, the panel in the live online session (N = 8) agreed that all items prioritized by at least one patient in the online rounds should preferably be included in the information leaflet. They also suggested to include information about different routes of administration, the time to a noticeable treatment effect and contraindications for the four treatments. The final version of the leaflet was developed and send to the panel for feedback and approval ( Figure 1 ).
+Discussion
+In this study, we identified and prioritized information about treatments that is central for patients with dcSSc in decision making. Patients reached consensus on seven benefits and four harms as essential for decision making about treatment.Most of the benefits that were prioritized are related to quality of life and daily functioning (progression-free survival, improved quality of life, daily functioning and mobility and reduced fatigue). These findings are in line with patient perceptions about essential outcomes of treatment in SSc and other rheumatic diseases, which showed that quality of life and daily functioning were highly prioritized. 16, 17 There were three rounds and a live online meeting needed to reach agreement on the items, which reflects the different views of individual patients on this subject. Furthermore, no agreement was reached on items about infertility and disease relapse, which are relatively common adverse events for CYC and SCT with considerable impact on quality of life. Patients prioritizing infertility had a significant shorter disease duration. Insight in information needs of subgroups might be helpful to provide tailored information. For example, in oncology, different information preferences were observed in female versus male, and in younger versus older patients. 18 In patients with diabetes mellitus, different information needs were found in subgroups including age, education level and disease duration. 19 In our study, no differences in information preferences were observed between patients from different age groups, sex or with different treatment histories. This can be explained by the relative small subgroups and small range in age and requires further research in larger groups. In addition to optimal information content, we anticipate that effective information provision also includes structuring and tailoring information. In the last decades, patient decision aids have been developed, which provide more individualized information about therapeutic options for various conditions. In a previous study in patients with systemic lupus erythematosus (n = 298), effectiveness of a patient decision aid was compared with an information leaflet. As a result, the choice of treatment was much more aligned between patients and physicians when using the decision aid. Also, the information in the decision aid was rated as being of higher quality compared to usual care. 20, 21 Our study findings and the designed leaflet are generic and are meant as a first and hopefully helpful evidence-based guideline to inform patients when they face a treatment decision. Additionally, we realize that information, especially about risks, can be hard to understand and therefore health care professionals should preferably provide additional explanation. [22] [23] [24] Our study is the first to investigate information preferences in patients with dcSSc, but has some limitations. First, we selected the benefits and harms to be included in the first questionnaire ourselves. To that end, we have conducted an extensive literature search, so we are confident that we included the most relevant and evidence-based information items, but we realize we may have missed some. For that reason, we invited the panel to add items in the first Delphi round. Also, we appreciate that the patient panel might not be representative for all patients with dcSSc because this study was conducted in a tertiary centre and patients who are willing to participate to online questionnaires and an online live discussion might have different information preferences than patients who do not. Third, the education level of our participants was generally high, which may have resulted in a leaflet that may be too difficult to understand for patients with lower levels of literacy, as was seen in a study on the readability of information material developed by rheumatologists in other countries. 25 Further evaluation of the leaflet and information preferences in patients with a lower education level are therefore needed. As a next step, further research will be done on information preferences in a larger group, including patients from other centres, to investigate differences in preferences in subgroups such as sex, age groups, education level and disease stage. Also, an interactive decision aid will be developed and evaluated.To conclude, we identified information preferences of patients with dcSSc that need to be addressed for optimal participation in treatment decision making. The results of this study were used to develop an information leaflet that can be used in routine clinical practice. Further research on information preferences in subgroups and development of an interactive patient decision aid are now needed to further improve patient education and SDM.
+</t>
+  </si>
+  <si>
+    <t>3ee4d4e1c98f9ed56835242af15111e728ed9194</t>
+  </si>
+  <si>
+    <t>Modeling quantitative traits for COVID-19 case reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+Medical practitioners record the condition status of a patient through qualitative and quantitative observations. The measurement of vital signs and molecular parameters in the clinics gives a complementary description of abnormal phenotypes associated with the progression of a disease. The Clinical Measurement Ontology (CMO) is used to standardize annotations of these measurable traits. However, researchers have no way to describe how these quantitative traits relate to phenotype concepts in a machine-readable manner. Using the WHO clinical case report form standard for the COVID-19 pandemic, we modeled quantitative traits and developed OWL axioms to formally relate clinical measurement terms with anatomical, biomolecular entities and phenotypes annotated with the Uber-anatomy ontology (Uberon), Chemical Entities of Biological Interest (ChEBI) and the Phenotype and Trait Ontology (PATO) biomedical ontologies. The formal description of these relations allows interoperability between clinical and biological descriptions, and facilitates automated reasoning for analysis of patterns over quantitative and qualitative biomedical observations.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+The worldwide COVID-19 pandemic has brought into focus the need in research to have patient data more available and accessible to get new insights more efficiently and rapidly. Clinicians monitor biomolecular concentrations, other physiological signs, and symptoms manifested in different organ systems of the patient at different points in time. These clinical measures are very valuable data because they give intrinsic information about the underlying biological mechanism and patient disease trajectory that could be used to make informed and tailored therapeutic decisions. One problem that clinicians face is how to interpret patient laboratory results and quantitative traits, such as serum electrolyte concentrations or blood pressure, and link to their significance at a phenotypic conceptual level. To bridge this gap, computational biologists use ontologies to encode knowledge about how altered gene products and molecular processes affect cellular and tissue functions that ultimately are expressed as abnormal phenotypes and diseases. The life science community has been developing different ontologies to represent both molecular biology, clinical measures, and disease phenotypes. For instance the CMO [1] is designed to encode morphological and physiological measurement data generated from clinical and model organism research and health records. However, there is still the need to link this quantitative measurement standard to phenotypic ontologies. It is necessary to establish if a . CC-BY 4.0 International license It is made available under a is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity. (which was not certified by peer review)The copyright holder for this preprint this version posted June 20, 2020. . measurement falls into an abnormal range, if so what kind of phenotype might result, and what the consequences of the phenotype might be, either diagnostically or prognostically. Assignment of some phenotypes requires several measurements to be abnormal; these then need to be integrated. A clinician can then understand that given this phenotype, possibly along with others, a diagnosis may be made of a specific disease which then carries with it diagnostic and prognostic knowledge. The ability to collect, understand and integrate such measurements at the conceptual level is fundamental to personalised or "precision" medicine. To aid researchers to connect these different pieces of information and reason over it, here we present our work on modeling of case report forms for COVID-19, then on an ontology for representing quantitative traits, and finally on integration within PhenoPackets, an exchange standard for the transmission of patient phenotype data, to showcase its applicability.
+Mapping to ontologies
+We used the WHO COVID-19 case report form (CRF) RAPID version 23 March 2020 to manually extract 1 quantitative traits relevant for COVID-19. This CRF is divided in three modules: 1) admission to healthcare; 2) admission to ICU and follow-up patients; and 3) outcome. We extracted quantitative traits and units terms from modules 1 and 2 (located in the vital signs and laboratory results sections). Following recommendations by domain-experts immunologists with experience of COVID-19 patients, the initial list was augmented with further traits, reaching a final total of 57 trait terms. The CMO, an OBO Foundry ontology designed to define phenotype measurement data, has the precise concepts to annotate 67% of terms. We annotated the rest of terms using the Experimental Factor Ontology (EFO) [2] and the NCI Thesaurus (NCIT) [3] . Units were annotated using the Units Ontology (UO) [4] , where 63% of terms are represented. We then extracted and annotated patient metadata to capture mainly comorbidities, pre-admission medication and treatment terms, which were prioritized as clinical metadata for future application on sequence submission. Comorbidities were annotated with the Disease Ontology (79%) [5] , the Human Phenotype Ontology [6] and EFO, and medications using mainly ChEBI (65%) [7] and NCIT.
+Lexical mining of CMO labels and axiom patterns
+We lexically decomposed the labels of CMO classes using the labels of the Uberon [8] , ChEBI, and PATO [9] ontologies, following a strategy similar to the one previously applied to extract mappings from Gene Ontology labels [10] . We built a dictionary from the labels and synonyms of classes in Uberon, ChEBI, 2 and PATO, and identified their occurrence in the labels of CMO classes. For example, the CMO class "heart measurement" (CMO:0000670) matches with the Uberon class "heart" (UBERON:0000948).1 https://www.who.int/docs/default-source/coronaviruse/who-ncov-crf.pdf?sfvrsn=84766e69_2 2 https://protege.stanford.edu/conference/2006/submissions/demos/bada_demo%20description.pdf . CC-BY 4.0 International license It is made available under a is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity.
+(which was not certified by peer review)
+The copyright holder for this preprint this version posted June 20, 2020. . https://doi.org/10.1101/2020.06.18.20135103 doi: medRxiv preprintWe then added OWL axioms to the CMO based on the patterns used to define phenotype ontologies [11] and integrated the CMO with the Mammalian Phenotype Ontology (MP) [12] . Using the ELK reasoner [13] we were then able to infer relations between measurements and the phenotypes that may be detected using these measurements. For example, the CMO class "heart measurement" may be used to detect phenotypes falling under the MP classes "abnormal heart morphology" (MP:0000266) and "abnormal cardiovascular system physiology" (MP:0001544). Source code is freely available at https://github.com/leechuck/qto .
+Quantitative trait data model
+From the list of semantically annotated quantitative traits and units, we developed a data model which enables quantitative trait data to be machine-readable and interoperable for sharing and amenable to bioinformatics analysis. The data model is based on the Information Artifact Ontology (IAO) [14] , the BioAssay Ontology (BAO) [15] , the Ontology for Biomedical Investigations (OBI) [16] and UO. We use CMO classes to define the types and we implemented the Shape Expressions (ShEx) shape to 3 communicate the graph structure, generate and validate the instance data. Finally, we would like to highlight the knowledge gap detected in the biomedical ontological space for COVID-19 related clinical concepts thus offering an opportunity to expand and enrich viral-related content for CMO and UO. For example the cytokine measurement "IL-8 pg/mL ", we couldn't find a term neither in CMO nor in UO. Data model and ShEx shape are freely available at https://github.com/NuriaQueralt/BioHackathon/tree/master/bh20-ontology-qt .
+Integration into GA4GH PhenoPackets standard
+PhenoPackets is an exchange standard for packaging observable indicators and phenotype data together into an interlinked model of disease, patient data and corresponding characteristic values of traits. Phenotypes, indicators and disease expression are not symptomatically linked, but mediated by patients (in biomedical context) or organisms acting as key links. PhenoPackets model the interlinking and enable quantitative analysis of these interactions. Based on the GA4GH inlined PhenoPackets schema , an 4 extension to integrate the quantitative trait data model with additional trait ontologies and data was defined. This schema provides a "QuantitativeTraitFeature" base element to characterize and attach trait features and observable data. Conforming with the PhenoPackets reference implementation, Protobuf-based serialization was implemented to facilitate interoperable exchange with biomedical databases, repositories as well as computational pipelines. It also enables integration of phenotypic and quantitative data with sequence data. Future work will aim at applying this quantitative trait model to many other use-cases and applications. Source code for the PhenoPackets extension is freely available at https://github.com/cp-weiland/QuantitativeTraitFeature .
+</t>
+  </si>
+  <si>
+    <t>775198f6641eb8f613728ebde0809eff93180ecb</t>
+  </si>
+  <si>
+    <t>Mutations in two SARS-CoV-2 variants of concern re- flect two distinct strategies of antibody escape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract
+Understanding the factors that contribute to antibody escape of SARS-CoV-2 and its variants is key for the development of drugs and vaccines that provide broad protection against a variety of virus variants. Using microfluidic diffusional sizing, we determined the dissociation constant (K D ) for the interaction between receptor binding domains (RBDs) of SARS-CoV-2 in its original version (WT) as well as alpha and beta variants with the host-cell receptor angiotensin converting enzyme 2 (ACE2). For RBD-alpha, the ACE2-binding affinity was increased by a factor of ten when compared with RBD-WT, while ACE2-binding of RBD-beta was largely unaffected. However, when challenged with a neutralizing antibody that binds to both RBD-WT and RBD-alpha with low nanomolar K D values, RBD-beta displayed no binding, suggesting a substantial epitope change. In SARS-CoV-2 convalescent sera, RBD-binding antibodies showed low nanomolar affinities to both wild-type and variant RBD proteins-strikingly, the concentration of antibodies binding to RBD-beta was half that of RBD-WT and RBD-alpha, again indicating considerable epitope changes in the beta variant. Our data therefore suggests that one factor contributing to the higher transmissibility and antibody evasion of SARS-CoV-2 alpha and beta is a larger fraction of viruses that can form a complex with ACE2. However, the two variants employ different mechanisms to achieve this goal. While SARS-CoV-2 alpha RBD binds with greater affinity to ACE2 and is thus more difficult to displace from the receptor by neutralizing antibodies, RBD-beta is less accessible to antibodies due to epitope changes which increases the chances of ACE2-binding and infection.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+The spread of SARS-CoV-2 is governed by a combination of efficient transmission of the virus, and its ability to resist virus neutralization. Therefore, to successfully fight the SARS-CoV-2 pandemic it is crucial to fully understand the receptor recognition mechanisms, as this interaction regulates transmission, pathogenesis and host range 1 .The hallmark of the adaptive immune response towards SARS-CoV-2 resides in the generation of neutralizing antibodies (NAbs) that prevent the virus from binding to the angiotensin-converting enzyme 2 (ACE2) receptor on the host cell. Cell entry is driven by the SARS-CoV-2 spike protein, a trimeric transmembrane glycoprotein comprising S1 and S2 subunits, with the S1 subunit mediating viral binding to ACE2 2 . Given that the spike protein has become a prime target for vaccines, the development of mutations within the antigenic sites of the S1 receptor binding domain (RBD) raises significant concerns of viral escape of humoral immunity.The rapid global spread of SARS-CoV-2 has seen significant changes in viral fitness, and more than 4,000 variants have been reported to date 3 . The emergence of B.1.1.7 (SARS-CoV-2 alpha) and B.1.351 (SARS-CoV-2 beta) SARS-CoV-2 variants in the United Kingdom and South Africa, respectively, have raised specific concerns given that mutations in their respective spike-protein sequences have not only led to an increase in transmission, but both mutant strains have also become impervious to multiple NAbs that target both the RBD and N-terminal domain (NTD) of the original spike protein 4 .The alpha and beta variants share a N501Y mutation which is of particular importance considering that amino acid N501 is thought to be instrumental in stabilizing the interaction between the viral spike protein and the ACE2 receptor 1 . With the N501Y mutation, the altered interface seems to be accompanied by a change in the interaction network, with an increase in the number of hydrogen bonds and van der Waals contacts and leading to an increase in the binding affinity between the viral RBD region and the ACE2 receptor 5, 6 . Interestingly, the N501Y mutation only showed a modest impairment on the efficacy of late-stage clinical trial monoclonal antibodies (mAbs) REGN10933 and REGN10987 (Regeneron) and AZD1061 and AZD8895 (AstraZeneca) 7 . Furthermore, pseudoviruses with the N501Y mutation exhibited a similar neutralization potency to wild-type SARS-CoV-2 when exposed to vaccinated and convalescent serum samples 4 . Although the neutralization potential of these currently administered mAbs and vaccines is unaffected by SARS-CoV-2 alpha, not all mAbs raised against the wild type are effective in neutralizing this variant. In the structures of 38 antibody fragments (Fabs) in complex with RBD, the complementarity-determining regions 1 for 47% of these Fabs were in direct contact with N501, and as a result the neutralization efficacy of various mAbs were affected by this mutation 8 .In contrast to the alpha variant, the RBD of the beta variant has additional K417N and E484K mutations, raising specific concerns regarding viral antibody escape. This is supported by observations of pseudoviruses with a triple spike mutation (N501Y, K417N, E484K) which either abrogated or significantly resisted neutralization in convalescent and post-vaccinated sera 8, 9 . Interestingly, pseudoviruses carrying only single E484K, K417N or double K417N/E484K mutations showed only two-fold increases in transmission rates relative to wild-type pseudoviruses 4 . Yet, when combined with N501Y these mutations exhibited higher transmission rates, with N501Y/E484K showing a 13-fold increase relative to wild-type pseudoviruses. Interestingly, E484K and N501Y/E484K pseudoviruses partly resisted neutralization by post-vaccinated sera, but pseudoviruses with the K417N/E484K or the triple mutation exhibited the highest resistance to neutralization 4 . The ramification of these variants was highlighted in a trial which revealed that the double dose of AZD1222 vaccine only had a 10.4% efficacy at preventing mild to moderate symptoms induced by the beta variant 9 .In this study, we have used RBD-WT, RBD-alpha, and RBD-beta to quantify the impact of various RBD mutations (N501Y, K417N and E484K) on the binding affinity to ACE2 and a monoclonal Nab raised against the original SARS-CoV-2 (Wuhan-Hu-1 sequence). Then, we evaluated the same wild-type and variant RBDs in microfluidic antibody affinity profiling (MAAP) to measure affinity and concentrations of anti-RBD antibodies in convalescent serum obtained from individuals that recovered from an infection with the original SARS-CoV-2 variant. Unlike measurement of titers, determination of both affinity and concentration allows us to distinguish changes in affinity across the entire antibody population from loss of binding of a subset of antibodies. Correlating these serum-antibody affinities and concentrations with their ability to disrupt ACE2/spike S1 complexes enabled us to quantify the response of anti-RBD-WT antibodies in serum when challenged with RBD-alpha or RBD-beta. Our results suggest that while the anti-RBD-WT antibodies are effective against RBD-WT, they are less effective against both RBD-alpha and RBD-beta variants. More importantly, RBD-alpha and RBD-beta follow different approaches to evade the immune response. For RBD-alpha, antibody escape is mainly driven by an increase in the binding affinity to the ACE2 receptor, while RBD-beta seems to prevent antibody binding by changing key epitopes on the surface of the protein. As a result, both variants are more effective in binding to ACE2 on the surface of host-cells thus increasing their chance of successful cell-entry
+Results and Discussion
+Antibody escape by SARS-CoV-2 variants can be achieved by different mechanisms including an increased binding affinity to ACE2 or through the alteration of key NAb binding epitopes on the spike surface. To deconvolute these two escape mechanisms, we measured the ACE2 binding affinity of RBD-WT, RBD-alpha, RBD-beta, RBD-K417N, and RBD-E484K ( Figure 1A , Table 1 ) and then investigated binding affinities of the same RBDs to a monoclonal NAb that was obtained from a patient infected with the original SARS-CoV-2 variant (Wuhan-Hu-1 sequence; Figure 1B , Table 1 ). The K D of ACE2 binding to RBD-WT was 46 nM (CI 95%: 28-74), which is in line with previously observed values [10] [11] [12] [13] [14] [15] . RBD-alpha showed a considerably higher ACE2-binding affinity than RBD-WT with K D being reduced approximately by a factor of 10. For RBD-beta and the single mutant RBD-K417N, the ACE2-affinties were within experimental error of the RBD-WT K D . However, E484K binding to ACE2 has a K D that is approximately 8 times higher than for RBD-WT resulting in weaker binding affinity. The triple mutant RBD-beta therefore combines mutations that promote ACE2 binding (N501Y) with some that either have a limited effect (K417N) or even impede ACE2 binding (E484K), rationalizing the fact that the overall binding affinity of RBD-beta is comparable to the WT. Thus, an increase in ACE2 binding affinity is unlikely to be the main mechanism of immune escape for SARS-CoV 2 beta and it must draw additional advantages from carrying these mutations.To investigate the effect of the alpha and beta variant mutations on antibody binding, we used MDS to measure affinities to a monoclonal NAb that was obtained from a patient infected with the original SARS-CoV-2 variant (Figure 1B) . RBD-WT and RBD-alpha displayed similar K D values (5.7 nM (CI 95%: 2.2-11.8) and 8.8 nM (CI 95%: 4.4-15.8), respectively). For RBD-E484K, K D increased by a factor of 4 as compared with RBD-WT, resulting in a considerably reduced binding affinity to this antibody. Remarkably, the Nab did not show any binding to RBD-K417N up to the maximum tested concentration of 1 µM. Consequently, the triple mutant RBD-beta which contains K417N was also not bound. This suggests that RBD-beta mutations K417N and E484K do not increase the binding affinity to ACE2 but rather cause some antibodies to lose their ability to bind to the RBD domain. p 4 This was further confirmed by a recent study that combined kinetic binding experiments by surface plasmon resonance (SPR) with structural data obtained by cryo-electron microscopy 16 . In this study, monoclonal antibodies targeting epitopic region RBD2 17 did not bind to RBD-beta, while antibody affinity to RBD-alpha was found to be similar to RBD-WT 16 . In addition, the ACE2 binding affinity was increased for RBD-alpha while there was no difference between RBD-beta and RBD-WT 16 . The structural data also suggested that N501Y increases ACE2 affinity due to a hydrophobic interaction between Y501 and Y41 in ACE2, accompanied by cation-π interactions with K353 in ACE2 16 . In contrast, the RBD-beta-ACE2 complex lacks salt bridges between RBD-beta K417 and ACE2 D30 and between RBD-beta E484 and ACE2 K31, which seems to counteract the increased ACE2 affinity mediated by N501Y 16 . 18, 19 . Error bars are 95% credible intervals. Refer to Table 1 for nomenclature of RBD proteins.Next, we investigated how our observations on recombinant proteins translate to three convalescent serum samples from individuals who had been infected with the original SARS-CoV-2 variant. We used microfluidic antibody affinity profiling (MAAP) [18] [19] [20] followed by an in-solution receptor-binding competition assay 19,20 using RBD-WT, RBD-alpha and RBD-beta. While MAAP quantifies the affinity and the concentration of the polyclonal antibody mixture against RBD, the in-solution receptor-binding competition assay identifies NAbs that can displace spike S1 from the ACE2 receptor.In all three serum samples, antibodies bound tightly to each of the three different RBDs with K D in a range of 1-4 nM (Figure 2A) . The concentration of antibody binding sites varied over one order of magnitude from 10 nM to 100 nM. Thus, all three serum samples contained antibodies that were able to bind to all three variants of RBD with high affinity. Overall, sample 3973 contained the highest concentration of antibodies binding to all three types of RBD, followed by sample 3541 and sample 3707. Similar concentrations of binding antibodies against RBD-WT and RBD-alpha were found in each of the three serum samples, whereas the concentration of antibodies that bind to RBD-beta were lower than the other RBDs in two samples and higher in one sample, again highlighting that there may be significant differences in the binding epitope for RBD-beta.Through an in-solution receptor-binding competition assay 20 (Figure 2B) , we found that the antibodies in sample 3541 were unable to displace any of the three different S1 domains (WT, alpha, beta) from the ACE2 receptor, which suggests that the majority of antibodies in this sample do not target the receptor binding motif of the RBD and are thus unable to outcompete ACE2. Out of the other two serum samples, 3973 showed slightly increased displacement for all types of S1, an effect which is likely caused by the overall higher antibody concentration in sample 3973 (Figure 2A) . Interestingly however, samples 3973 and 3707 displayed the strongest displacement efficacy for S1-WT while both S1-alpha and S1-beta showed reduced displacement from ACE2 in line with increased transmission of the variants. p 5 18, 19 . Error bars are 95% credible intervals. (B) In-solution receptor-binding competition assay identifies polyclonal antibodies that displace spike S1 from the ACE2 receptor. At normalized R h = 0, all S1 was displaced from ACE2, and the measured R h is the same as for free ACE2. At normalized R h = 1, S1 was not displaced from ACE2 and the measured R h is the same as for ACE2/S1 complex. Error bars are standard deviations obtained from triplicate measurements.Based on these observations, we argue that for RBD-alpha, the reduced ability of serum antibodies to outcompete ACE2 binding to RBD can be explained by the increased affinity of the RBD for the ACE2 receptor ( Figure 1A) . Quantitatively, the inhibition of spike/ACE2 binding by NAbs is described by a ternary equilibrium in which antibodies compete with ACE2 for the binding to spike 20 . The parameters that govern this ternary equilibrium are the K D of spike/ACE2 binding, the K D of antibody/spike binding and the total concentrations of spike, ACE2, and antibodies. Our data suggest that the affinity and the concentration of antibodies against both RBD-WT and RBD-alpha in convalescent serum are largely similar (Figure 2A) . Consequently, amongst the parameters tested, for RBD-alpha only the affinity of RBD to ACE2 was increased, leading to the formation of a higher proportion of RBD/ACE2 complexes as compared with RBD-WT. During a SARS-CoV-2 infection, re-infection, or infection of vaccinated individuals, the same ternary equilibrium composed of serum antibodies, spike protein and ACE2 governs the amount of virus that binds to host cells. Thus, with the same level of anti-RBD antibodies and the same number of virus particles, SARS-CoV-2 alpha can attach to more ACE2 receptors (i.e., host cells) and therefore be more transmissible than the WT variant.By contrast, the reduced displacement efficacy for RBD-beta can be explained by a lower number of serum antibodies that are able to bind to RBD-beta as compared with WT. We have found a reduced concentration of antibodies binding to RBD-beta in serum samples 3973 and 3707 in comparison with RBD-WT and RBD-alpha. In contrast to RBD-alpha, both the affinity for ACE2 as well as the affinity of the polyclonal antibody response was largely unaffected for RBD-beta. In terms of the ternary equilibrium of spike/ACE2 and antibodies, a reduction in anti-RBD antibody concentration again leads to a higher proportion of RBD/ACE2 complexes and higher occupancies of host-cell receptors and, thus, might be related to increased transmission. p 6
+Conclusion
+Our data provides insights into the different strategies adopted by the SARS-CoV-2 alpha and beta variants to evade antibodies generated during an earlier infection with SARS-CoV-2. We argue that one of the mechanisms by which SARS-CoV-2 can boost its transmission is by increasing the fraction of virus particles that occupy the surface of host cells. This can be achieved either through higher-affinity binding to the host-cell receptor or through mutations in antibody binding epitopes on the surface of the spike protein in order to prevent antibody binding. Our data provide quantitative evidence that the SARS-CoV-2 alpha and beta variants adopt different strategies to achieve higher occupancy on the surface of host cells. RBD-alpha shows a ten times higher binding affinity to ACE2 than RBD-WT with little effect on affinities and concentrations of binding antibodies contained in SARS-CoV-2 convalescent serum. Thus, to boost its transmission, SARS-CoV-2 alpha seems to take the approach of increasing its binding affinity to ACE2. On the other hand, the two additional mutations (K417N and E484K) in SARS-CoV-2 beta do not seem to be beneficial for ACE2 binding, instead reducing its affinity back to the levels seen for WT. However, in SARS-CoV-2 convalescent serum, the concentration of antibodies able to bind RBD beta is two-fold lower than that of antibodies binding RBD WT. Thus, during re-infection, SARS-CoV-2 beta potentially evades the initial antibody response by interfering directly with antibody binding rather than by an increased binding affinity to ACE2.Our data provides quantitative insights on the molecular mechanisms of antibody escape employed by SARS-CoV-2 variants of concern. Such quantitative data are essential to understand how new virus variants evolve and can pave the way towards the development of broad therapeutics and vaccines that are not only effective against a wide range of existing viral variants but also cover the development of any future versions of the virus that may evolve. p 7 
+Fluorescent labeling of proteins
+Recombinant proteins were labeled with Alexa Fluor™ 647 NHS ester (Thermo Fisher) as described previously. 20 In brief, 50 µg of protein solution was mixed with dye at a three-fold molar excess in the presence of NaHCO 3 (Merck) buffer at pH 8.3, incubated at 4 °C overnight, and unbound label was removed by size-exclusion chromatography (SEC) on an ÄKTA pure system (Cytiva). SEC runs of RBD proteins were performed on a Superdex 75 Increase 10/300 column (Cytiva), while S1 and ACE2 were run on a Superdex 200 Increase 3.2/300 column (Cytiva). Labeled and purified proteins were stored at −80 °C in PBS pH 7.4 containing 10% (w/v) glycerol as cryoprotectant.
+Equilibrium affinity measurements by microfluidic diffusional sizing
+Binding affinity of RBD-ACE2 and RBD-NAb was measured on a Fluidity One-W Serum (Fluidic Analytics) as described previously. 19, 20 In brief, various concentrations of fluorescently labeled RBD and unlabeled ACE2 or NAb were mixed and incubated on ice for 1 h. The change in hydrodynamic radius (R h ) upon binding was measured in duplicate. K D values were determined by Bayesian inference as described previously. 18, 19 Origin of serum samples.Anti-SARS-CoV-2 seropositive human serum samples (convalescent) were obtained from BioIVT. BioIVT sought informed consent from each subject, or the subjects legally authorized representative, and appropriately documented this in writing. All samples are collected under IRB-approved protocols. p 8
+Microfluidic antibody-affinity profiling (MAAP)
+MAAP on a Fluidity One-W Serum was used to determine concentration of antibody-binding sites and K D of antibodies against RBD in serum samples of SARS-CoV-2 seropositive individuals as described previously. 19, 20 In brief, various concentrations of fluorescently labeled RBD and convalescent serum were mixed and incubated on ice for 1 h. The change in R h upon binding was measured in duplicate. Concentration of antibody binding sites and K D values were determined by Bayesian inference as described previously. 18, 19 Serum-antibody mediated displacement of ACE2 from S1 by using microfluidic diffusional sizing Displacement of ACE2 from SARS-CoV-2 S1 was measured on a Fluidity One-W Serum as described previously. 19,20 S1 is used to improve S/N as S1 binding induces a larger size change than RBD upon binding to ACE2. In brief, labeled ACE2 (10 nM) and unlabeled S1 (30 nM) were mixed with convalescent serum (90%) and incubated on ice for 30 min. The change in R h upon displacement of S1 was measured in triplicate. The R h of unbound labeled ACE2 at a concentration of 10 nM and ACE2-S1 mix (10 nM and 30 nM, respectively) in the absence of convalescent serum were used as reference values for 100% displacement and 0% displacement, respectively.
+Notes
+The 
 </t>
   </si>
 </sst>
@@ -707,7 +724,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -773,111 +790,114 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
